--- a/benchmarks/mc2022/times.xlsx
+++ b/benchmarks/mc2022/times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9B5C7-1E2C-8D45-B10F-80DD04726514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B724D0-8210-A74E-AD32-81A1C66AF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59200" yWindow="500" windowWidth="32600" windowHeight="25920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="1480" windowWidth="45580" windowHeight="25480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
   <si>
     <t>mc2022_track1_005</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>Relative</t>
+  </si>
+  <si>
+    <t>Rthreshold</t>
+  </si>
+  <si>
+    <t>Athreshold</t>
+  </si>
+  <si>
+    <t>No Lemma</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Unoptimized</t>
   </si>
 </sst>
 </file>
@@ -922,10 +937,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4539,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F059414-BF76-E043-8CA9-FC1D800821DC}">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4551,7 +4567,7 @@
     <col min="15" max="23" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -4609,8 +4625,32 @@
       <c r="W1" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4684,8 +4724,39 @@
       <c r="W2" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <f>$Y$2*D2</f>
+        <v>25.443999999999999</v>
+      </c>
+      <c r="AA2">
+        <f>IF(H2&gt;$Z2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>IF(K2&gt;$Z2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>IF(N2&gt;$Z2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>SUM(AA:AA)</f>
+        <v>40</v>
+      </c>
+      <c r="AE2" s="3">
+        <f t="shared" ref="AE2:AF2" si="0">SUM(AB:AB)</f>
+        <v>7</v>
+      </c>
+      <c r="AF2" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4696,7 +4767,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D66" si="1">B3+C3</f>
         <v>1.9E-2</v>
       </c>
       <c r="E3">
@@ -4731,7 +4802,7 @@
         <v>2.8999999999999901E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O66" si="1">H3/$D3</f>
+        <f t="shared" ref="O3:O66" si="2">H3/$D3</f>
         <v>1.5789473684210527</v>
       </c>
       <c r="P3" s="1">
@@ -4743,7 +4814,7 @@
         <v>0.85006529938662811</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R66" si="2">K3/$D3</f>
+        <f t="shared" ref="R3:R66" si="3">K3/$D3</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="S3" s="1">
@@ -4755,7 +4826,7 @@
         <v>0.83302434804103331</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U66" si="3">N3/$D3</f>
+        <f t="shared" ref="U3:U66" si="4">N3/$D3</f>
         <v>1.526315789473679</v>
       </c>
       <c r="V3" s="1">
@@ -4766,8 +4837,24 @@
         <f>MIN(U:U)</f>
         <v>0.91102032537992372</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="5">$Y$2*D3</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA66" si="6">IF(H3&gt;$Z3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB66" si="7">IF(K3&gt;$Z3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC66" si="8">IF(N3&gt;$Z3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4778,7 +4865,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E4" t="s">
@@ -4812,7 +4899,7 @@
         <v>0.125</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -4822,7 +4909,7 @@
         <v>63</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96875</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -4832,7 +4919,7 @@
         <v>63</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.90625</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -4841,8 +4928,24 @@
       <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4853,7 +4956,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
       <c r="E5">
@@ -4888,7 +4991,7 @@
         <v>6.88</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2172307692307687</v>
       </c>
       <c r="P5" s="1">
@@ -4900,7 +5003,7 @@
         <v>37.982008096356637</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.003076923076923</v>
       </c>
       <c r="S5" s="1">
@@ -4912,7 +5015,7 @@
         <v>3.9184834123222747</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2338461538461534</v>
       </c>
       <c r="V5" s="1">
@@ -4923,8 +5026,24 @@
         <f>MAX(U:U)</f>
         <v>41.969863561397368</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4935,7 +5054,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E6" t="s">
@@ -4969,7 +5088,7 @@
         <v>0.2</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9285714285714279</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -4979,7 +5098,7 @@
         <v>65</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -4989,7 +5108,7 @@
         <v>65</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -4998,8 +5117,24 @@
       <c r="W6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5010,7 +5145,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E7">
@@ -5045,7 +5180,7 @@
         <v>2.79999999999999E-2</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0909090909090911</v>
       </c>
       <c r="P7" s="1">
@@ -5057,7 +5192,7 @@
         <v>1.7966111893005388</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0909090909090911</v>
       </c>
       <c r="S7" s="1">
@@ -5069,7 +5204,7 @@
         <v>1.1248446855376666</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5454545454545365</v>
       </c>
       <c r="V7" s="1">
@@ -5080,8 +5215,24 @@
         <f>HARMEAN(U:U)</f>
         <v>2.1909859689775479</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5243,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.124</v>
       </c>
       <c r="E8" t="s">
@@ -5126,28 +5277,44 @@
         <v>2.6539999999999999</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.241935483870968</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>121</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0080645161290323</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>121</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.403225806451612</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>0.248</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5158,7 +5325,7 @@
         <v>5.8710000000000004</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.001000000000001</v>
       </c>
       <c r="E9">
@@ -5193,7 +5360,7 @@
         <v>117.864</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2683542971422019</v>
       </c>
       <c r="P9" s="1">
@@ -5201,7 +5368,7 @@
         <v>75.832999999999942</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0797852744592389</v>
       </c>
       <c r="S9" s="1">
@@ -5209,15 +5376,31 @@
         <v>43.111999999999995</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2030419451607806</v>
       </c>
       <c r="V9" s="1">
         <f>MEDIAN(N:N)</f>
         <v>87.914999999999992</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <f t="shared" si="5"/>
+        <v>38.002000000000002</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5411,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58899999999999997</v>
       </c>
       <c r="F10">
@@ -5259,19 +5442,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8455008488964346</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0016977928692699</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8675721561969443</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <f t="shared" si="5"/>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5282,7 +5481,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.649000000000001</v>
       </c>
       <c r="F11">
@@ -5313,19 +5512,35 @@
         <v>16.271000000000001</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9956371465805427</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92792792792792778</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92192192192192191</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>35.298000000000002</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5336,7 +5551,7 @@
         <v>5.0369999999999999</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.547000000000001</v>
       </c>
       <c r="F12">
@@ -5367,19 +5582,35 @@
         <v>64.575999999999993</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2231469314255121</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0571859638876722</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.142843237455589</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>41.094000000000001</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5390,7 +5621,7 @@
         <v>32.387</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.95</v>
       </c>
       <c r="F13">
@@ -5421,19 +5652,35 @@
         <v>2021.6880000000001</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.6195493465525</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1606489409643983</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.221613339342046</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <f t="shared" si="5"/>
+        <v>221.9</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5444,7 +5691,7 @@
         <v>11.010999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.504999999999995</v>
       </c>
       <c r="F14">
@@ -5475,19 +5722,35 @@
         <v>202.41300000000001</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7342604298356514</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0636478565682106</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6526376278588675</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <f t="shared" si="5"/>
+        <v>87.009999999999991</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5498,7 +5761,7 @@
         <v>13.426</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.139000000000003</v>
       </c>
       <c r="F15">
@@ -5529,19 +5792,35 @@
         <v>300.67099999999999</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8128185957996328</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9570901017240987</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8119123677473432</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>88.278000000000006</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5552,7 +5831,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F16">
@@ -5583,19 +5862,35 @@
         <v>0.37</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9508196721311473</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93442622950819676</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0655737704918034</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>0.122</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5606,7 +5901,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10700000000000001</v>
       </c>
       <c r="F17">
@@ -5637,19 +5932,35 @@
         <v>1.8859999999999999</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.598130841121494</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97196261682242979</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.626168224299061</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5660,7 +5971,7 @@
         <v>2.0259999999999998</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4879999999999995</v>
       </c>
       <c r="F18">
@@ -5691,19 +6002,35 @@
         <v>15.254</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1975955610357585</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99953760789149049</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3511097410604194</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>12.975999999999999</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5714,7 +6041,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11799999999999999</v>
       </c>
       <c r="F19">
@@ -5745,19 +6072,35 @@
         <v>4.1389999999999896</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.00847457627119</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0084745762711864</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.076271186440593</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5768,7 +6111,7 @@
         <v>29.227</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170.31399999999999</v>
       </c>
       <c r="F20">
@@ -5799,19 +6142,35 @@
         <v>2697.348</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.920306022992825</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0061122397454114</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.837500146787699</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>340.62799999999999</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +6181,7 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.027000000000001</v>
       </c>
       <c r="F21">
@@ -5853,19 +6212,35 @@
         <v>62.884999999999998</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99582771958798733</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90949918147971087</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91102032537992372</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>138.054</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5876,7 +6251,7 @@
         <v>5.7370000000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.698999999999998</v>
       </c>
       <c r="F22">
@@ -5907,19 +6282,35 @@
         <v>67.748999999999995</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9380646408039037</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1872071114546601</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2730566694043191</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>41.397999999999996</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5930,7 +6321,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.165</v>
       </c>
       <c r="F23">
@@ -5961,19 +6352,35 @@
         <v>12.132</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0085308056872007</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9184834123222747</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.833175355450237</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>6.33</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5984,7 +6391,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.588000000000001</v>
       </c>
       <c r="F24">
@@ -6015,19 +6422,35 @@
         <v>21.049999999999901</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3067375886524717</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0476637463496035</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1954526491447539</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>19.176000000000002</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6038,7 +6461,7 @@
         <v>10.433999999999999</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.286999999999999</v>
       </c>
       <c r="F25">
@@ -6069,19 +6492,35 @@
         <v>132.28299999999999</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7157593448012016</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0011052228866155</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7487743361577914</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>70.573999999999998</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6092,7 +6531,7 @@
         <v>0.222</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4570000000000007</v>
       </c>
       <c r="F26">
@@ -6123,19 +6562,35 @@
         <v>7.3680000000000003</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9997756338344177</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6699573704285391</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6531299080098718</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>8.9140000000000015</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6146,7 +6601,7 @@
         <v>23.524000000000001</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.554000000000002</v>
       </c>
       <c r="F27">
@@ -6177,19 +6632,35 @@
         <v>193.95</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1755840802443083</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3075700772152841</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4077016659632045</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>161.108</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6200,7 +6671,7 @@
         <v>27.268999999999998</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126.078</v>
       </c>
       <c r="F28">
@@ -6231,19 +6702,35 @@
         <v>130.505</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0688700645632068</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0037675090023637</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0351131839020289</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>252.15600000000001</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6254,7 +6741,7 @@
         <v>14.055999999999999</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.601999999999997</v>
       </c>
       <c r="F29">
@@ -6285,19 +6772,35 @@
         <v>111.986</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3421433871594628</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6533868061199251</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.978481325748207</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <f t="shared" si="5"/>
+        <v>113.20399999999999</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -6308,7 +6811,7 @@
         <v>2.069</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.343000000000004</v>
       </c>
       <c r="F30">
@@ -6339,19 +6842,35 @@
         <v>68.305999999999997</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.950846491336787</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7164068115906104</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.693131398259921</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <f t="shared" si="5"/>
+        <v>80.686000000000007</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -6362,7 +6881,7 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8220000000000001</v>
       </c>
       <c r="F31">
@@ -6393,19 +6912,35 @@
         <v>1.89</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2338090010976892</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84632272228320526</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0373216245883643</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z31">
+        <f t="shared" si="5"/>
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -6416,7 +6951,7 @@
         <v>2.83</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.445999999999998</v>
       </c>
       <c r="F32">
@@ -6447,19 +6982,35 @@
         <v>59.787999999999997</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98923453100590575</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0137879508252396</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.030428581131563</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>58.891999999999996</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -6470,7 +7021,7 @@
         <v>1.214</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0909999999999993</v>
       </c>
       <c r="F33">
@@ -6501,19 +7052,35 @@
         <v>7.702</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1149425287356312</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83302434804103331</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95192188851810666</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <f t="shared" si="5"/>
+        <v>16.181999999999999</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6524,7 +7091,7 @@
         <v>4.8979999999999997</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.170999999999999</v>
       </c>
       <c r="F34">
@@ -6555,19 +7122,35 @@
         <v>36.744</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98142158082441744</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9741229161482956</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0158414199220369</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <f t="shared" si="5"/>
+        <v>72.341999999999999</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -6578,7 +7161,7 @@
         <v>28.632999999999999</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170.78900000000002</v>
       </c>
       <c r="F35">
@@ -6609,19 +7192,35 @@
         <v>323.60899999999998</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0477782526977673</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8927624144412107</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8947883060384447</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>341.57800000000003</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -6632,7 +7231,7 @@
         <v>11.375</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.091999999999999</v>
       </c>
       <c r="F36">
@@ -6663,19 +7262,35 @@
         <v>49.904000000000003</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0063420111453047</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0005198369791233</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0376777842468603</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z36">
+        <f t="shared" si="5"/>
+        <v>96.183999999999997</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -6686,7 +7301,7 @@
         <v>9.3979999999999997</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.326000000000001</v>
       </c>
       <c r="F37">
@@ -6717,19 +7332,35 @@
         <v>42.987000000000002</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001525708182881</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.035142145145705</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0930936276254895</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z37">
+        <f t="shared" si="5"/>
+        <v>78.652000000000001</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6740,7 +7371,7 @@
         <v>10.202</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139.899</v>
       </c>
       <c r="F38">
@@ -6771,19 +7402,35 @@
         <v>206.08199999999999</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99684057784544555</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3911107298837018</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4730770055540068</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <f t="shared" si="5"/>
+        <v>279.798</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -6794,7 +7441,7 @@
         <v>5.2489999999999997</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.233000000000004</v>
       </c>
       <c r="F39">
@@ -6825,19 +7472,35 @@
         <v>150.185</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94951193311849047</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2943658244204692</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3381283763797422</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z39">
+        <f t="shared" si="5"/>
+        <v>128.46600000000001</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -6848,7 +7511,7 @@
         <v>87.406999999999996</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>487.71499999999997</v>
       </c>
       <c r="F40">
@@ -6879,19 +7542,35 @@
         <v>517.04200000000003</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97043560275980856</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0242559691623183</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.060131429215833</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <f t="shared" si="5"/>
+        <v>975.43</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -6902,7 +7581,7 @@
         <v>19.3</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163.04700000000003</v>
       </c>
       <c r="F41">
@@ -6933,19 +7612,35 @@
         <v>213.43099999999899</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0378173164792972</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2349077259931185</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3090151919385145</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z41">
+        <f t="shared" si="5"/>
+        <v>326.09400000000005</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -6956,7 +7651,7 @@
         <v>60.292999999999999</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304.79199999999997</v>
       </c>
       <c r="F42">
@@ -6987,19 +7682,35 @@
         <v>528.36699999999996</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0279502086668941</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7239625711960946</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7335330323630542</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <f t="shared" si="5"/>
+        <v>609.58399999999995</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -7010,7 +7721,7 @@
         <v>62.756999999999998</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252.11700000000002</v>
       </c>
       <c r="F43">
@@ -7041,19 +7752,35 @@
         <v>252.37899999999999</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99575990512341483</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99113506824212561</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0010392000539432</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z43">
+        <f t="shared" si="5"/>
+        <v>504.23400000000004</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -7064,7 +7791,7 @@
         <v>2.2349999999999999</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.706999999999994</v>
       </c>
       <c r="F44">
@@ -7095,19 +7822,35 @@
         <v>87.415999999999997</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0079347688191265</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0026987440460402</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0081769637976172</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z44">
+        <f t="shared" si="5"/>
+        <v>173.41399999999999</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -7118,7 +7861,7 @@
         <v>31.152999999999999</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388.37300000000005</v>
       </c>
       <c r="F45">
@@ -7149,19 +7892,35 @@
         <v>392.62200000000001</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0070190255244313</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0047093901996276</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0109405133724536</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z45">
+        <f t="shared" si="5"/>
+        <v>776.74600000000009</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -7172,7 +7931,7 @@
         <v>111.86499999999999</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>771.94899999999996</v>
       </c>
       <c r="F46">
@@ -7203,19 +7962,35 @@
         <v>817.02599999999995</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99522377773661208</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.078172262675384</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0583937539915202</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z46">
+        <f t="shared" si="5"/>
+        <v>1543.8979999999999</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -7226,7 +8001,7 @@
         <v>44.707000000000001</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8702.0969999999998</v>
       </c>
       <c r="F47">
@@ -7257,19 +8032,35 @@
         <v>8628.1329999999998</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99622079597595836</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99581905372923329</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99150043949176847</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z47">
+        <f t="shared" si="5"/>
+        <v>17404.194</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -7280,7 +8071,7 @@
         <v>25.975000000000001</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269.09199999999998</v>
       </c>
       <c r="F48">
@@ -7311,19 +8102,35 @@
         <v>644.35799999999995</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.712704205253222</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6303940659700029</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3945639409569961</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z48">
+        <f t="shared" si="5"/>
+        <v>538.18399999999997</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -7334,7 +8141,7 @@
         <v>1.0089999999999999</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3029999999999999</v>
       </c>
       <c r="F49">
@@ -7365,19 +8172,35 @@
         <v>9.2010000000000005</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9826313504125057</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91793313069908811</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9952236213634391</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z49">
+        <f t="shared" si="5"/>
+        <v>4.6059999999999999</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -7388,7 +8211,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91400000000000003</v>
       </c>
       <c r="F50">
@@ -7419,19 +8242,35 @@
         <v>2.802</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0240700218818377</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93982494529540472</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0656455142231946</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z50">
+        <f t="shared" si="5"/>
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -7442,7 +8281,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1179999999999999</v>
       </c>
       <c r="F51">
@@ -7473,19 +8312,35 @@
         <v>10.432</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9197355996222853</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92398489140698314</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9254013220018891</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z51">
+        <f t="shared" si="5"/>
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -7496,7 +8351,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3E-2</v>
       </c>
       <c r="F52">
@@ -7527,19 +8382,35 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3968253968253972</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9365079365079364</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4761904761904754</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <f t="shared" si="5"/>
+        <v>0.126</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -7550,7 +8421,7 @@
         <v>0.05</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13100000000000001</v>
       </c>
       <c r="F53">
@@ -7581,19 +8452,35 @@
         <v>4.7869999999999999</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.503816793893129</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96183206106870223</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.541984732824424</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z53">
+        <f t="shared" si="5"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7604,7 +8491,7 @@
         <v>3.2229999999999999</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.016999999999999</v>
       </c>
       <c r="F54">
@@ -7635,19 +8522,35 @@
         <v>226.535</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6385103802525514</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.285011058000999</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.161446814582295</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z54">
+        <f t="shared" si="5"/>
+        <v>28.033999999999999</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -7658,7 +8561,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F55">
@@ -7689,19 +8592,35 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.606557377049182</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91803278688524592</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.622950819672132</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z55">
+        <f t="shared" si="5"/>
+        <v>0.122</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -7712,7 +8631,7 @@
         <v>2.4790000000000001</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.335999999999999</v>
       </c>
       <c r="F56">
@@ -7743,19 +8662,35 @@
         <v>82.801999999999893</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3513294422827498</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3687581063553746</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7122243839169826</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z56">
+        <f t="shared" si="5"/>
+        <v>24.671999999999997</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -7766,7 +8701,7 @@
         <v>11.115</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.146999999999998</v>
       </c>
       <c r="F57">
@@ -7797,19 +8732,35 @@
         <v>118.962</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6760646160970309</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.152367891427859</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1187596843998788</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z57">
+        <f t="shared" si="5"/>
+        <v>112.294</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -7820,7 +8771,7 @@
         <v>8.69</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.078000000000003</v>
       </c>
       <c r="F58">
@@ -7851,19 +8802,35 @@
         <v>118.35599999999999</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5525122437873811</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97321482556381878</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5780881552693629</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <f t="shared" si="5"/>
+        <v>66.156000000000006</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -7874,7 +8841,7 @@
         <v>4.0970000000000004</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.556000000000001</v>
       </c>
       <c r="F59">
@@ -7905,19 +8872,35 @@
         <v>76.055999999999997</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5722396714182159</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95421599420149794</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.593863251993235</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z59">
+        <f t="shared" si="5"/>
+        <v>33.112000000000002</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -7928,7 +8911,7 @@
         <v>4.82</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.576000000000001</v>
       </c>
       <c r="F60">
@@ -7959,19 +8942,35 @@
         <v>83.457999999999998</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.416479362484675</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0024519820187985</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.263281569268492</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z60">
+        <f t="shared" si="5"/>
+        <v>39.152000000000001</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -7982,7 +8981,7 @@
         <v>17.039000000000001</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.164000000000001</v>
       </c>
       <c r="F61">
@@ -8013,19 +9012,35 @@
         <v>716.12599999999998</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.403344597521857</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4219305086214364</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.512650550212285</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z61">
+        <f t="shared" si="5"/>
+        <v>92.328000000000003</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -8036,7 +9051,7 @@
         <v>11.198</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.92</v>
       </c>
       <c r="F62">
@@ -8067,19 +9082,35 @@
         <v>186.923</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3058287795992713</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0013433515482695</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2559881602914391</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z62">
+        <f t="shared" si="5"/>
+        <v>87.84</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -8090,7 +9121,7 @@
         <v>7.5389999999999997</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.084000000000003</v>
       </c>
       <c r="F63">
@@ -8121,19 +9152,35 @@
         <v>101.468</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.407921881446843</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95107275477925646</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4887910878833721</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z63">
+        <f t="shared" si="5"/>
+        <v>58.168000000000006</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -8144,7 +9191,7 @@
         <v>21.904</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.438</v>
       </c>
       <c r="F64">
@@ -8175,19 +9222,35 @@
         <v>591.52599999999995</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7250765135188972</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2715550806787519</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3561817490356578</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z64">
+        <f t="shared" si="5"/>
+        <v>220.876</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -8198,7 +9261,7 @@
         <v>12.161</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.767000000000003</v>
       </c>
       <c r="F65">
@@ -8229,19 +9292,35 @@
         <v>246.56</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3372517315969796</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0046103087377345</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3872877837743349</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z65">
+        <f t="shared" si="5"/>
+        <v>91.534000000000006</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -8252,7 +9331,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F66">
@@ -8283,19 +9362,35 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.115942028985506</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98550724637681153</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.188405797101447</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z66">
+        <f t="shared" si="5"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -8306,7 +9401,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D81" si="4">B67+C67</f>
+        <f t="shared" ref="D67:D81" si="9">B67+C67</f>
         <v>4.7E-2</v>
       </c>
       <c r="F67">
@@ -8337,19 +9432,35 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" ref="O67:O81" si="5">H67/$D67</f>
+        <f t="shared" ref="O67:O81" si="10">H67/$D67</f>
         <v>5.6170212765957448</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:R81" si="6">K67/$D67</f>
+        <f t="shared" ref="R67:R81" si="11">K67/$D67</f>
         <v>0.97872340425531912</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:U81" si="7">N67/$D67</f>
+        <f t="shared" ref="U67:U81" si="12">N67/$D67</f>
         <v>5.5531914893617023</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z81" si="13">$Y$2*D67</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA81" si="14">IF(H67&gt;$Z67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" ref="AB67:AB81" si="15">IF(K67&gt;$Z67,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC81" si="16">IF(N67&gt;$Z67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -8360,7 +9471,7 @@
         <v>25.733000000000001</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>70.253</v>
       </c>
       <c r="F68">
@@ -8391,19 +9502,35 @@
         <v>380.411</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4735598479780219</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0093946166000027</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.4148719627631561</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z68">
+        <f t="shared" si="13"/>
+        <v>140.506</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -8414,7 +9541,7 @@
         <v>5.2690000000000001</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20.009</v>
       </c>
       <c r="F69">
@@ -8445,19 +9572,35 @@
         <v>839.77499999999998</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>37.982008096356637</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.2932180518766556</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.969863561397368</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z69">
+        <f t="shared" si="13"/>
+        <v>40.018000000000001</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -8468,7 +9611,7 @@
         <v>19.859000000000002</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>76.441000000000003</v>
       </c>
       <c r="F70">
@@ -8499,19 +9642,35 @@
         <v>560.06299999999999</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.4192906947842125</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0056775814026504</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.3267356523331717</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z70">
+        <f t="shared" si="13"/>
+        <v>152.88200000000001</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -8522,7 +9681,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F71">
@@ -8553,19 +9712,35 @@
         <v>0.504</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.661538461538461</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.93846153846153846</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.7538461538461538</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z71">
+        <f t="shared" si="13"/>
+        <v>0.13</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -8576,7 +9751,7 @@
         <v>2.25</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>73.031000000000006</v>
       </c>
       <c r="F72">
@@ -8607,19 +9782,35 @@
         <v>76.004000000000005</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.96958825704153029</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.95469047390834016</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.0407087401240569</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z72">
+        <f t="shared" si="13"/>
+        <v>146.06200000000001</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -8630,7 +9821,7 @@
         <v>73.402000000000001</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>205.14400000000001</v>
       </c>
       <c r="F73">
@@ -8661,19 +9852,35 @@
         <v>557.83500000000004</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.496821744725656</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1652643996412275</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.719236243809227</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z73">
+        <f t="shared" si="13"/>
+        <v>410.28800000000001</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -8684,7 +9891,7 @@
         <v>3.7080000000000002</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>129.792</v>
       </c>
       <c r="F74">
@@ -8715,19 +9922,35 @@
         <v>244.40499999999901</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0007704635108481</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.7739151873767258</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8830513436883551</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z74">
+        <f t="shared" si="13"/>
+        <v>259.584</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -8738,7 +9961,7 @@
         <v>9.032</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>45.593999999999994</v>
       </c>
       <c r="F75">
@@ -8769,19 +9992,35 @@
         <v>88.414000000000001</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6251261130850554</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1901785322630172</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9391586612273548</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z75">
+        <f t="shared" si="13"/>
+        <v>91.187999999999988</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -8792,7 +10031,7 @@
         <v>12.31</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>268.74</v>
       </c>
       <c r="F76">
@@ -8823,19 +10062,35 @@
         <v>424.93</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6468222073379475</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99289275880032735</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.5811937188360496</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z76">
+        <f t="shared" si="13"/>
+        <v>537.48</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -8846,7 +10101,7 @@
         <v>23.312000000000001</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>264.55500000000001</v>
       </c>
       <c r="F77">
@@ -8877,19 +10132,35 @@
         <v>762.84899999999902</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0111356806713159</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8709644497363498</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.8835176050348661</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z77">
+        <f t="shared" si="13"/>
+        <v>529.11</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -8900,7 +10171,7 @@
         <v>73.173000000000002</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>688.80499999999995</v>
       </c>
       <c r="F78">
@@ -8931,19 +10202,35 @@
         <v>1932.278</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0418333200252612</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.675006714527334</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.8052612858501318</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z78">
+        <f t="shared" si="13"/>
+        <v>1377.61</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -8954,7 +10241,7 @@
         <v>17.204999999999998</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>101.21899999999999</v>
       </c>
       <c r="F79">
@@ -8985,19 +10272,35 @@
         <v>119.943</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0635157430917122</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1430067477449888</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.1849850324543811</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z79">
+        <f t="shared" si="13"/>
+        <v>202.43799999999999</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -9008,7 +10311,7 @@
         <v>15.795</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>519.91300000000001</v>
       </c>
       <c r="F80">
@@ -9039,19 +10342,35 @@
         <v>715.15800000000002</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.85006529938662811</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.2695835649425962</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3755339835703282</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z80">
+        <f t="shared" si="13"/>
+        <v>1039.826</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -9062,7 +10381,7 @@
         <v>2.3919999999999999</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>87.905000000000001</v>
       </c>
       <c r="F81">
@@ -9093,16 +10412,32 @@
         <v>88.772999999999996</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0142995278994369</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99604118082020365</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.0098742961151241</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="13"/>
+        <v>175.81</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/mc2022/times.xlsx
+++ b/benchmarks/mc2022/times.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B724D0-8210-A74E-AD32-81A1C66AF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2034CE4-7D46-C249-BC72-CF6246E94F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1480" windowWidth="45580" windowHeight="25480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
     <sheet name="optimizations" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordered times" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
   <si>
     <t>mc2022_track1_005</t>
   </si>
@@ -4557,7 +4558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F059414-BF76-E043-8CA9-FC1D800821DC}">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -10443,4 +10444,2314 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BF51D5-3FD4-4E4C-B1B8-177287944F07}">
+  <dimension ref="A1:M109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="13" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F2">
+        <f>C2+D2</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F3">
+        <f>C3+D3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f>C4+D4</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <f>C5+D5</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F6">
+        <f>C6+D6</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <f>C7+D7</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <f>C8+D8</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.03</v>
+      </c>
+      <c r="F9">
+        <f>C9+D9</f>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
+      <c r="D10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <f>C10+D10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <f>C11+D11</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <f>C12+D12</f>
+        <v>0.10700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <f>C13+D13</f>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <f>C14+D14</f>
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <f>C15+D15</f>
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <f>C16+D16</f>
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F17">
+        <f>C17+D17</f>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F18">
+        <f>C18+D18</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.105</v>
+      </c>
+      <c r="C19">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <f>C19+D19</f>
+        <v>1.8220000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>0.18</v>
+      </c>
+      <c r="C20">
+        <v>1.163</v>
+      </c>
+      <c r="D20">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E20">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F20">
+        <f>C20+D20</f>
+        <v>2.1179999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C21">
+        <v>1.294</v>
+      </c>
+      <c r="D21">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.245</v>
+      </c>
+      <c r="F21">
+        <f>C21+D21</f>
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.252</v>
+      </c>
+      <c r="C22">
+        <v>2.996</v>
+      </c>
+      <c r="D22">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.03</v>
+      </c>
+      <c r="F22">
+        <f>C22+D22</f>
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="C23">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.222</v>
+      </c>
+      <c r="E23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F23">
+        <f>C23+D23</f>
+        <v>4.4570000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C24">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="D24">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F24">
+        <f>C24+D24</f>
+        <v>6.4879999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C25">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="D25">
+        <v>1.214</v>
+      </c>
+      <c r="E25">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F25">
+        <f>C25+D25</f>
+        <v>8.0909999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C26">
+        <v>6.9</v>
+      </c>
+      <c r="D26">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <f>C26+D26</f>
+        <v>9.588000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C27">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="D27">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.248</v>
+      </c>
+      <c r="F27">
+        <f>C27+D27</f>
+        <v>12.335999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5.758</v>
+      </c>
+      <c r="C28">
+        <v>11.147</v>
+      </c>
+      <c r="D28">
+        <v>1.575</v>
+      </c>
+      <c r="E28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F28">
+        <f>C28+D28</f>
+        <v>12.722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <v>0.52</v>
+      </c>
+      <c r="C29">
+        <v>10.794</v>
+      </c>
+      <c r="D29">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F29">
+        <f>C29+D29</f>
+        <v>14.016999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C30">
+        <v>12.459</v>
+      </c>
+      <c r="D30">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="E30">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="F30">
+        <f>C30+D30</f>
+        <v>16.556000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F31">
+        <f>C31+D31</f>
+        <v>17.649000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C32">
+        <v>13.13</v>
+      </c>
+      <c r="D32">
+        <v>5.8710000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F32">
+        <f>C32+D32</f>
+        <v>19.001000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="C33">
+        <v>14.756</v>
+      </c>
+      <c r="D33">
+        <v>4.82</v>
+      </c>
+      <c r="E33">
+        <v>1.653</v>
+      </c>
+      <c r="F33">
+        <f>C33+D33</f>
+        <v>19.576000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>1.337</v>
+      </c>
+      <c r="C34">
+        <v>14.74</v>
+      </c>
+      <c r="D34">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="E34">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="F34">
+        <f>C34+D34</f>
+        <v>20.009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1.48</v>
+      </c>
+      <c r="C35">
+        <v>15.51</v>
+      </c>
+      <c r="D35">
+        <v>5.0369999999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.099</v>
+      </c>
+      <c r="F35">
+        <f>C35+D35</f>
+        <v>20.547000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C36">
+        <v>14.962</v>
+      </c>
+      <c r="D36">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.401</v>
+      </c>
+      <c r="F36">
+        <f>C36+D36</f>
+        <v>20.698999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>2.06</v>
+      </c>
+      <c r="C37">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="D37">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="E37">
+        <v>2.238</v>
+      </c>
+      <c r="F37">
+        <f>C37+D37</f>
+        <v>29.084000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5.508</v>
+      </c>
+      <c r="C38">
+        <v>26.616</v>
+      </c>
+      <c r="D38">
+        <v>2.83</v>
+      </c>
+      <c r="E38">
+        <v>0.06</v>
+      </c>
+      <c r="F38">
+        <f>C38+D38</f>
+        <v>29.445999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>2.278</v>
+      </c>
+      <c r="C39">
+        <v>24.388000000000002</v>
+      </c>
+      <c r="D39">
+        <v>8.69</v>
+      </c>
+      <c r="E39">
+        <v>2.625</v>
+      </c>
+      <c r="F39">
+        <f>C39+D39</f>
+        <v>33.078000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="C40">
+        <v>24.853000000000002</v>
+      </c>
+      <c r="D40">
+        <v>10.433999999999999</v>
+      </c>
+      <c r="E40">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="F40">
+        <f>C40+D40</f>
+        <v>35.286999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>23.234000000000002</v>
+      </c>
+      <c r="C41">
+        <v>31.273</v>
+      </c>
+      <c r="D41">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="E41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <f>C41+D41</f>
+        <v>36.170999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>25.077000000000002</v>
+      </c>
+      <c r="C42">
+        <v>29.928000000000001</v>
+      </c>
+      <c r="D42">
+        <v>9.3979999999999997</v>
+      </c>
+      <c r="E42">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F42">
+        <f>C42+D42</f>
+        <v>39.326000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C43">
+        <v>38.274000000000001</v>
+      </c>
+      <c r="D43">
+        <v>2.069</v>
+      </c>
+      <c r="E43">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <f>C43+D43</f>
+        <v>40.343000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="C44">
+        <v>32.494</v>
+      </c>
+      <c r="D44">
+        <v>11.010999999999999</v>
+      </c>
+      <c r="E44">
+        <v>2.21</v>
+      </c>
+      <c r="F44">
+        <f>C44+D44</f>
+        <v>43.504999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>3.4409999999999998</v>
+      </c>
+      <c r="C45">
+        <v>32.722000000000001</v>
+      </c>
+      <c r="D45">
+        <v>11.198</v>
+      </c>
+      <c r="E45">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="F45">
+        <f>C45+D45</f>
+        <v>43.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="C46">
+        <v>30.713000000000001</v>
+      </c>
+      <c r="D46">
+        <v>13.426</v>
+      </c>
+      <c r="E46">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="F46">
+        <f>C46+D46</f>
+        <v>44.139000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47">
+        <v>1.083</v>
+      </c>
+      <c r="C47">
+        <v>36.561999999999998</v>
+      </c>
+      <c r="D47">
+        <v>9.032</v>
+      </c>
+      <c r="E47">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="F47">
+        <f>C47+D47</f>
+        <v>45.593999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="C48">
+        <v>33.606000000000002</v>
+      </c>
+      <c r="D48">
+        <v>12.161</v>
+      </c>
+      <c r="E48">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="F48">
+        <f>C48+D48</f>
+        <v>45.767000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="C49">
+        <v>29.125</v>
+      </c>
+      <c r="D49">
+        <v>17.039000000000001</v>
+      </c>
+      <c r="E49">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="F49">
+        <f>C49+D49</f>
+        <v>46.164000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>49.573999999999998</v>
+      </c>
+      <c r="C50">
+        <v>36.716999999999999</v>
+      </c>
+      <c r="D50">
+        <v>11.375</v>
+      </c>
+      <c r="E50">
+        <v>0.04</v>
+      </c>
+      <c r="F50">
+        <f>C50+D50</f>
+        <v>48.091999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C51">
+        <v>45.031999999999996</v>
+      </c>
+      <c r="D51">
+        <v>11.115</v>
+      </c>
+      <c r="E51">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F51">
+        <f>C51+D51</f>
+        <v>56.146999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="C52">
+        <v>42.545999999999999</v>
+      </c>
+      <c r="D52">
+        <v>14.055999999999999</v>
+      </c>
+      <c r="E52">
+        <v>1.333</v>
+      </c>
+      <c r="F52">
+        <f>C52+D52</f>
+        <v>56.601999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="C53">
+        <v>58.984000000000002</v>
+      </c>
+      <c r="D53">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="E53">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F53">
+        <f>C53+D53</f>
+        <v>64.233000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C54">
+        <v>68.611000000000004</v>
+      </c>
+      <c r="D54">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E54">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F54">
+        <f>C54+D54</f>
+        <v>69.027000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55">
+        <v>3.536</v>
+      </c>
+      <c r="C55">
+        <v>44.52</v>
+      </c>
+      <c r="D55">
+        <v>25.733000000000001</v>
+      </c>
+      <c r="E55">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="F55">
+        <f>C55+D55</f>
+        <v>70.253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C56">
+        <v>70.781000000000006</v>
+      </c>
+      <c r="D56">
+        <v>2.25</v>
+      </c>
+      <c r="E56">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="F56">
+        <f>C56+D56</f>
+        <v>73.031000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57">
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="C57">
+        <v>56.582000000000001</v>
+      </c>
+      <c r="D57">
+        <v>19.859000000000002</v>
+      </c>
+      <c r="E57">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="F57">
+        <f>C57+D57</f>
+        <v>76.441000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="C58">
+        <v>57.03</v>
+      </c>
+      <c r="D58">
+        <v>23.524000000000001</v>
+      </c>
+      <c r="E58">
+        <v>2.5059999999999998</v>
+      </c>
+      <c r="F58">
+        <f>C58+D58</f>
+        <v>80.554000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="C59">
+        <v>84.471999999999994</v>
+      </c>
+      <c r="D59">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F59">
+        <f>C59+D59</f>
+        <v>86.706999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60">
+        <v>1.929</v>
+      </c>
+      <c r="C60">
+        <v>85.513000000000005</v>
+      </c>
+      <c r="D60">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F60">
+        <f>C60+D60</f>
+        <v>87.905000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61">
+        <v>65.322000000000003</v>
+      </c>
+      <c r="C61">
+        <v>84.013999999999996</v>
+      </c>
+      <c r="D61">
+        <v>17.204999999999998</v>
+      </c>
+      <c r="E61">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F61">
+        <f>C61+D61</f>
+        <v>101.21899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>9.3109999999999999</v>
+      </c>
+      <c r="C62">
+        <v>52.936999999999998</v>
+      </c>
+      <c r="D62">
+        <v>52.311</v>
+      </c>
+      <c r="E62">
+        <v>8.6590000000000007</v>
+      </c>
+      <c r="F62">
+        <f>C62+D62</f>
+        <v>105.24799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="C63">
+        <v>88.534000000000006</v>
+      </c>
+      <c r="D63">
+        <v>21.904</v>
+      </c>
+      <c r="E63">
+        <v>1.151</v>
+      </c>
+      <c r="F63">
+        <f>C63+D63</f>
+        <v>110.438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="C64">
+        <v>78.563000000000002</v>
+      </c>
+      <c r="D64">
+        <v>32.387</v>
+      </c>
+      <c r="E64">
+        <v>1.75</v>
+      </c>
+      <c r="F64">
+        <f>C64+D64</f>
+        <v>110.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="C65">
+        <v>98.808999999999997</v>
+      </c>
+      <c r="D65">
+        <v>27.268999999999998</v>
+      </c>
+      <c r="E65">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="F65">
+        <f>C65+D65</f>
+        <v>126.078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>3.21</v>
+      </c>
+      <c r="C66">
+        <v>126.084</v>
+      </c>
+      <c r="D66">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="E66">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="F66">
+        <f>C66+D66</f>
+        <v>129.792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="C67">
+        <v>129.697</v>
+      </c>
+      <c r="D67">
+        <v>10.202</v>
+      </c>
+      <c r="E67">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F67">
+        <f>C67+D67</f>
+        <v>139.899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68">
+        <v>158.11500000000001</v>
+      </c>
+      <c r="C68">
+        <v>143.74700000000001</v>
+      </c>
+      <c r="D68">
+        <v>19.3</v>
+      </c>
+      <c r="E68">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F68">
+        <f>C68+D68</f>
+        <v>163.04700000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>5.048</v>
+      </c>
+      <c r="C69">
+        <v>141.08699999999999</v>
+      </c>
+      <c r="D69">
+        <v>29.227</v>
+      </c>
+      <c r="E69">
+        <v>4.125</v>
+      </c>
+      <c r="F69">
+        <f>C69+D69</f>
+        <v>170.31399999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C70">
+        <v>142.15600000000001</v>
+      </c>
+      <c r="D70">
+        <v>28.632999999999999</v>
+      </c>
+      <c r="E70">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="F70">
+        <f>C70+D70</f>
+        <v>170.78900000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="C71">
+        <v>131.74199999999999</v>
+      </c>
+      <c r="D71">
+        <v>73.402000000000001</v>
+      </c>
+      <c r="E71">
+        <v>5.633</v>
+      </c>
+      <c r="F71">
+        <f>C71+D71</f>
+        <v>205.14400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72">
+        <v>508.97199999999998</v>
+      </c>
+      <c r="C72">
+        <v>189.36</v>
+      </c>
+      <c r="D72">
+        <v>62.756999999999998</v>
+      </c>
+      <c r="E72">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F72">
+        <f>C72+D72</f>
+        <v>252.11700000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <v>1.345</v>
+      </c>
+      <c r="C73">
+        <v>241.24299999999999</v>
+      </c>
+      <c r="D73">
+        <v>23.312000000000001</v>
+      </c>
+      <c r="E73">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="F73">
+        <f>C73+D73</f>
+        <v>264.55500000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C74">
+        <v>256.43</v>
+      </c>
+      <c r="D74">
+        <v>12.31</v>
+      </c>
+      <c r="E74">
+        <v>2.194</v>
+      </c>
+      <c r="F74">
+        <f>C74+D74</f>
+        <v>268.74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="C75">
+        <v>243.11699999999999</v>
+      </c>
+      <c r="D75">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="E75">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="F75">
+        <f>C75+D75</f>
+        <v>269.09199999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76">
+        <v>69.122</v>
+      </c>
+      <c r="C76">
+        <v>244.499</v>
+      </c>
+      <c r="D76">
+        <v>60.292999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F76">
+        <f>C76+D76</f>
+        <v>304.79199999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="C77">
+        <v>225.50299999999999</v>
+      </c>
+      <c r="D77">
+        <v>116.779</v>
+      </c>
+      <c r="E77">
+        <v>9.218</v>
+      </c>
+      <c r="F77">
+        <f>C77+D77</f>
+        <v>342.28199999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78">
+        <v>1.679</v>
+      </c>
+      <c r="C78">
+        <v>192.286</v>
+      </c>
+      <c r="D78">
+        <v>154.11799999999999</v>
+      </c>
+      <c r="E78">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="F78">
+        <f>C78+D78</f>
+        <v>346.404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79">
+        <v>270.95400000000001</v>
+      </c>
+      <c r="C79">
+        <v>357.22</v>
+      </c>
+      <c r="D79">
+        <v>31.152999999999999</v>
+      </c>
+      <c r="E79">
+        <v>0.113</v>
+      </c>
+      <c r="F79">
+        <f>C79+D79</f>
+        <v>388.37300000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>30.577000000000002</v>
+      </c>
+      <c r="C80">
+        <v>206.90899999999999</v>
+      </c>
+      <c r="D80">
+        <v>190.52799999999999</v>
+      </c>
+      <c r="E80">
+        <v>23.329000000000001</v>
+      </c>
+      <c r="F80">
+        <f>C80+D80</f>
+        <v>397.43700000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>394.71</v>
+      </c>
+      <c r="C81">
+        <v>400.30799999999999</v>
+      </c>
+      <c r="D81">
+        <v>87.406999999999996</v>
+      </c>
+      <c r="E81">
+        <v>0.155</v>
+      </c>
+      <c r="F81">
+        <f>C81+D81</f>
+        <v>487.71499999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82">
+        <v>22.917000000000002</v>
+      </c>
+      <c r="C82">
+        <v>504.11799999999999</v>
+      </c>
+      <c r="D82">
+        <v>15.795</v>
+      </c>
+      <c r="E82">
+        <v>5.2839999999999998</v>
+      </c>
+      <c r="F82">
+        <f>C82+D82</f>
+        <v>519.91300000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83">
+        <v>22.213999999999999</v>
+      </c>
+      <c r="C83">
+        <v>615.63199999999995</v>
+      </c>
+      <c r="D83">
+        <v>73.173000000000002</v>
+      </c>
+      <c r="E83">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="F83">
+        <f>C83+D83</f>
+        <v>688.80499999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>1536.914</v>
+      </c>
+      <c r="C84">
+        <v>660.08399999999995</v>
+      </c>
+      <c r="D84">
+        <v>111.86499999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F84">
+        <f>C84+D84</f>
+        <v>771.94899999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85">
+        <v>14.808</v>
+      </c>
+      <c r="C85">
+        <v>1005.378</v>
+      </c>
+      <c r="D85">
+        <v>110.256</v>
+      </c>
+      <c r="E85">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="F85">
+        <f>C85+D85</f>
+        <v>1115.634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86">
+        <v>70.355000000000004</v>
+      </c>
+      <c r="C86">
+        <v>757.072</v>
+      </c>
+      <c r="D86">
+        <v>511.80700000000002</v>
+      </c>
+      <c r="E86">
+        <v>88.165000000000006</v>
+      </c>
+      <c r="F86">
+        <f>C86+D86</f>
+        <v>1268.8789999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87">
+        <v>6.3970000000000002</v>
+      </c>
+      <c r="C87">
+        <v>1321.431</v>
+      </c>
+      <c r="D87">
+        <v>100.34</v>
+      </c>
+      <c r="E87">
+        <v>15.163</v>
+      </c>
+      <c r="F87">
+        <f>C87+D87</f>
+        <v>1421.771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>4.6829999999999998</v>
+      </c>
+      <c r="C88">
+        <v>1371.2170000000001</v>
+      </c>
+      <c r="D88">
+        <v>55.271999999999998</v>
+      </c>
+      <c r="E88">
+        <v>9.8170000000000002</v>
+      </c>
+      <c r="F88">
+        <f>C88+D88</f>
+        <v>1426.489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>41.454999999999998</v>
+      </c>
+      <c r="C89">
+        <v>1544.7429999999999</v>
+      </c>
+      <c r="D89">
+        <v>382.18599999999998</v>
+      </c>
+      <c r="E89">
+        <v>49.871000000000002</v>
+      </c>
+      <c r="F89">
+        <f>C89+D89</f>
+        <v>1926.9289999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90">
+        <v>145.96700000000001</v>
+      </c>
+      <c r="C90">
+        <v>1043.0229999999999</v>
+      </c>
+      <c r="D90">
+        <v>1019.94</v>
+      </c>
+      <c r="E90">
+        <v>117.413</v>
+      </c>
+      <c r="F90">
+        <f>C90+D90</f>
+        <v>2062.9629999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>30.753</v>
+      </c>
+      <c r="C91">
+        <v>1636.202</v>
+      </c>
+      <c r="D91">
+        <v>492.923</v>
+      </c>
+      <c r="E91">
+        <v>9.6370000000000005</v>
+      </c>
+      <c r="F91">
+        <f>C91+D91</f>
+        <v>2129.125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92">
+        <v>90.915000000000006</v>
+      </c>
+      <c r="C92">
+        <v>1723.357</v>
+      </c>
+      <c r="D92">
+        <v>1059.2560000000001</v>
+      </c>
+      <c r="E92">
+        <v>130.32599999999999</v>
+      </c>
+      <c r="F92">
+        <f>C92+D92</f>
+        <v>2782.6130000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>49.795999999999999</v>
+      </c>
+      <c r="C93">
+        <v>1957.9649999999999</v>
+      </c>
+      <c r="D93">
+        <v>930.98299999999995</v>
+      </c>
+      <c r="E93">
+        <v>52.508000000000003</v>
+      </c>
+      <c r="F93">
+        <f>C93+D93</f>
+        <v>2888.9479999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94">
+        <v>272.642</v>
+      </c>
+      <c r="C94">
+        <v>1789.2750000000001</v>
+      </c>
+      <c r="D94">
+        <v>1356.1690000000001</v>
+      </c>
+      <c r="E94">
+        <v>360.185</v>
+      </c>
+      <c r="F94">
+        <f>C94+D94</f>
+        <v>3145.4440000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>30.565999999999999</v>
+      </c>
+      <c r="C95">
+        <v>3461.5509999999999</v>
+      </c>
+      <c r="D95">
+        <v>453.07499999999999</v>
+      </c>
+      <c r="E95">
+        <v>18.472000000000001</v>
+      </c>
+      <c r="F95">
+        <f>C95+D95</f>
+        <v>3914.6259999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96">
+        <v>178.14</v>
+      </c>
+      <c r="C96">
+        <v>3458.5239999999999</v>
+      </c>
+      <c r="D96">
+        <v>533.14499999999998</v>
+      </c>
+      <c r="E96">
+        <v>7.3479999999999999</v>
+      </c>
+      <c r="F96">
+        <f>C96+D96</f>
+        <v>3991.6689999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>89.858000000000004</v>
+      </c>
+      <c r="C97">
+        <v>2965.8739999999998</v>
+      </c>
+      <c r="D97">
+        <v>1160.329</v>
+      </c>
+      <c r="E97">
+        <v>48.872999999999998</v>
+      </c>
+      <c r="F97">
+        <f>C97+D97</f>
+        <v>4126.2029999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98">
+        <v>93.537000000000006</v>
+      </c>
+      <c r="C98">
+        <v>3867.3310000000001</v>
+      </c>
+      <c r="D98">
+        <v>441.23399999999998</v>
+      </c>
+      <c r="E98">
+        <v>17.507999999999999</v>
+      </c>
+      <c r="F98">
+        <f>C98+D98</f>
+        <v>4308.5650000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99">
+        <v>22.321999999999999</v>
+      </c>
+      <c r="C99">
+        <v>3791.1570000000002</v>
+      </c>
+      <c r="D99">
+        <v>656.51300000000003</v>
+      </c>
+      <c r="E99">
+        <v>27.768999999999998</v>
+      </c>
+      <c r="F99">
+        <f>C99+D99</f>
+        <v>4447.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100">
+        <v>1358.165</v>
+      </c>
+      <c r="C100">
+        <v>4654.7380000000003</v>
+      </c>
+      <c r="D100">
+        <v>1219.796</v>
+      </c>
+      <c r="E100">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="F100">
+        <f>C100+D100</f>
+        <v>5874.5340000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101">
+        <v>123.03700000000001</v>
+      </c>
+      <c r="C101">
+        <v>5980.9359999999997</v>
+      </c>
+      <c r="D101">
+        <v>952.15499999999997</v>
+      </c>
+      <c r="E101">
+        <v>71.513999999999996</v>
+      </c>
+      <c r="F101">
+        <f>C101+D101</f>
+        <v>6933.0909999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102">
+        <v>244.952</v>
+      </c>
+      <c r="C102">
+        <v>3087.712</v>
+      </c>
+      <c r="D102">
+        <v>4225.2250000000004</v>
+      </c>
+      <c r="E102">
+        <v>219.357</v>
+      </c>
+      <c r="F102">
+        <f>C102+D102</f>
+        <v>7312.9369999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103">
+        <v>598.70899999999995</v>
+      </c>
+      <c r="C103">
+        <v>4116.26</v>
+      </c>
+      <c r="D103">
+        <v>3969.0479999999998</v>
+      </c>
+      <c r="E103">
+        <v>514.25599999999997</v>
+      </c>
+      <c r="F103">
+        <f>C103+D103</f>
+        <v>8085.308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104">
+        <v>19.013000000000002</v>
+      </c>
+      <c r="C104">
+        <v>8657.39</v>
+      </c>
+      <c r="D104">
+        <v>44.707000000000001</v>
+      </c>
+      <c r="E104">
+        <v>6.5279999999999996</v>
+      </c>
+      <c r="F104">
+        <f>C104+D104</f>
+        <v>8702.0969999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105">
+        <v>112.248</v>
+      </c>
+      <c r="C105">
+        <v>6821.348</v>
+      </c>
+      <c r="D105">
+        <v>2430.2370000000001</v>
+      </c>
+      <c r="E105">
+        <v>166.45099999999999</v>
+      </c>
+      <c r="F105">
+        <f>C105+D105</f>
+        <v>9251.5849999999991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106">
+        <v>3951.002</v>
+      </c>
+      <c r="C106">
+        <v>8425.1509999999998</v>
+      </c>
+      <c r="D106">
+        <v>2350.1480000000001</v>
+      </c>
+      <c r="E106">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="F106">
+        <f>C106+D106</f>
+        <v>10775.298999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107">
+        <v>193.79900000000001</v>
+      </c>
+      <c r="C107">
+        <v>8111.8440000000001</v>
+      </c>
+      <c r="D107">
+        <v>2719.7669999999998</v>
+      </c>
+      <c r="E107">
+        <v>100.161</v>
+      </c>
+      <c r="F107">
+        <f>C107+D107</f>
+        <v>10831.611000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108">
+        <v>63.691000000000003</v>
+      </c>
+      <c r="C108">
+        <v>8328.1419999999998</v>
+      </c>
+      <c r="D108">
+        <v>3849.7559999999999</v>
+      </c>
+      <c r="E108">
+        <v>167.369</v>
+      </c>
+      <c r="F108">
+        <f>C108+D108</f>
+        <v>12177.897999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109">
+        <v>606.37800000000004</v>
+      </c>
+      <c r="C109">
+        <v>8727.8379999999997</v>
+      </c>
+      <c r="D109">
+        <v>4416.9089999999997</v>
+      </c>
+      <c r="E109">
+        <v>475.16800000000001</v>
+      </c>
+      <c r="F109">
+        <f>C109+D109</f>
+        <v>13144.746999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M109">
+    <sortCondition ref="F2:F109"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/benchmarks/mc2022/times.xlsx
+++ b/benchmarks/mc2022/times.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2034CE4-7D46-C249-BC72-CF6246E94F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB2FD1-C69F-9448-A0EE-8007C22CD922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15820" yWindow="2580" windowWidth="18780" windowHeight="25840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
     <sheet name="optimizations" sheetId="2" r:id="rId2"/>
     <sheet name="Ordered times" sheetId="3" r:id="rId3"/>
+    <sheet name="MICE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="148">
   <si>
     <t>mc2022_track1_005</t>
   </si>
@@ -453,6 +454,33 @@
   <si>
     <t>Unoptimized</t>
   </si>
+  <si>
+    <t>Generate</t>
+  </si>
+  <si>
+    <t>CRAT Total</t>
+  </si>
+  <si>
+    <t>MICE Total</t>
+  </si>
+  <si>
+    <t>Ranges</t>
+  </si>
+  <si>
+    <t>CRAT</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MICE</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,6 +620,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -938,11 +973,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1301,7 +1337,7 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10450,8 +10486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BF51D5-3FD4-4E4C-B1B8-177287944F07}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10497,7 +10533,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F2">
-        <f>C2+D2</f>
+        <f t="shared" ref="F2:F33" si="0">C2+D2</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -10518,7 +10554,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F3">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
         <v>1.9E-2</v>
       </c>
     </row>
@@ -10539,7 +10575,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F4">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -10560,7 +10596,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F5">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -10581,7 +10617,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="F6">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>4.7E-2</v>
       </c>
     </row>
@@ -10602,7 +10638,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F7">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
@@ -10623,7 +10659,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="F8">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
@@ -10644,7 +10680,7 @@
         <v>0.03</v>
       </c>
       <c r="F9">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>6.3E-2</v>
       </c>
     </row>
@@ -10665,7 +10701,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F10">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -10686,7 +10722,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F11">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -10707,7 +10743,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F12">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>0.10700000000000001</v>
       </c>
     </row>
@@ -10728,7 +10764,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F13">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>0.11799999999999999</v>
       </c>
     </row>
@@ -10749,7 +10785,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F14">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
     </row>
@@ -10770,7 +10806,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F15">
-        <f>C15+D15</f>
+        <f t="shared" si="0"/>
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -10791,7 +10827,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="F16">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>0.58899999999999997</v>
       </c>
     </row>
@@ -10812,7 +10848,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="F17">
-        <f>C17+D17</f>
+        <f t="shared" si="0"/>
         <v>0.91400000000000003</v>
       </c>
     </row>
@@ -10833,7 +10869,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F18">
-        <f>C18+D18</f>
+        <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
     </row>
@@ -10854,7 +10890,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="F19">
-        <f>C19+D19</f>
+        <f t="shared" si="0"/>
         <v>1.8220000000000001</v>
       </c>
     </row>
@@ -10875,7 +10911,7 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="F20">
-        <f>C20+D20</f>
+        <f t="shared" si="0"/>
         <v>2.1179999999999999</v>
       </c>
     </row>
@@ -10896,7 +10932,7 @@
         <v>0.245</v>
       </c>
       <c r="F21">
-        <f>C21+D21</f>
+        <f t="shared" si="0"/>
         <v>2.3029999999999999</v>
       </c>
     </row>
@@ -10917,7 +10953,7 @@
         <v>0.03</v>
       </c>
       <c r="F22">
-        <f>C22+D22</f>
+        <f t="shared" si="0"/>
         <v>3.165</v>
       </c>
     </row>
@@ -10938,7 +10974,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F23">
-        <f>C23+D23</f>
+        <f t="shared" si="0"/>
         <v>4.4570000000000007</v>
       </c>
     </row>
@@ -10959,7 +10995,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F24">
-        <f>C24+D24</f>
+        <f t="shared" si="0"/>
         <v>6.4879999999999995</v>
       </c>
     </row>
@@ -10980,7 +11016,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="F25">
-        <f>C25+D25</f>
+        <f t="shared" si="0"/>
         <v>8.0909999999999993</v>
       </c>
     </row>
@@ -11001,7 +11037,7 @@
         <v>0.75</v>
       </c>
       <c r="F26">
-        <f>C26+D26</f>
+        <f t="shared" si="0"/>
         <v>9.588000000000001</v>
       </c>
     </row>
@@ -11022,7 +11058,7 @@
         <v>0.248</v>
       </c>
       <c r="F27">
-        <f>C27+D27</f>
+        <f t="shared" si="0"/>
         <v>12.335999999999999</v>
       </c>
     </row>
@@ -11043,7 +11079,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F28">
-        <f>C28+D28</f>
+        <f t="shared" si="0"/>
         <v>12.722</v>
       </c>
     </row>
@@ -11064,7 +11100,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="F29">
-        <f>C29+D29</f>
+        <f t="shared" si="0"/>
         <v>14.016999999999999</v>
       </c>
     </row>
@@ -11085,7 +11121,7 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="F30">
-        <f>C30+D30</f>
+        <f t="shared" si="0"/>
         <v>16.556000000000001</v>
       </c>
     </row>
@@ -11106,7 +11142,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F31">
-        <f>C31+D31</f>
+        <f t="shared" si="0"/>
         <v>17.649000000000001</v>
       </c>
     </row>
@@ -11127,7 +11163,7 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F32">
-        <f>C32+D32</f>
+        <f t="shared" si="0"/>
         <v>19.001000000000001</v>
       </c>
     </row>
@@ -11148,7 +11184,7 @@
         <v>1.653</v>
       </c>
       <c r="F33">
-        <f>C33+D33</f>
+        <f t="shared" si="0"/>
         <v>19.576000000000001</v>
       </c>
     </row>
@@ -11169,7 +11205,7 @@
         <v>2.1419999999999999</v>
       </c>
       <c r="F34">
-        <f>C34+D34</f>
+        <f t="shared" ref="F34:F65" si="1">C34+D34</f>
         <v>20.009</v>
       </c>
     </row>
@@ -11190,7 +11226,7 @@
         <v>1.099</v>
       </c>
       <c r="F35">
-        <f>C35+D35</f>
+        <f t="shared" si="1"/>
         <v>20.547000000000001</v>
       </c>
     </row>
@@ -11211,7 +11247,7 @@
         <v>1.401</v>
       </c>
       <c r="F36">
-        <f>C36+D36</f>
+        <f t="shared" si="1"/>
         <v>20.698999999999998</v>
       </c>
     </row>
@@ -11232,7 +11268,7 @@
         <v>2.238</v>
       </c>
       <c r="F37">
-        <f>C37+D37</f>
+        <f t="shared" si="1"/>
         <v>29.084000000000003</v>
       </c>
     </row>
@@ -11253,7 +11289,7 @@
         <v>0.06</v>
       </c>
       <c r="F38">
-        <f>C38+D38</f>
+        <f t="shared" si="1"/>
         <v>29.445999999999998</v>
       </c>
     </row>
@@ -11274,7 +11310,7 @@
         <v>2.625</v>
       </c>
       <c r="F39">
-        <f>C39+D39</f>
+        <f t="shared" si="1"/>
         <v>33.078000000000003</v>
       </c>
     </row>
@@ -11295,7 +11331,7 @@
         <v>2.1360000000000001</v>
       </c>
       <c r="F40">
-        <f>C40+D40</f>
+        <f t="shared" si="1"/>
         <v>35.286999999999999</v>
       </c>
     </row>
@@ -11316,7 +11352,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F41">
-        <f>C41+D41</f>
+        <f t="shared" si="1"/>
         <v>36.170999999999999</v>
       </c>
     </row>
@@ -11337,7 +11373,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F42">
-        <f>C42+D42</f>
+        <f t="shared" si="1"/>
         <v>39.326000000000001</v>
       </c>
     </row>
@@ -11358,7 +11394,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F43">
-        <f>C43+D43</f>
+        <f t="shared" si="1"/>
         <v>40.343000000000004</v>
       </c>
     </row>
@@ -11379,7 +11415,7 @@
         <v>2.21</v>
       </c>
       <c r="F44">
-        <f>C44+D44</f>
+        <f t="shared" si="1"/>
         <v>43.504999999999995</v>
       </c>
     </row>
@@ -11400,7 +11436,7 @@
         <v>3.3519999999999999</v>
       </c>
       <c r="F45">
-        <f>C45+D45</f>
+        <f t="shared" si="1"/>
         <v>43.92</v>
       </c>
     </row>
@@ -11421,7 +11457,7 @@
         <v>1.6140000000000001</v>
       </c>
       <c r="F46">
-        <f>C46+D46</f>
+        <f t="shared" si="1"/>
         <v>44.139000000000003</v>
       </c>
     </row>
@@ -11442,7 +11478,7 @@
         <v>1.1859999999999999</v>
       </c>
       <c r="F47">
-        <f>C47+D47</f>
+        <f t="shared" si="1"/>
         <v>45.593999999999994</v>
       </c>
     </row>
@@ -11463,7 +11499,7 @@
         <v>3.3109999999999999</v>
       </c>
       <c r="F48">
-        <f>C48+D48</f>
+        <f t="shared" si="1"/>
         <v>45.767000000000003</v>
       </c>
     </row>
@@ -11484,7 +11520,7 @@
         <v>4.0389999999999997</v>
       </c>
       <c r="F49">
-        <f>C49+D49</f>
+        <f t="shared" si="1"/>
         <v>46.164000000000001</v>
       </c>
     </row>
@@ -11505,7 +11541,7 @@
         <v>0.04</v>
       </c>
       <c r="F50">
-        <f>C50+D50</f>
+        <f t="shared" si="1"/>
         <v>48.091999999999999</v>
       </c>
     </row>
@@ -11526,7 +11562,7 @@
         <v>1.0069999999999999</v>
       </c>
       <c r="F51">
-        <f>C51+D51</f>
+        <f t="shared" si="1"/>
         <v>56.146999999999998</v>
       </c>
     </row>
@@ -11547,7 +11583,7 @@
         <v>1.333</v>
       </c>
       <c r="F52">
-        <f>C52+D52</f>
+        <f t="shared" si="1"/>
         <v>56.601999999999997</v>
       </c>
     </row>
@@ -11568,7 +11604,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="F53">
-        <f>C53+D53</f>
+        <f t="shared" si="1"/>
         <v>64.233000000000004</v>
       </c>
     </row>
@@ -11589,7 +11625,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F54">
-        <f>C54+D54</f>
+        <f t="shared" si="1"/>
         <v>69.027000000000001</v>
       </c>
     </row>
@@ -11610,7 +11646,7 @@
         <v>3.8119999999999998</v>
       </c>
       <c r="F55">
-        <f>C55+D55</f>
+        <f t="shared" si="1"/>
         <v>70.253</v>
       </c>
     </row>
@@ -11631,7 +11667,7 @@
         <v>7.6749999999999998</v>
       </c>
       <c r="F56">
-        <f>C56+D56</f>
+        <f t="shared" si="1"/>
         <v>73.031000000000006</v>
       </c>
     </row>
@@ -11652,7 +11688,7 @@
         <v>4.7679999999999998</v>
       </c>
       <c r="F57">
-        <f>C57+D57</f>
+        <f t="shared" si="1"/>
         <v>76.441000000000003</v>
       </c>
     </row>
@@ -11673,7 +11709,7 @@
         <v>2.5059999999999998</v>
       </c>
       <c r="F58">
-        <f>C58+D58</f>
+        <f t="shared" si="1"/>
         <v>80.554000000000002</v>
       </c>
     </row>
@@ -11694,7 +11730,7 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="F59">
-        <f>C59+D59</f>
+        <f t="shared" si="1"/>
         <v>86.706999999999994</v>
       </c>
     </row>
@@ -11715,7 +11751,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="F60">
-        <f>C60+D60</f>
+        <f t="shared" si="1"/>
         <v>87.905000000000001</v>
       </c>
     </row>
@@ -11736,7 +11772,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F61">
-        <f>C61+D61</f>
+        <f t="shared" si="1"/>
         <v>101.21899999999999</v>
       </c>
     </row>
@@ -11757,7 +11793,7 @@
         <v>8.6590000000000007</v>
       </c>
       <c r="F62">
-        <f>C62+D62</f>
+        <f t="shared" si="1"/>
         <v>105.24799999999999</v>
       </c>
     </row>
@@ -11778,7 +11814,7 @@
         <v>1.151</v>
       </c>
       <c r="F63">
-        <f>C63+D63</f>
+        <f t="shared" si="1"/>
         <v>110.438</v>
       </c>
     </row>
@@ -11799,7 +11835,7 @@
         <v>1.75</v>
       </c>
       <c r="F64">
-        <f>C64+D64</f>
+        <f t="shared" si="1"/>
         <v>110.95</v>
       </c>
     </row>
@@ -11820,7 +11856,7 @@
         <v>2.7850000000000001</v>
       </c>
       <c r="F65">
-        <f>C65+D65</f>
+        <f t="shared" si="1"/>
         <v>126.078</v>
       </c>
     </row>
@@ -11841,7 +11877,7 @@
         <v>3.1059999999999999</v>
       </c>
       <c r="F66">
-        <f>C66+D66</f>
+        <f t="shared" ref="F66:F97" si="2">C66+D66</f>
         <v>129.792</v>
       </c>
     </row>
@@ -11862,7 +11898,7 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F67">
-        <f>C67+D67</f>
+        <f t="shared" si="2"/>
         <v>139.899</v>
       </c>
     </row>
@@ -11883,7 +11919,7 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="F68">
-        <f>C68+D68</f>
+        <f t="shared" si="2"/>
         <v>163.04700000000003</v>
       </c>
     </row>
@@ -11904,7 +11940,7 @@
         <v>4.125</v>
       </c>
       <c r="F69">
-        <f>C69+D69</f>
+        <f t="shared" si="2"/>
         <v>170.31399999999999</v>
       </c>
     </row>
@@ -11925,7 +11961,7 @@
         <v>1.1319999999999999</v>
       </c>
       <c r="F70">
-        <f>C70+D70</f>
+        <f t="shared" si="2"/>
         <v>170.78900000000002</v>
       </c>
     </row>
@@ -11946,7 +11982,7 @@
         <v>5.633</v>
       </c>
       <c r="F71">
-        <f>C71+D71</f>
+        <f t="shared" si="2"/>
         <v>205.14400000000001</v>
       </c>
     </row>
@@ -11967,7 +12003,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="F72">
-        <f>C72+D72</f>
+        <f t="shared" si="2"/>
         <v>252.11700000000002</v>
       </c>
     </row>
@@ -11988,7 +12024,7 @@
         <v>4.3780000000000001</v>
       </c>
       <c r="F73">
-        <f>C73+D73</f>
+        <f t="shared" si="2"/>
         <v>264.55500000000001</v>
       </c>
     </row>
@@ -12009,7 +12045,7 @@
         <v>2.194</v>
       </c>
       <c r="F74">
-        <f>C74+D74</f>
+        <f t="shared" si="2"/>
         <v>268.74</v>
       </c>
     </row>
@@ -12030,7 +12066,7 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="F75">
-        <f>C75+D75</f>
+        <f t="shared" si="2"/>
         <v>269.09199999999998</v>
       </c>
     </row>
@@ -12051,7 +12087,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="F76">
-        <f>C76+D76</f>
+        <f t="shared" si="2"/>
         <v>304.79199999999997</v>
       </c>
     </row>
@@ -12072,7 +12108,7 @@
         <v>9.218</v>
       </c>
       <c r="F77">
-        <f>C77+D77</f>
+        <f t="shared" si="2"/>
         <v>342.28199999999998</v>
       </c>
     </row>
@@ -12093,7 +12129,7 @@
         <v>3.6840000000000002</v>
       </c>
       <c r="F78">
-        <f>C78+D78</f>
+        <f t="shared" si="2"/>
         <v>346.404</v>
       </c>
     </row>
@@ -12114,7 +12150,7 @@
         <v>0.113</v>
       </c>
       <c r="F79">
-        <f>C79+D79</f>
+        <f t="shared" si="2"/>
         <v>388.37300000000005</v>
       </c>
     </row>
@@ -12135,7 +12171,7 @@
         <v>23.329000000000001</v>
       </c>
       <c r="F80">
-        <f>C80+D80</f>
+        <f t="shared" si="2"/>
         <v>397.43700000000001</v>
       </c>
     </row>
@@ -12156,7 +12192,7 @@
         <v>0.155</v>
       </c>
       <c r="F81">
-        <f>C81+D81</f>
+        <f t="shared" si="2"/>
         <v>487.71499999999997</v>
       </c>
     </row>
@@ -12177,7 +12213,7 @@
         <v>5.2839999999999998</v>
       </c>
       <c r="F82">
-        <f>C82+D82</f>
+        <f t="shared" si="2"/>
         <v>519.91300000000001</v>
       </c>
     </row>
@@ -12198,7 +12234,7 @@
         <v>1.3380000000000001</v>
       </c>
       <c r="F83">
-        <f>C83+D83</f>
+        <f t="shared" si="2"/>
         <v>688.80499999999995</v>
       </c>
     </row>
@@ -12219,7 +12255,7 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="F84">
-        <f>C84+D84</f>
+        <f t="shared" si="2"/>
         <v>771.94899999999996</v>
       </c>
     </row>
@@ -12240,7 +12276,7 @@
         <v>8.4920000000000009</v>
       </c>
       <c r="F85">
-        <f>C85+D85</f>
+        <f t="shared" si="2"/>
         <v>1115.634</v>
       </c>
     </row>
@@ -12261,7 +12297,7 @@
         <v>88.165000000000006</v>
       </c>
       <c r="F86">
-        <f>C86+D86</f>
+        <f t="shared" si="2"/>
         <v>1268.8789999999999</v>
       </c>
     </row>
@@ -12282,7 +12318,7 @@
         <v>15.163</v>
       </c>
       <c r="F87">
-        <f>C87+D87</f>
+        <f t="shared" si="2"/>
         <v>1421.771</v>
       </c>
     </row>
@@ -12303,7 +12339,7 @@
         <v>9.8170000000000002</v>
       </c>
       <c r="F88">
-        <f>C88+D88</f>
+        <f t="shared" si="2"/>
         <v>1426.489</v>
       </c>
     </row>
@@ -12324,7 +12360,7 @@
         <v>49.871000000000002</v>
       </c>
       <c r="F89">
-        <f>C89+D89</f>
+        <f t="shared" si="2"/>
         <v>1926.9289999999999</v>
       </c>
     </row>
@@ -12345,7 +12381,7 @@
         <v>117.413</v>
       </c>
       <c r="F90">
-        <f>C90+D90</f>
+        <f t="shared" si="2"/>
         <v>2062.9629999999997</v>
       </c>
     </row>
@@ -12366,7 +12402,7 @@
         <v>9.6370000000000005</v>
       </c>
       <c r="F91">
-        <f>C91+D91</f>
+        <f t="shared" si="2"/>
         <v>2129.125</v>
       </c>
     </row>
@@ -12387,7 +12423,7 @@
         <v>130.32599999999999</v>
       </c>
       <c r="F92">
-        <f>C92+D92</f>
+        <f t="shared" si="2"/>
         <v>2782.6130000000003</v>
       </c>
     </row>
@@ -12408,7 +12444,7 @@
         <v>52.508000000000003</v>
       </c>
       <c r="F93">
-        <f>C93+D93</f>
+        <f t="shared" si="2"/>
         <v>2888.9479999999999</v>
       </c>
     </row>
@@ -12429,7 +12465,7 @@
         <v>360.185</v>
       </c>
       <c r="F94">
-        <f>C94+D94</f>
+        <f t="shared" si="2"/>
         <v>3145.4440000000004</v>
       </c>
     </row>
@@ -12450,7 +12486,7 @@
         <v>18.472000000000001</v>
       </c>
       <c r="F95">
-        <f>C95+D95</f>
+        <f t="shared" si="2"/>
         <v>3914.6259999999997</v>
       </c>
     </row>
@@ -12471,7 +12507,7 @@
         <v>7.3479999999999999</v>
       </c>
       <c r="F96">
-        <f>C96+D96</f>
+        <f t="shared" si="2"/>
         <v>3991.6689999999999</v>
       </c>
     </row>
@@ -12492,7 +12528,7 @@
         <v>48.872999999999998</v>
       </c>
       <c r="F97">
-        <f>C97+D97</f>
+        <f t="shared" si="2"/>
         <v>4126.2029999999995</v>
       </c>
     </row>
@@ -12513,7 +12549,7 @@
         <v>17.507999999999999</v>
       </c>
       <c r="F98">
-        <f>C98+D98</f>
+        <f t="shared" ref="F98:F109" si="3">C98+D98</f>
         <v>4308.5650000000005</v>
       </c>
     </row>
@@ -12534,7 +12570,7 @@
         <v>27.768999999999998</v>
       </c>
       <c r="F99">
-        <f>C99+D99</f>
+        <f t="shared" si="3"/>
         <v>4447.67</v>
       </c>
     </row>
@@ -12555,7 +12591,7 @@
         <v>4.0140000000000002</v>
       </c>
       <c r="F100">
-        <f>C100+D100</f>
+        <f t="shared" si="3"/>
         <v>5874.5340000000006</v>
       </c>
     </row>
@@ -12576,7 +12612,7 @@
         <v>71.513999999999996</v>
       </c>
       <c r="F101">
-        <f>C101+D101</f>
+        <f t="shared" si="3"/>
         <v>6933.0909999999994</v>
       </c>
     </row>
@@ -12597,7 +12633,7 @@
         <v>219.357</v>
       </c>
       <c r="F102">
-        <f>C102+D102</f>
+        <f t="shared" si="3"/>
         <v>7312.9369999999999</v>
       </c>
     </row>
@@ -12618,7 +12654,7 @@
         <v>514.25599999999997</v>
       </c>
       <c r="F103">
-        <f>C103+D103</f>
+        <f t="shared" si="3"/>
         <v>8085.308</v>
       </c>
     </row>
@@ -12639,7 +12675,7 @@
         <v>6.5279999999999996</v>
       </c>
       <c r="F104">
-        <f>C104+D104</f>
+        <f t="shared" si="3"/>
         <v>8702.0969999999998</v>
       </c>
     </row>
@@ -12660,7 +12696,7 @@
         <v>166.45099999999999</v>
       </c>
       <c r="F105">
-        <f>C105+D105</f>
+        <f t="shared" si="3"/>
         <v>9251.5849999999991</v>
       </c>
     </row>
@@ -12681,7 +12717,7 @@
         <v>3.2189999999999999</v>
       </c>
       <c r="F106">
-        <f>C106+D106</f>
+        <f t="shared" si="3"/>
         <v>10775.298999999999</v>
       </c>
     </row>
@@ -12702,7 +12738,7 @@
         <v>100.161</v>
       </c>
       <c r="F107">
-        <f>C107+D107</f>
+        <f t="shared" si="3"/>
         <v>10831.611000000001</v>
       </c>
     </row>
@@ -12723,7 +12759,7 @@
         <v>167.369</v>
       </c>
       <c r="F108">
-        <f>C108+D108</f>
+        <f t="shared" si="3"/>
         <v>12177.897999999999</v>
       </c>
     </row>
@@ -12744,7 +12780,7 @@
         <v>475.16800000000001</v>
       </c>
       <c r="F109">
-        <f>C109+D109</f>
+        <f t="shared" si="3"/>
         <v>13144.746999999999</v>
       </c>
     </row>
@@ -12754,4 +12790,2421 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B94608D-1427-E648-966F-7ABB7C9483DB}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E39" sqref="E38:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>70.488</v>
+      </c>
+      <c r="C2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2">
+        <v>71.022000000000006</v>
+      </c>
+      <c r="F2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.22399999999999901</v>
+      </c>
+      <c r="I2">
+        <f>H2/E2</f>
+        <v>3.1539522964715017E-3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2">
+        <f>H2/E2</f>
+        <v>3.1539522964715017E-3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>33.649000000000001</v>
+      </c>
+      <c r="C3">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="D3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>38.734000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.114</v>
+      </c>
+      <c r="G3">
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I3">
+        <f>H3/E3</f>
+        <v>3.7176640677441001E-3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K64" si="0">H3/E3</f>
+        <v>3.7176640677441001E-3</v>
+      </c>
+      <c r="L3">
+        <f>MIN(K:K)</f>
+        <v>3.1539522964715017E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>17.541</v>
+      </c>
+      <c r="C4">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E4">
+        <v>17.774000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.123</v>
+      </c>
+      <c r="G4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I4">
+        <f>H4/E4</f>
+        <v>7.6516259705187353E-3</v>
+      </c>
+      <c r="J4">
+        <f>MIN(E:E)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>7.6516259705187353E-3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>189.36</v>
+      </c>
+      <c r="C5">
+        <v>62.756999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E5">
+        <v>252.23400000000001</v>
+      </c>
+      <c r="F5">
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="G5">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="H5">
+        <v>7.4290000000000003</v>
+      </c>
+      <c r="I5">
+        <f>H5/E5</f>
+        <v>2.9452809692587043E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2.9452809692587043E-2</v>
+      </c>
+      <c r="L5">
+        <f>MAX(K:K)</f>
+        <v>2432.7970297029824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>357.22</v>
+      </c>
+      <c r="C6">
+        <v>31.152999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.113</v>
+      </c>
+      <c r="E6">
+        <v>388.48599999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G6">
+        <v>13.381</v>
+      </c>
+      <c r="H6">
+        <v>13.954000000000001</v>
+      </c>
+      <c r="I6">
+        <f>H6/E6</f>
+        <v>3.5918926293354206E-2</v>
+      </c>
+      <c r="J6">
+        <f>MAX(E:E)</f>
+        <v>772.22799999999995</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.5918926293354206E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>45.558999999999997</v>
+      </c>
+      <c r="C7">
+        <v>12.029</v>
+      </c>
+      <c r="D7">
+        <v>0.122</v>
+      </c>
+      <c r="E7">
+        <v>57.709999999999901</v>
+      </c>
+      <c r="F7">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H7">
+        <v>4.0279999999999996</v>
+      </c>
+      <c r="I7">
+        <f>H7/E7</f>
+        <v>6.9797262172933749E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6.9797262172933749E-2</v>
+      </c>
+      <c r="L7">
+        <f>HARMEAN(K:K)</f>
+        <v>7.8684658901985824E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>39.497999999999998</v>
+      </c>
+      <c r="C8">
+        <v>2.234</v>
+      </c>
+      <c r="D8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E8">
+        <v>41.847999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.47</v>
+      </c>
+      <c r="H8">
+        <v>3.427</v>
+      </c>
+      <c r="I8">
+        <f>H8/E8</f>
+        <v>8.1891607723188681E-2</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(E:E)</f>
+        <v>101.99050746268651</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>8.1891607723188681E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>660.08399999999995</v>
+      </c>
+      <c r="C9">
+        <v>111.86499999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E9">
+        <v>772.22799999999995</v>
+      </c>
+      <c r="F9">
+        <v>67.284000000000006</v>
+      </c>
+      <c r="G9">
+        <v>34.914999999999999</v>
+      </c>
+      <c r="H9">
+        <v>102.199</v>
+      </c>
+      <c r="I9">
+        <f>H9/E9</f>
+        <v>0.1323430385844595</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.1323430385844595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>615.63199999999995</v>
+      </c>
+      <c r="C10">
+        <v>73.173000000000002</v>
+      </c>
+      <c r="D10">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="E10">
+        <v>690.14299999999901</v>
+      </c>
+      <c r="F10">
+        <v>136.84299999999999</v>
+      </c>
+      <c r="G10">
+        <v>39.552999999999997</v>
+      </c>
+      <c r="H10">
+        <v>176.39599999999999</v>
+      </c>
+      <c r="I10">
+        <f>H10/E10</f>
+        <v>0.25559340600426322</v>
+      </c>
+      <c r="J10">
+        <f>MEDIAN(E:E)</f>
+        <v>38.734000000000002</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.25559340600426322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>142.15600000000001</v>
+      </c>
+      <c r="C11">
+        <v>28.632999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E11">
+        <v>171.92099999999999</v>
+      </c>
+      <c r="F11">
+        <v>52.768999999999998</v>
+      </c>
+      <c r="G11">
+        <v>5.8049999999999997</v>
+      </c>
+      <c r="H11">
+        <v>58.573999999999998</v>
+      </c>
+      <c r="I11">
+        <f>H11/E11</f>
+        <v>0.34070299730690257</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.34070299730690257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>241.24299999999999</v>
+      </c>
+      <c r="C12">
+        <v>23.312000000000001</v>
+      </c>
+      <c r="D12">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="E12">
+        <v>268.93299999999999</v>
+      </c>
+      <c r="F12">
+        <v>84.590999999999994</v>
+      </c>
+      <c r="G12">
+        <v>10.670999999999999</v>
+      </c>
+      <c r="H12">
+        <v>95.262</v>
+      </c>
+      <c r="I12">
+        <f>H12/E12</f>
+        <v>0.35422205530745576</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.35422205530745576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3.1760000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.255</v>
+      </c>
+      <c r="H13">
+        <v>1.266</v>
+      </c>
+      <c r="I13">
+        <f>H13/E13</f>
+        <v>0.37544483985765126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.37544483985765126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>58.484000000000002</v>
+      </c>
+      <c r="C14">
+        <v>5.43</v>
+      </c>
+      <c r="D14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E14">
+        <v>64.090999999999994</v>
+      </c>
+      <c r="F14">
+        <v>12.659000000000001</v>
+      </c>
+      <c r="G14">
+        <v>13.266</v>
+      </c>
+      <c r="H14">
+        <v>25.925000000000001</v>
+      </c>
+      <c r="I14">
+        <f>H14/E14</f>
+        <v>0.40450297233620952</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.40450297233620952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>36.633000000000003</v>
+      </c>
+      <c r="C15">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.127</v>
+      </c>
+      <c r="E15">
+        <v>46.426000000000002</v>
+      </c>
+      <c r="F15">
+        <v>11.289</v>
+      </c>
+      <c r="G15">
+        <v>14.837</v>
+      </c>
+      <c r="H15">
+        <v>26.125999999999902</v>
+      </c>
+      <c r="I15">
+        <f>H15/E15</f>
+        <v>0.56274501356998019</v>
+      </c>
+      <c r="J15" s="4">
+        <f>MIN(H:H)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.56274501356998019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>400.30799999999999</v>
+      </c>
+      <c r="C16">
+        <v>87.406999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.155</v>
+      </c>
+      <c r="E16">
+        <v>487.86999999999898</v>
+      </c>
+      <c r="F16">
+        <v>19.88</v>
+      </c>
+      <c r="G16">
+        <v>258.065</v>
+      </c>
+      <c r="H16">
+        <v>277.94499999999999</v>
+      </c>
+      <c r="I16">
+        <f>H16/E16</f>
+        <v>0.56971119355566147</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.56971119355566147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>126.084</v>
+      </c>
+      <c r="C17">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="D17">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="E17">
+        <v>132.898</v>
+      </c>
+      <c r="F17">
+        <v>55.167999999999999</v>
+      </c>
+      <c r="G17">
+        <v>29.911000000000001</v>
+      </c>
+      <c r="H17">
+        <v>85.078999999999994</v>
+      </c>
+      <c r="I17">
+        <f>H17/E17</f>
+        <v>0.64018269650408577</v>
+      </c>
+      <c r="J17" s="4">
+        <f>MAX(H:H)</f>
+        <v>820.4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.64018269650408577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>244.499</v>
+      </c>
+      <c r="C18">
+        <v>60.292999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E18">
+        <v>305.02999999999997</v>
+      </c>
+      <c r="F18">
+        <v>46.807000000000002</v>
+      </c>
+      <c r="G18">
+        <v>169.75399999999999</v>
+      </c>
+      <c r="H18">
+        <v>216.56099999999901</v>
+      </c>
+      <c r="I18">
+        <f>H18/E18</f>
+        <v>0.70996623282955462</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.70996623282955462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>504.11799999999999</v>
+      </c>
+      <c r="C19">
+        <v>15.795</v>
+      </c>
+      <c r="D19">
+        <v>5.2839999999999998</v>
+      </c>
+      <c r="E19">
+        <v>525.197</v>
+      </c>
+      <c r="F19">
+        <v>321.69600000000003</v>
+      </c>
+      <c r="G19">
+        <v>68.218999999999994</v>
+      </c>
+      <c r="H19">
+        <v>389.91500000000002</v>
+      </c>
+      <c r="I19">
+        <f>H19/E19</f>
+        <v>0.74241665508371146</v>
+      </c>
+      <c r="J19" s="4">
+        <f>AVERAGE(H:H)</f>
+        <v>159.2161194029851</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.74241665508371146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>84.013999999999996</v>
+      </c>
+      <c r="C20">
+        <v>17.204999999999998</v>
+      </c>
+      <c r="D20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E20">
+        <v>101.253</v>
+      </c>
+      <c r="F20">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="G20">
+        <v>83.981999999999999</v>
+      </c>
+      <c r="H20">
+        <v>89.010999999999996</v>
+      </c>
+      <c r="I20">
+        <f>H20/E20</f>
+        <v>0.87909494039682767</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.87909494039682767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>11.593</v>
+      </c>
+      <c r="C21">
+        <v>1.452</v>
+      </c>
+      <c r="D21">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>13.127000000000001</v>
+      </c>
+      <c r="F21">
+        <v>3.585</v>
+      </c>
+      <c r="G21">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="H21">
+        <v>12.141999999999999</v>
+      </c>
+      <c r="I21">
+        <f>H21/E21</f>
+        <v>0.92496381503770841</v>
+      </c>
+      <c r="J21" s="4">
+        <f>MEDIAN(H:H)</f>
+        <v>82.277999999999906</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.92496381503770841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>4.4189999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.214</v>
+      </c>
+      <c r="D22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="F22">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="G22">
+        <v>2.782</v>
+      </c>
+      <c r="H22">
+        <v>4.4669999999999996</v>
+      </c>
+      <c r="I22">
+        <f>H22/E22</f>
+        <v>0.95612157534246578</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.95612157534246578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>69.409000000000006</v>
+      </c>
+      <c r="C23">
+        <v>2.294</v>
+      </c>
+      <c r="D23">
+        <v>7.7789999999999999</v>
+      </c>
+      <c r="E23">
+        <v>79.481999999999999</v>
+      </c>
+      <c r="F23">
+        <v>73.314999999999998</v>
+      </c>
+      <c r="G23">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="H23">
+        <v>82.277999999999906</v>
+      </c>
+      <c r="I23">
+        <f>H23/E23</f>
+        <v>1.0351777761002479</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1.0351777761002479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>192.286</v>
+      </c>
+      <c r="C24">
+        <v>154.11799999999999</v>
+      </c>
+      <c r="D24">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="E24">
+        <v>350.08800000000002</v>
+      </c>
+      <c r="F24">
+        <v>371.85700000000003</v>
+      </c>
+      <c r="G24">
+        <v>6.5750000000000002</v>
+      </c>
+      <c r="H24">
+        <v>378.43200000000002</v>
+      </c>
+      <c r="I24">
+        <f>H24/E24</f>
+        <v>1.0809625008569275</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1.0809625008569275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>7.1840000000000002</v>
+      </c>
+      <c r="C25">
+        <v>1.214</v>
+      </c>
+      <c r="D25">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E25">
+        <v>8.577</v>
+      </c>
+      <c r="F25">
+        <v>10.573</v>
+      </c>
+      <c r="G25">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H25">
+        <v>10.877000000000001</v>
+      </c>
+      <c r="I25">
+        <f>H25/E25</f>
+        <v>1.268159029963857</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1.268159029963857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>98.808999999999997</v>
+      </c>
+      <c r="C26">
+        <v>27.268999999999998</v>
+      </c>
+      <c r="D26">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="E26">
+        <v>128.863</v>
+      </c>
+      <c r="F26">
+        <v>162.87899999999999</v>
+      </c>
+      <c r="G26">
+        <v>3.4409999999999998</v>
+      </c>
+      <c r="H26">
+        <v>166.32</v>
+      </c>
+      <c r="I26">
+        <f>H26/E26</f>
+        <v>1.2906730403606932</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1.2906730403606932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27">
+        <v>39.08</v>
+      </c>
+      <c r="C27">
+        <v>8.9320000000000004</v>
+      </c>
+      <c r="D27">
+        <v>1.181</v>
+      </c>
+      <c r="E27">
+        <v>49.192999999999998</v>
+      </c>
+      <c r="F27">
+        <v>63.545999999999999</v>
+      </c>
+      <c r="G27">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="H27">
+        <v>64.733999999999995</v>
+      </c>
+      <c r="I27">
+        <f>H27/E27</f>
+        <v>1.3159189315553026</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1.3159189315553026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>88.534000000000006</v>
+      </c>
+      <c r="C28">
+        <v>21.904</v>
+      </c>
+      <c r="D28">
+        <v>1.151</v>
+      </c>
+      <c r="E28">
+        <v>111.589</v>
+      </c>
+      <c r="F28">
+        <v>148.322</v>
+      </c>
+      <c r="G28">
+        <v>2.198</v>
+      </c>
+      <c r="H28">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="I28">
+        <f>H28/E28</f>
+        <v>1.3488784736846824</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1.3488784736846824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>225.50299999999999</v>
+      </c>
+      <c r="C29">
+        <v>116.779</v>
+      </c>
+      <c r="D29">
+        <v>9.218</v>
+      </c>
+      <c r="E29">
+        <v>351.5</v>
+      </c>
+      <c r="F29">
+        <v>500.11200000000002</v>
+      </c>
+      <c r="G29">
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="H29">
+        <v>509.12</v>
+      </c>
+      <c r="I29">
+        <f>H29/E29</f>
+        <v>1.4484210526315791</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.4484210526315791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>85.896000000000001</v>
+      </c>
+      <c r="C30">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E30">
+        <v>88.908999999999907</v>
+      </c>
+      <c r="F30">
+        <v>124.17700000000001</v>
+      </c>
+      <c r="G30">
+        <v>5.2619999999999996</v>
+      </c>
+      <c r="H30">
+        <v>129.43899999999999</v>
+      </c>
+      <c r="I30">
+        <f>H30/E30</f>
+        <v>1.4558593618193898</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1.4558593618193898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>85.596999999999994</v>
+      </c>
+      <c r="C31">
+        <v>2.399</v>
+      </c>
+      <c r="D31">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E31">
+        <v>88.894999999999996</v>
+      </c>
+      <c r="F31">
+        <v>125.28400000000001</v>
+      </c>
+      <c r="G31">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="H31">
+        <v>130.648</v>
+      </c>
+      <c r="I31">
+        <f>H31/E31</f>
+        <v>1.4696889588840767</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1.4696889588840767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>243.11699999999999</v>
+      </c>
+      <c r="C32">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="D32">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="E32">
+        <v>271.29599999999999</v>
+      </c>
+      <c r="F32">
+        <v>409.13099999999997</v>
+      </c>
+      <c r="G32">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="H32">
+        <v>416.027999999999</v>
+      </c>
+      <c r="I32">
+        <f>H32/E32</f>
+        <v>1.5334837225760756</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1.5334837225760756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>27.797000000000001</v>
+      </c>
+      <c r="C33">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="D33">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>30.742999999999999</v>
+      </c>
+      <c r="F33">
+        <v>17.529</v>
+      </c>
+      <c r="G33">
+        <v>32.161000000000001</v>
+      </c>
+      <c r="H33">
+        <v>49.69</v>
+      </c>
+      <c r="I33">
+        <f>H33/E33</f>
+        <v>1.6163028982207333</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>1.6163028982207333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>129.697</v>
+      </c>
+      <c r="C34">
+        <v>10.202</v>
+      </c>
+      <c r="D34">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E34">
+        <v>140.363</v>
+      </c>
+      <c r="F34">
+        <v>202.04599999999999</v>
+      </c>
+      <c r="G34">
+        <v>25.617999999999999</v>
+      </c>
+      <c r="H34">
+        <v>227.66399999999999</v>
+      </c>
+      <c r="I34">
+        <f>H34/E34</f>
+        <v>1.6219659026951547</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>1.6219659026951547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>46.783000000000001</v>
+      </c>
+      <c r="C35">
+        <v>11.452</v>
+      </c>
+      <c r="D35">
+        <v>1.044</v>
+      </c>
+      <c r="E35">
+        <v>59.278999999999897</v>
+      </c>
+      <c r="F35">
+        <v>96.631</v>
+      </c>
+      <c r="G35">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="H35">
+        <v>98.108000000000004</v>
+      </c>
+      <c r="I35">
+        <f>H35/E35</f>
+        <v>1.6550211710723894</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>1.6550211710723894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.08</v>
+      </c>
+      <c r="I36">
+        <f>H36/E36</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D37">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="F37">
+        <v>5.5789999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.12</v>
+      </c>
+      <c r="H37">
+        <v>5.6989999999999998</v>
+      </c>
+      <c r="I37">
+        <f>H37/E37</f>
+        <v>2.6154199173932997</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>2.6154199173932997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>143.74700000000001</v>
+      </c>
+      <c r="C38">
+        <v>19.3</v>
+      </c>
+      <c r="D38">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E38">
+        <v>163.28399999999999</v>
+      </c>
+      <c r="F38">
+        <v>58.738</v>
+      </c>
+      <c r="G38">
+        <v>419.17399999999998</v>
+      </c>
+      <c r="H38">
+        <v>477.91199999999998</v>
+      </c>
+      <c r="I38">
+        <f>H38/E38</f>
+        <v>2.9268758727125745</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>2.9268758727125745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>15.243</v>
+      </c>
+      <c r="C39">
+        <v>5.7309999999999999</v>
+      </c>
+      <c r="D39">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="E39">
+        <v>22.37</v>
+      </c>
+      <c r="F39">
+        <v>78.852999999999994</v>
+      </c>
+      <c r="G39">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H39">
+        <v>79.958999999999904</v>
+      </c>
+      <c r="I39">
+        <f>H39/E39</f>
+        <v>3.5743853375055834</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>3.5743853375055834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40">
+        <v>49.723999999999997</v>
+      </c>
+      <c r="C40">
+        <v>25.92</v>
+      </c>
+      <c r="D40">
+        <v>3.923</v>
+      </c>
+      <c r="E40">
+        <v>79.566999999999993</v>
+      </c>
+      <c r="F40">
+        <v>411.37799999999999</v>
+      </c>
+      <c r="G40">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="H40">
+        <v>415.96600000000001</v>
+      </c>
+      <c r="I40">
+        <f>H40/E40</f>
+        <v>5.2278708509809348</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>5.2278708509809348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>34.24</v>
+      </c>
+      <c r="C41">
+        <v>14.25</v>
+      </c>
+      <c r="D41">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="E41">
+        <v>50.262999999999998</v>
+      </c>
+      <c r="F41">
+        <v>260.721</v>
+      </c>
+      <c r="G41">
+        <v>3.036</v>
+      </c>
+      <c r="H41">
+        <v>263.75700000000001</v>
+      </c>
+      <c r="I41">
+        <f>H41/E41</f>
+        <v>5.2475379503809965</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>5.2475379503809965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C42">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.5999999999999897E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="I42">
+        <f>H42/E42</f>
+        <v>5.9464285714285827</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>5.9464285714285827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43">
+        <v>10.379</v>
+      </c>
+      <c r="C43">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E43">
+        <v>14.1459999999999</v>
+      </c>
+      <c r="F43">
+        <v>92.272999999999996</v>
+      </c>
+      <c r="G43">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H43">
+        <v>93.06</v>
+      </c>
+      <c r="I43">
+        <f>H43/E43</f>
+        <v>6.578538102643904</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>6.578538102643904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>26.632999999999999</v>
+      </c>
+      <c r="C44">
+        <v>10.593</v>
+      </c>
+      <c r="D44">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="E44">
+        <v>39.411999999999999</v>
+      </c>
+      <c r="F44">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="G44">
+        <v>1.994</v>
+      </c>
+      <c r="H44">
+        <v>279.39400000000001</v>
+      </c>
+      <c r="I44">
+        <f>H44/E44</f>
+        <v>7.0890591697960019</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>7.0890591697960019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>78.563000000000002</v>
+      </c>
+      <c r="C45">
+        <v>32.387</v>
+      </c>
+      <c r="D45">
+        <v>1.75</v>
+      </c>
+      <c r="E45">
+        <v>112.7</v>
+      </c>
+      <c r="F45">
+        <v>815.52099999999996</v>
+      </c>
+      <c r="G45">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="H45">
+        <v>820.4</v>
+      </c>
+      <c r="I45">
+        <f>H45/E45</f>
+        <v>7.2795031055900621</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>7.2795031055900621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>7.21</v>
+      </c>
+      <c r="C46">
+        <v>2.645</v>
+      </c>
+      <c r="D46">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E46">
+        <v>10.593</v>
+      </c>
+      <c r="F46">
+        <v>92.117999999999995</v>
+      </c>
+      <c r="G46">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H46">
+        <v>92.771999999999906</v>
+      </c>
+      <c r="I46">
+        <f>H46/E46</f>
+        <v>8.7578589634664308</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>8.7578589634664308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="C47">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E47">
+        <v>7.4489999999999998</v>
+      </c>
+      <c r="F47">
+        <v>67.724999999999994</v>
+      </c>
+      <c r="G47">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H47">
+        <v>68.241999999999905</v>
+      </c>
+      <c r="I47">
+        <f>H47/E47</f>
+        <v>9.1612296952610954</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>9.1612296952610954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>1.494</v>
+      </c>
+      <c r="C48">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D48">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E48">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="F48">
+        <v>27.446999999999999</v>
+      </c>
+      <c r="G48">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H48">
+        <v>27.715999999999902</v>
+      </c>
+      <c r="I48">
+        <f>H48/E48</f>
+        <v>10.586707410236786</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>10.586707410236786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C49">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.109</v>
+      </c>
+      <c r="E49">
+        <v>1.1909999999999901</v>
+      </c>
+      <c r="F49">
+        <v>13.241</v>
+      </c>
+      <c r="G49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H49">
+        <v>13.339</v>
+      </c>
+      <c r="I49">
+        <f>H49/E49</f>
+        <v>11.199832073887583</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>11.199832073887583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C50">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.09</v>
+      </c>
+      <c r="E50">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F50">
+        <v>9.6120000000000001</v>
+      </c>
+      <c r="G50">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H50">
+        <v>9.67</v>
+      </c>
+      <c r="I50">
+        <f>H50/E50</f>
+        <v>11.457345971563981</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>11.457345971563981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>1.109</v>
+      </c>
+      <c r="C51">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E51">
+        <v>2.012</v>
+      </c>
+      <c r="F51">
+        <v>25.24</v>
+      </c>
+      <c r="G51">
+        <v>0.217</v>
+      </c>
+      <c r="H51">
+        <v>25.456999999999901</v>
+      </c>
+      <c r="I51">
+        <f>H51/E51</f>
+        <v>12.652584493041701</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>12.652584493041701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>1.391</v>
+      </c>
+      <c r="C52">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E52">
+        <v>2.47399999999999</v>
+      </c>
+      <c r="F52">
+        <v>31.904</v>
+      </c>
+      <c r="G52">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H52">
+        <v>32.18</v>
+      </c>
+      <c r="I52">
+        <f>H52/E52</f>
+        <v>13.007275666936188</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>13.007275666936188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>31.175000000000001</v>
+      </c>
+      <c r="C53">
+        <v>17.25</v>
+      </c>
+      <c r="D53">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="E53">
+        <v>52.527000000000001</v>
+      </c>
+      <c r="F53">
+        <v>800.13499999999999</v>
+      </c>
+      <c r="G53">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="H53">
+        <v>805.01400000000001</v>
+      </c>
+      <c r="I53">
+        <f>H53/E53</f>
+        <v>15.325718202067508</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>15.325718202067508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>9.3190000000000008</v>
+      </c>
+      <c r="C54">
+        <v>2.339</v>
+      </c>
+      <c r="D54">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E54">
+        <v>11.864000000000001</v>
+      </c>
+      <c r="F54">
+        <v>237.02799999999999</v>
+      </c>
+      <c r="G54">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="H54">
+        <v>238.42599999999999</v>
+      </c>
+      <c r="I54">
+        <f>H54/E54</f>
+        <v>20.096594740391097</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>20.096594740391097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>13.917</v>
+      </c>
+      <c r="C55">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="D55">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="E55">
+        <v>21.259</v>
+      </c>
+      <c r="F55">
+        <v>566.18200000000002</v>
+      </c>
+      <c r="G55">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="H55">
+        <v>567.79399999999998</v>
+      </c>
+      <c r="I55">
+        <f>H55/E55</f>
+        <v>26.708405851639306</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>26.708405851639306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>14.891</v>
+      </c>
+      <c r="C56">
+        <v>5.8520000000000003</v>
+      </c>
+      <c r="D56">
+        <v>0.432</v>
+      </c>
+      <c r="E56">
+        <v>21.175000000000001</v>
+      </c>
+      <c r="F56">
+        <v>770.91300000000001</v>
+      </c>
+      <c r="G56">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="H56">
+        <v>775.25400000000002</v>
+      </c>
+      <c r="I56">
+        <f>H56/E56</f>
+        <v>36.611759149940966</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>36.611759149940966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C57">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E57">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F57">
+        <v>10.348000000000001</v>
+      </c>
+      <c r="G57">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H57">
+        <v>10.393000000000001</v>
+      </c>
+      <c r="I57">
+        <f>H57/E57</f>
+        <v>140.44594594594597</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>140.44594594594597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C58">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D58">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E58">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F58">
+        <v>18.356999999999999</v>
+      </c>
+      <c r="G58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H58">
+        <v>18.431999999999999</v>
+      </c>
+      <c r="I58">
+        <f>H58/E58</f>
+        <v>209.45454545454544</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>209.45454545454544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C59">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E59">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F59">
+        <v>21.805</v>
+      </c>
+      <c r="G59">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>21.9</v>
+      </c>
+      <c r="I59">
+        <f>H59/E59</f>
+        <v>230.52631578947367</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>230.52631578947367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C60">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.107999999999999</v>
+      </c>
+      <c r="F60">
+        <v>25.521999999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.125</v>
+      </c>
+      <c r="H60">
+        <v>25.646999999999998</v>
+      </c>
+      <c r="I60">
+        <f>H60/E60</f>
+        <v>237.47222222222442</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>237.47222222222442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C61">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D61">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.111999999999999</v>
+      </c>
+      <c r="F61">
+        <v>35.345999999999997</v>
+      </c>
+      <c r="G61">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H61">
+        <v>35.491999999999997</v>
+      </c>
+      <c r="I61">
+        <f>H61/E61</f>
+        <v>316.89285714285995</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>316.89285714285995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C62">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D62">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.11499999999999901</v>
+      </c>
+      <c r="F62">
+        <v>37.802</v>
+      </c>
+      <c r="G62">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H62">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="I62">
+        <f>H62/E62</f>
+        <v>330.26086956522022</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>330.26086956522022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C63">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.109</v>
+      </c>
+      <c r="F63">
+        <v>63.241999999999997</v>
+      </c>
+      <c r="G63">
+        <v>0.255</v>
+      </c>
+      <c r="H63">
+        <v>63.497</v>
+      </c>
+      <c r="I63">
+        <f>H63/E63</f>
+        <v>582.54128440366969</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>582.54128440366969</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D64">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.125</v>
+      </c>
+      <c r="F64">
+        <v>86.311999999999998</v>
+      </c>
+      <c r="G64">
+        <v>0.37</v>
+      </c>
+      <c r="H64">
+        <v>86.682000000000002</v>
+      </c>
+      <c r="I64">
+        <f>H64/E64</f>
+        <v>693.45600000000002</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>693.45600000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C65">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D65">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.16999999999999901</v>
+      </c>
+      <c r="F65">
+        <v>142.10900000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H65">
+        <v>142.68799999999999</v>
+      </c>
+      <c r="I65">
+        <f>H65/E65</f>
+        <v>839.34117647059304</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K68" si="1">H65/E65</f>
+        <v>839.34117647059304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>0.122</v>
+      </c>
+      <c r="C66">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.19899999999999901</v>
+      </c>
+      <c r="F66">
+        <v>230.06299999999999</v>
+      </c>
+      <c r="G66">
+        <v>1.056</v>
+      </c>
+      <c r="H66">
+        <v>231.119</v>
+      </c>
+      <c r="I66">
+        <f>H66/E66</f>
+        <v>1161.4020100502571</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>1161.4020100502571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C67">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D67">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.19</v>
+      </c>
+      <c r="F67">
+        <v>404.12299999999999</v>
+      </c>
+      <c r="G67">
+        <v>1.61</v>
+      </c>
+      <c r="H67">
+        <v>405.733</v>
+      </c>
+      <c r="I67">
+        <f>H67/E67</f>
+        <v>2135.4368421052632</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>2135.4368421052632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>0.123</v>
+      </c>
+      <c r="C68">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D68">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E68">
+        <v>0.20199999999999901</v>
+      </c>
+      <c r="F68">
+        <v>489.416</v>
+      </c>
+      <c r="G68">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="H68">
+        <v>491.42500000000001</v>
+      </c>
+      <c r="I68">
+        <f>H68/E68</f>
+        <v>2432.7970297029824</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>2432.7970297029824</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I73">
+    <sortCondition ref="I2:I73"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmarks/mc2022/times.xlsx
+++ b/benchmarks/mc2022/times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB2FD1-C69F-9448-A0EE-8007C22CD922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F2C2C-2AF3-584A-B8A9-99847E3709EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="2580" windowWidth="18780" windowHeight="25840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="2180" windowWidth="18780" windowHeight="25840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="148">
   <si>
     <t>mc2022_track1_005</t>
   </si>
@@ -1336,12 +1336,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A51" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="2"/>
@@ -1379,37 +1380,39 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>5.758</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C2">
-        <v>11.147</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D2">
-        <v>1.575</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>8.5000000000000006E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F2">
         <f>C2+D2</f>
-        <v>12.722</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G2" s="1">
         <f>F2/B2</f>
-        <v>2.2094477249044808</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H2" s="1">
+        <f>HARMEAN(G:G)</f>
+        <v>5.4977876107553696</v>
       </c>
       <c r="I2" s="1">
         <f>D2/C2</f>
-        <v>0.14129362160222481</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>0.375</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HARMEAN(I:I)</f>
+        <v>0.10130867002217306</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1429,11 +1432,11 @@
         <v>2.4E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">C3+D3</f>
+        <f>C3+D3</f>
         <v>1.9E-2</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="1">F3/B3</f>
+        <f>F3/B3</f>
         <v>1.1176470588235292</v>
       </c>
       <c r="H3" s="1">
@@ -1441,7 +1444,7 @@
         <v>457.69194761478985</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="2">D3/C3</f>
+        <f>D3/C3</f>
         <v>0.46153846153846156</v>
       </c>
       <c r="J3" s="2">
@@ -1466,18 +1469,18 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>C4+D4</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f>F4/B4</f>
         <v>2.2857142857142856</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="2"/>
+        <f>D4/C4</f>
         <v>0.6</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1486,3105 +1489,3103 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <f>C5+D5</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/B5</f>
+        <v>2.625</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1">
+        <f>D5/C5</f>
+        <v>0.68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F6">
+        <f>C6+D6</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6/B6</f>
+        <v>2.9375</v>
+      </c>
+      <c r="I6" s="1">
+        <f>D6/C6</f>
+        <v>0.6206896551724137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <f>C7+D7</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f>F7/B7</f>
+        <v>3.8125</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(F:F)</f>
+        <v>1318.3126388888888</v>
+      </c>
+      <c r="I7" s="1">
+        <f>D7/C7</f>
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <f>C8+D8</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8/B8</f>
+        <v>3.8125</v>
+      </c>
+      <c r="I8" s="1">
+        <f>D8/C8</f>
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.03</v>
+      </c>
+      <c r="F9">
+        <f>C9+D9</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f>F9/B9</f>
+        <v>3.9375</v>
+      </c>
+      <c r="I9" s="1">
+        <f>D9/C9</f>
+        <v>0.70270270270270274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
+      <c r="D10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <f>C10+D10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F10/B10</f>
+        <v>2.8260869565217392</v>
+      </c>
+      <c r="I10" s="1">
+        <f>D10/C10</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <f>C11+D11</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11/B11</f>
+        <v>4.0588235294117645</v>
+      </c>
+      <c r="I11" s="1">
+        <f>D11/C11</f>
+        <v>0.68292682926829262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <f>C12+D12</f>
+        <v>0.10700000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12/B12</f>
+        <v>5.6315789473684221</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D12/C12</f>
+        <v>0.62121212121212122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <f>C13+D13</f>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F13/B13</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="I13" s="1">
+        <f>D13/C13</f>
+        <v>0.61643835616438358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <f>C14+D14</f>
+        <v>0.124</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14/B14</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="I14" s="1">
+        <f>D14/C14</f>
+        <v>0.63157894736842113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <f>C15+D15</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15/B15</f>
+        <v>6.2380952380952381</v>
+      </c>
+      <c r="I15" s="1">
+        <f>D15/C15</f>
+        <v>0.61728395061728392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <f>C16+D16</f>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16/B16</f>
+        <v>8.536231884057969</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="1">
+        <f>D16/C16</f>
+        <v>0.42270531400966183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F17">
+        <f>C17+D17</f>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G17" s="1">
+        <f>F17/B17</f>
+        <v>9.0495049504950487</v>
+      </c>
+      <c r="I17" s="1">
+        <f>D17/C17</f>
+        <v>0.79921259842519687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B18">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C5">
+      <c r="C18">
         <v>0.88700000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D18">
         <v>0.73799999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E18">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="F18">
+        <f>C18+D18</f>
         <v>1.625</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
+      <c r="G18" s="1">
+        <f>F18/B18</f>
         <v>9.078212290502794</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H18" s="1">
         <f>MIN(G:G)</f>
         <v>0.49534551998931187</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
+      <c r="I18" s="1">
+        <f>D18/C18</f>
         <v>0.83201803833145427</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J18" s="2">
         <f>MIN(I:I)</f>
         <v>5.1640274955846973E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.105</v>
+      </c>
+      <c r="C19">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <f>C19+D19</f>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <f>F19/B19</f>
+        <v>17.352380952380955</v>
+      </c>
+      <c r="I19" s="1">
+        <f>D19/C19</f>
+        <v>0.22199865861837692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>0.18</v>
+      </c>
+      <c r="C20">
+        <v>1.163</v>
+      </c>
+      <c r="D20">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E20">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F20">
+        <f>C20+D20</f>
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F20/B20</f>
+        <v>11.766666666666666</v>
+      </c>
+      <c r="I20" s="1">
+        <f>D20/C20</f>
+        <v>0.82115219260533101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C21">
+        <v>1.294</v>
+      </c>
+      <c r="D21">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.245</v>
+      </c>
+      <c r="F21">
+        <f>C21+D21</f>
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <f>F21/B21</f>
+        <v>8.3140794223826706</v>
+      </c>
+      <c r="I21" s="1">
+        <f>D21/C21</f>
+        <v>0.77975270479134462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.252</v>
+      </c>
+      <c r="C22">
+        <v>2.996</v>
+      </c>
+      <c r="D22">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.03</v>
+      </c>
+      <c r="F22">
+        <f>C22+D22</f>
+        <v>3.165</v>
+      </c>
+      <c r="G22" s="1">
+        <f>F22/B22</f>
+        <v>12.55952380952381</v>
+      </c>
+      <c r="I22" s="1">
+        <f>D22/C22</f>
+        <v>5.6408544726301739E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="C23">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.222</v>
+      </c>
+      <c r="E23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F23">
+        <f>C23+D23</f>
+        <v>4.4570000000000007</v>
+      </c>
+      <c r="G23" s="1">
+        <f>F23/B23</f>
+        <v>3.8488773747841116</v>
+      </c>
+      <c r="I23" s="1">
+        <f>D23/C23</f>
+        <v>5.2420306965761505E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="C24">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="D24">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F24">
+        <f>C24+D24</f>
+        <v>6.4879999999999995</v>
+      </c>
+      <c r="G24" s="1">
+        <f>F24/B24</f>
+        <v>13.745762711864407</v>
+      </c>
+      <c r="H24" s="1">
+        <f>MEDIAN(F:F)</f>
+        <v>71.641999999999996</v>
+      </c>
+      <c r="I24" s="1">
+        <f>D24/C24</f>
+        <v>0.45405647691618106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C25">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="D25">
+        <v>1.214</v>
+      </c>
+      <c r="E25">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F25">
+        <f>C25+D25</f>
+        <v>8.0909999999999993</v>
+      </c>
+      <c r="G25" s="1">
+        <f>F25/B25</f>
+        <v>39.276699029126213</v>
+      </c>
+      <c r="I25" s="1">
+        <f>D25/C25</f>
+        <v>0.17653046386505744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C26">
+        <v>6.9</v>
+      </c>
+      <c r="D26">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <f>C26+D26</f>
+        <v>9.588000000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <f>F26/B26</f>
+        <v>14.911353032659409</v>
+      </c>
+      <c r="I26" s="1">
+        <f>D26/C26</f>
+        <v>0.38956521739130434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C27">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="D27">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.248</v>
+      </c>
+      <c r="F27">
+        <f>C27+D27</f>
+        <v>12.335999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <f>F27/B27</f>
+        <v>52.050632911392398</v>
+      </c>
+      <c r="I27" s="1">
+        <f>D27/C27</f>
+        <v>0.25149639849852901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5.758</v>
+      </c>
+      <c r="C28">
+        <v>11.147</v>
+      </c>
+      <c r="D28">
+        <v>1.575</v>
+      </c>
+      <c r="E28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F28">
+        <f>C28+D28</f>
+        <v>12.722</v>
+      </c>
+      <c r="G28" s="1">
+        <f>F28/B28</f>
+        <v>2.2094477249044808</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1">
+        <f>D28/C28</f>
+        <v>0.14129362160222481</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <v>0.52</v>
+      </c>
+      <c r="C29">
+        <v>10.794</v>
+      </c>
+      <c r="D29">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F29">
+        <f>C29+D29</f>
+        <v>14.016999999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <f>F29/B29</f>
+        <v>26.955769230769228</v>
+      </c>
+      <c r="I29" s="1">
+        <f>D29/C29</f>
+        <v>0.29859181026496201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C30">
+        <v>12.459</v>
+      </c>
+      <c r="D30">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="E30">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="F30">
+        <f>C30+D30</f>
+        <v>16.556000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <f>F30/B30</f>
+        <v>15.722697056030391</v>
+      </c>
+      <c r="I30" s="1">
+        <f>D30/C30</f>
+        <v>0.32883859057709292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.625</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.68</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E7">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="H7" s="1">
-        <f>HARMEAN(G:G)</f>
-        <v>5.4977876107553705</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="2">
-        <f>HARMEAN(I:I)</f>
-        <v>0.10130867002217309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C8">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E8">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.124</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.63157894736842113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F31">
+        <f>C31+D31</f>
+        <v>17.649000000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <f>F31/B31</f>
+        <v>106.31927710843374</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="1">
+        <f>D31/C31</f>
+        <v>1.1983944954128439E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B32">
         <v>0.92800000000000005</v>
       </c>
-      <c r="C9">
+      <c r="C32">
         <v>13.13</v>
       </c>
-      <c r="D9">
+      <c r="D32">
         <v>5.8710000000000004</v>
       </c>
-      <c r="E9">
+      <c r="E32">
         <v>0.43099999999999999</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="F32">
+        <f>C32+D32</f>
         <v>19.001000000000001</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
+      <c r="G32" s="1">
+        <f>F32/B32</f>
         <v>20.475215517241381</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
+      <c r="I32" s="1">
+        <f>D32/C32</f>
         <v>0.44714394516374717</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E10">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>8.536231884057969</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42270531400966183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C11">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="D11">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>17.649000000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>106.31927710843374</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1983944954128439E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="C33">
+        <v>14.756</v>
+      </c>
+      <c r="D33">
+        <v>4.82</v>
+      </c>
+      <c r="E33">
+        <v>1.653</v>
+      </c>
+      <c r="F33">
+        <f>C33+D33</f>
+        <v>19.576000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <f>F33/B33</f>
+        <v>14.763197586726998</v>
+      </c>
+      <c r="I33" s="1">
+        <f>D33/C33</f>
+        <v>0.326646787747357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>1.337</v>
+      </c>
+      <c r="C34">
+        <v>14.74</v>
+      </c>
+      <c r="D34">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="E34">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="F34">
+        <f>C34+D34</f>
+        <v>20.009</v>
+      </c>
+      <c r="G34" s="1">
+        <f>F34/B34</f>
+        <v>14.965594614809275</v>
+      </c>
+      <c r="I34" s="1">
+        <f>D34/C34</f>
+        <v>0.35746268656716418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B35">
         <v>1.48</v>
       </c>
-      <c r="C12">
+      <c r="C35">
         <v>15.51</v>
       </c>
-      <c r="D12">
+      <c r="D35">
         <v>5.0369999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E35">
         <v>1.099</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F35">
+        <f>C35+D35</f>
         <v>20.547000000000001</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
+      <c r="G35" s="1">
+        <f>F35/B35</f>
         <v>13.883108108108109</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H35" s="1">
         <f>MAX(F:F)</f>
         <v>13144.746999999999</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="2"/>
+      <c r="I35" s="1">
+        <f>D35/C35</f>
         <v>0.32475822050290137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="C13">
-        <v>78.563000000000002</v>
-      </c>
-      <c r="D13">
-        <v>32.387</v>
-      </c>
-      <c r="E13">
-        <v>1.75</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>110.95</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>33.060190703218119</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41224240418517621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C36">
+        <v>14.962</v>
+      </c>
+      <c r="D36">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.401</v>
+      </c>
+      <c r="F36">
+        <f>C36+D36</f>
+        <v>20.698999999999998</v>
+      </c>
+      <c r="G36" s="1">
+        <f>F36/B36</f>
+        <v>30.217518248175178</v>
+      </c>
+      <c r="I36" s="1">
+        <f>D36/C36</f>
+        <v>0.38343804304237405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>2.06</v>
+      </c>
+      <c r="C37">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="D37">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="E37">
+        <v>2.238</v>
+      </c>
+      <c r="F37">
+        <f>C37+D37</f>
+        <v>29.084000000000003</v>
+      </c>
+      <c r="G37" s="1">
+        <f>F37/B37</f>
+        <v>14.118446601941748</v>
+      </c>
+      <c r="I37" s="1">
+        <f>D37/C37</f>
+        <v>0.34991877465769317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5.508</v>
+      </c>
+      <c r="C38">
+        <v>26.616</v>
+      </c>
+      <c r="D38">
+        <v>2.83</v>
+      </c>
+      <c r="E38">
+        <v>0.06</v>
+      </c>
+      <c r="F38">
+        <f>C38+D38</f>
+        <v>29.445999999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <f>F38/B38</f>
+        <v>5.3460421205519237</v>
+      </c>
+      <c r="I38" s="1">
+        <f>D38/C38</f>
+        <v>0.10632702134054704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>2.278</v>
+      </c>
+      <c r="C39">
+        <v>24.388000000000002</v>
+      </c>
+      <c r="D39">
+        <v>8.69</v>
+      </c>
+      <c r="E39">
+        <v>2.625</v>
+      </c>
+      <c r="F39">
+        <f>C39+D39</f>
+        <v>33.078000000000003</v>
+      </c>
+      <c r="G39" s="1">
+        <f>F39/B39</f>
+        <v>14.520632133450396</v>
+      </c>
+      <c r="I39" s="1">
+        <f>D39/C39</f>
+        <v>0.35632278169591597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="C40">
+        <v>24.853000000000002</v>
+      </c>
+      <c r="D40">
+        <v>10.433999999999999</v>
+      </c>
+      <c r="E40">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="F40">
+        <f>C40+D40</f>
+        <v>35.286999999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <f>F40/B40</f>
+        <v>16.382079851439183</v>
+      </c>
+      <c r="I40" s="1">
+        <f>D40/C40</f>
+        <v>0.41982859212167539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>23.234000000000002</v>
+      </c>
+      <c r="C41">
+        <v>31.273</v>
+      </c>
+      <c r="D41">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="E41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <f>C41+D41</f>
+        <v>36.170999999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <f>F41/B41</f>
+        <v>1.5568132908668328</v>
+      </c>
+      <c r="I41" s="1">
+        <f>D41/C41</f>
+        <v>0.15662072714482139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>25.077000000000002</v>
+      </c>
+      <c r="C42">
+        <v>29.928000000000001</v>
+      </c>
+      <c r="D42">
+        <v>9.3979999999999997</v>
+      </c>
+      <c r="E42">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F42">
+        <f>C42+D42</f>
+        <v>39.326000000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <f>F42/B42</f>
+        <v>1.5682099134665231</v>
+      </c>
+      <c r="I42" s="1">
+        <f>D42/C42</f>
+        <v>0.31402031542368347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C43">
+        <v>38.274000000000001</v>
+      </c>
+      <c r="D43">
+        <v>2.069</v>
+      </c>
+      <c r="E43">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <f>C43+D43</f>
+        <v>40.343000000000004</v>
+      </c>
+      <c r="G43" s="1">
+        <f>F43/B43</f>
+        <v>15.132408102025508</v>
+      </c>
+      <c r="I43" s="1">
+        <f>D43/C43</f>
+        <v>5.4057584783403875E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B44">
         <v>3.1840000000000002</v>
       </c>
-      <c r="C14">
+      <c r="C44">
         <v>32.494</v>
       </c>
-      <c r="D14">
+      <c r="D44">
         <v>11.010999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E44">
         <v>2.21</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F44">
+        <f>C44+D44</f>
         <v>43.504999999999995</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
+      <c r="G44" s="1">
+        <f>F44/B44</f>
         <v>13.663630653266329</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H44" s="1">
         <f>MIN(F:F)</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
+      <c r="I44" s="1">
+        <f>D44/C44</f>
         <v>0.33886255924170616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1.6759999999999999</v>
-      </c>
-      <c r="C15">
-        <v>30.713000000000001</v>
-      </c>
-      <c r="D15">
-        <v>13.426</v>
-      </c>
-      <c r="E15">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>44.139000000000003</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>26.335918854415276</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.43714388044150687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C16">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D16">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E16">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8125</v>
-      </c>
-      <c r="H16" s="1">
-        <f>AVERAGE(F:F)</f>
-        <v>1318.3126388888891</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.64864864864864868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C17">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.10700000000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6315789473684221</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.62121212121212122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="C18">
-        <v>4.4619999999999997</v>
-      </c>
-      <c r="D18">
-        <v>2.0259999999999998</v>
-      </c>
-      <c r="E18">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>6.4879999999999995</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>13.745762711864407</v>
-      </c>
-      <c r="H18" s="1">
-        <f>MEDIAN(F:F)</f>
-        <v>71.641999999999996</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.45405647691618106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.02</v>
-      </c>
-      <c r="C19">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D19">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E19">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.61643835616438358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>5.048</v>
-      </c>
-      <c r="C20">
-        <v>141.08699999999999</v>
-      </c>
-      <c r="D20">
-        <v>29.227</v>
-      </c>
-      <c r="E20">
-        <v>4.125</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>170.31399999999999</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>33.738906497622821</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20715586836490962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="C21">
-        <v>68.611000000000004</v>
-      </c>
-      <c r="D21">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E21">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>69.027000000000001</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>173.43467336683418</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="2"/>
-        <v>6.0631677136319239E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="C22">
-        <v>14.962</v>
-      </c>
-      <c r="D22">
-        <v>5.7370000000000001</v>
-      </c>
-      <c r="E22">
-        <v>1.401</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>20.698999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>30.217518248175178</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.38343804304237405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.252</v>
-      </c>
-      <c r="C23">
-        <v>2.996</v>
-      </c>
-      <c r="D23">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.03</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>3.165</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>12.55952380952381</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6408544726301739E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>30.753</v>
-      </c>
-      <c r="C24">
-        <v>1636.202</v>
-      </c>
-      <c r="D24">
-        <v>492.923</v>
-      </c>
-      <c r="E24">
-        <v>9.6370000000000005</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>2129.125</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>69.23308295125679</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30126048006297512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="C25">
-        <v>6.9</v>
-      </c>
-      <c r="D25">
-        <v>2.6880000000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.75</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>9.588000000000001</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>14.911353032659409</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.38956521739130434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2.1539999999999999</v>
-      </c>
-      <c r="C26">
-        <v>24.853000000000002</v>
-      </c>
-      <c r="D26">
-        <v>10.433999999999999</v>
-      </c>
-      <c r="E26">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>35.286999999999999</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>16.382079851439183</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41982859212167539</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="C27">
-        <v>4.2350000000000003</v>
-      </c>
-      <c r="D27">
-        <v>0.222</v>
-      </c>
-      <c r="E27">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>4.4570000000000007</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8488773747841116</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="2"/>
-        <v>5.2420306965761505E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="C28">
-        <v>57.03</v>
-      </c>
-      <c r="D28">
-        <v>23.524000000000001</v>
-      </c>
-      <c r="E28">
-        <v>2.5059999999999998</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>80.554000000000002</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>33.068144499178985</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41248465719796601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="C29">
-        <v>98.808999999999997</v>
-      </c>
-      <c r="D29">
-        <v>27.268999999999998</v>
-      </c>
-      <c r="E29">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>126.078</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>77.06479217603912</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27597688469673815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="C30">
-        <v>42.545999999999999</v>
-      </c>
-      <c r="D30">
-        <v>14.055999999999999</v>
-      </c>
-      <c r="E30">
-        <v>1.333</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>56.601999999999997</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>37.962441314553985</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33037183283974991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>4.6829999999999998</v>
-      </c>
-      <c r="C31">
-        <v>1371.2170000000001</v>
-      </c>
-      <c r="D31">
-        <v>55.271999999999998</v>
-      </c>
-      <c r="E31">
-        <v>9.8170000000000002</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1426.489</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>304.61007900918219</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0308718459587355E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>30.565999999999999</v>
-      </c>
-      <c r="C32">
-        <v>3461.5509999999999</v>
-      </c>
-      <c r="D32">
-        <v>453.07499999999999</v>
-      </c>
-      <c r="E32">
-        <v>18.472000000000001</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>3914.6259999999997</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>128.07125564352549</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13088785922842103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>145.96700000000001</v>
-      </c>
-      <c r="C33">
-        <v>1043.0229999999999</v>
-      </c>
-      <c r="D33">
-        <v>1019.94</v>
-      </c>
-      <c r="E33">
-        <v>117.413</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>2062.9629999999997</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>14.133078024484984</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.97786913615519522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C34">
-        <v>38.274000000000001</v>
-      </c>
-      <c r="D34">
-        <v>2.069</v>
-      </c>
-      <c r="E34">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>40.343000000000004</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>15.132408102025508</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4057584783403875E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0.105</v>
-      </c>
-      <c r="C35">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="D35">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="E35">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>17.352380952380955</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22199865861837692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5.508</v>
-      </c>
-      <c r="C36">
-        <v>26.616</v>
-      </c>
-      <c r="D36">
-        <v>2.83</v>
-      </c>
-      <c r="E36">
-        <v>0.06</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>29.445999999999998</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3460421205519237</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10632702134054704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>244.952</v>
-      </c>
-      <c r="C37">
-        <v>3087.712</v>
-      </c>
-      <c r="D37">
-        <v>4225.2250000000004</v>
-      </c>
-      <c r="E37">
-        <v>219.357</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>7312.9369999999999</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>29.854571507887261</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3683999673544684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="C38">
-        <v>6.8769999999999998</v>
-      </c>
-      <c r="D38">
-        <v>1.214</v>
-      </c>
-      <c r="E38">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>8.0909999999999993</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>39.276699029126213</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17653046386505744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>606.37800000000004</v>
-      </c>
-      <c r="C39">
-        <v>8727.8379999999997</v>
-      </c>
-      <c r="D39">
-        <v>4416.9089999999997</v>
-      </c>
-      <c r="E39">
-        <v>475.16800000000001</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>13144.746999999999</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>21.677480053695877</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50607137758514764</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>23.234000000000002</v>
-      </c>
-      <c r="C40">
-        <v>31.273</v>
-      </c>
-      <c r="D40">
-        <v>4.8979999999999997</v>
-      </c>
-      <c r="E40">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>36.170999999999999</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5568132908668328</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15662072714482139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="C41">
-        <v>142.15600000000001</v>
-      </c>
-      <c r="D41">
-        <v>28.632999999999999</v>
-      </c>
-      <c r="E41">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>170.78900000000002</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>204.04898446833934</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20141956723599425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>49.573999999999998</v>
-      </c>
-      <c r="C42">
-        <v>36.716999999999999</v>
-      </c>
-      <c r="D42">
-        <v>11.375</v>
-      </c>
-      <c r="E42">
-        <v>0.04</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>48.091999999999999</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>0.97010529713156091</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30980199907399841</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>25.077000000000002</v>
-      </c>
-      <c r="C43">
-        <v>29.928000000000001</v>
-      </c>
-      <c r="D43">
-        <v>9.3979999999999997</v>
-      </c>
-      <c r="E43">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>39.326000000000001</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5682099134665231</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31402031542368347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>63.691000000000003</v>
-      </c>
-      <c r="C44">
-        <v>8328.1419999999998</v>
-      </c>
-      <c r="D44">
-        <v>3849.7559999999999</v>
-      </c>
-      <c r="E44">
-        <v>167.369</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>12177.897999999999</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>191.20280730401467</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46225868867269554</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B45">
-        <v>4.5439999999999996</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="C45">
-        <v>129.697</v>
+        <v>32.722000000000001</v>
       </c>
       <c r="D45">
-        <v>10.202</v>
+        <v>11.198</v>
       </c>
       <c r="E45">
-        <v>0.46400000000000002</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>139.899</v>
+        <f>C45+D45</f>
+        <v>43.92</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>30.787632042253524</v>
+        <f>F45/B45</f>
+        <v>12.763731473408894</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8660261995265893E-2</v>
+        <f>D45/C45</f>
+        <v>0.34221624595073652</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>1.679</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="C46">
-        <v>192.286</v>
+        <v>30.713000000000001</v>
       </c>
       <c r="D46">
-        <v>154.11799999999999</v>
+        <v>13.426</v>
       </c>
       <c r="E46">
-        <v>3.6840000000000002</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>346.404</v>
+        <f>C46+D46</f>
+        <v>44.139000000000003</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>206.31566408576532</v>
+        <f>F46/B46</f>
+        <v>26.335918854415276</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.80150400965228874</v>
+        <f>D46/C46</f>
+        <v>0.43714388044150687</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B47">
-        <v>22.321999999999999</v>
+        <v>1.083</v>
       </c>
       <c r="C47">
-        <v>3791.1570000000002</v>
+        <v>36.561999999999998</v>
       </c>
       <c r="D47">
-        <v>656.51300000000003</v>
+        <v>9.032</v>
       </c>
       <c r="E47">
-        <v>27.768999999999998</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4447.67</v>
+        <f>C47+D47</f>
+        <v>45.593999999999994</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>199.25051518681124</v>
+        <f>F47/B47</f>
+        <v>42.099722991689745</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17316956274825865</v>
+        <f>D47/C47</f>
+        <v>0.2470324380504349</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B48">
-        <v>2.0760000000000001</v>
+        <v>3.3769999999999998</v>
       </c>
       <c r="C48">
-        <v>58.984000000000002</v>
+        <v>33.606000000000002</v>
       </c>
       <c r="D48">
-        <v>5.2489999999999997</v>
+        <v>12.161</v>
       </c>
       <c r="E48">
-        <v>0.11899999999999999</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>64.233000000000004</v>
+        <f>C48+D48</f>
+        <v>45.767000000000003</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>30.940751445086708</v>
+        <f>F48/B48</f>
+        <v>13.552561445069591</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8990234639902341E-2</v>
+        <f>D48/C48</f>
+        <v>0.36186990418377668</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B49">
-        <v>70.355000000000004</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="C49">
-        <v>757.072</v>
+        <v>29.125</v>
       </c>
       <c r="D49">
-        <v>511.80700000000002</v>
+        <v>17.039000000000001</v>
       </c>
       <c r="E49">
-        <v>88.165000000000006</v>
+        <v>4.0389999999999997</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1268.8789999999999</v>
+        <f>C49+D49</f>
+        <v>46.164000000000001</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>18.035377727240419</v>
+        <f>F49/B49</f>
+        <v>15.874828060522697</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6760347760847053</v>
+        <f>D49/C49</f>
+        <v>0.58503004291845495</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>90.915000000000006</v>
+        <v>49.573999999999998</v>
       </c>
       <c r="C50">
-        <v>1723.357</v>
+        <v>36.716999999999999</v>
       </c>
       <c r="D50">
-        <v>1059.2560000000001</v>
+        <v>11.375</v>
       </c>
       <c r="E50">
-        <v>130.32599999999999</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>2782.6130000000003</v>
+        <f>C50+D50</f>
+        <v>48.091999999999999</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
-        <v>30.606753561018536</v>
+        <f>F50/B50</f>
+        <v>0.97010529713156091</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="2"/>
-        <v>0.61464687815699248</v>
+        <f>D50/C50</f>
+        <v>0.30980199907399841</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B51">
-        <v>123.03700000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C51">
-        <v>5980.9359999999997</v>
+        <v>45.031999999999996</v>
       </c>
       <c r="D51">
-        <v>952.15499999999997</v>
+        <v>11.115</v>
       </c>
       <c r="E51">
-        <v>71.513999999999996</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>6933.0909999999994</v>
+        <f>C51+D51</f>
+        <v>56.146999999999998</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>56.349642790380123</v>
+        <f>F51/B51</f>
+        <v>57.002030456852793</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1591983261482818</v>
+        <f>D51/C51</f>
+        <v>0.24682448036951504</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>112.248</v>
+        <v>1.4910000000000001</v>
       </c>
       <c r="C52">
-        <v>6821.348</v>
+        <v>42.545999999999999</v>
       </c>
       <c r="D52">
-        <v>2430.2370000000001</v>
+        <v>14.055999999999999</v>
       </c>
       <c r="E52">
-        <v>166.45099999999999</v>
+        <v>1.333</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>9251.5849999999991</v>
+        <f>C52+D52</f>
+        <v>56.601999999999997</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>82.420934003278447</v>
+        <f>F52/B52</f>
+        <v>37.962441314553985</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3562693180292224</v>
+        <f>D52/C52</f>
+        <v>0.33037183283974991</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>178.14</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="C53">
-        <v>3458.5239999999999</v>
+        <v>58.984000000000002</v>
       </c>
       <c r="D53">
-        <v>533.14499999999998</v>
+        <v>5.2489999999999997</v>
       </c>
       <c r="E53">
-        <v>7.3479999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>3991.6689999999999</v>
+        <f>C53+D53</f>
+        <v>64.233000000000004</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="1"/>
-        <v>22.407482878634784</v>
+        <f>F53/B53</f>
+        <v>30.940751445086708</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15415391074342696</v>
+        <f>D53/C53</f>
+        <v>8.8990234639902341E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>394.71</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C54">
-        <v>400.30799999999999</v>
+        <v>68.611000000000004</v>
       </c>
       <c r="D54">
-        <v>87.406999999999996</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="E54">
-        <v>0.155</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>487.71499999999997</v>
+        <f>C54+D54</f>
+        <v>69.027000000000001</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>1.235628689417547</v>
+        <f>F54/B54</f>
+        <v>173.43467336683418</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21834937098434204</v>
+        <f>D54/C54</f>
+        <v>6.0631677136319239E-3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B55">
-        <v>158.11500000000001</v>
+        <v>3.536</v>
       </c>
       <c r="C55">
-        <v>143.74700000000001</v>
+        <v>44.52</v>
       </c>
       <c r="D55">
-        <v>19.3</v>
+        <v>25.733000000000001</v>
       </c>
       <c r="E55">
-        <v>0.23699999999999999</v>
+        <v>3.8119999999999998</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>163.04700000000003</v>
+        <f>C55+D55</f>
+        <v>70.253</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0311924864813586</v>
+        <f>F55/B55</f>
+        <v>19.867929864253394</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13426367158966795</v>
+        <f>D55/C55</f>
+        <v>0.57800988319856239</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B56">
-        <v>69.122</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C56">
-        <v>244.499</v>
+        <v>70.781000000000006</v>
       </c>
       <c r="D56">
-        <v>60.292999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="E56">
-        <v>0.23799999999999999</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>304.79199999999997</v>
+        <f>C56+D56</f>
+        <v>73.031000000000006</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4094788923931594</v>
+        <f>F56/B56</f>
+        <v>101.71448467966574</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24659814559568752</v>
+        <f>D56/C56</f>
+        <v>3.178819174637261E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B57">
-        <v>508.97199999999998</v>
+        <v>5.5869999999999997</v>
       </c>
       <c r="C57">
-        <v>189.36</v>
+        <v>56.582000000000001</v>
       </c>
       <c r="D57">
-        <v>62.756999999999998</v>
+        <v>19.859000000000002</v>
       </c>
       <c r="E57">
-        <v>0.11700000000000001</v>
+        <v>4.7679999999999998</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>252.11700000000002</v>
+        <f>C57+D57</f>
+        <v>76.441000000000003</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49534551998931187</v>
+        <f>F57/B57</f>
+        <v>13.68194021836406</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33141634980988588</v>
+        <f>D57/C57</f>
+        <v>0.35097734261779368</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>2.0329999999999999</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="C58">
-        <v>84.471999999999994</v>
+        <v>57.03</v>
       </c>
       <c r="D58">
-        <v>2.2349999999999999</v>
+        <v>23.524000000000001</v>
       </c>
       <c r="E58">
-        <v>0.75700000000000001</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>86.706999999999994</v>
+        <f>C58+D58</f>
+        <v>80.554000000000002</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="1"/>
-        <v>42.649778652238069</v>
+        <f>F58/B58</f>
+        <v>33.068144499178985</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6458471446159676E-2</v>
+        <f>D58/C58</f>
+        <v>0.41248465719796601</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>270.95400000000001</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="C59">
-        <v>357.22</v>
+        <v>84.471999999999994</v>
       </c>
       <c r="D59">
-        <v>31.152999999999999</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="E59">
-        <v>0.113</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>388.37300000000005</v>
+        <f>C59+D59</f>
+        <v>86.706999999999994</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4333540010481485</v>
+        <f>F59/B59</f>
+        <v>42.649778652238069</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="2"/>
-        <v>8.7209562734449353E-2</v>
+        <f>D59/C59</f>
+        <v>2.6458471446159676E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B60">
-        <v>1536.914</v>
+        <v>1.929</v>
       </c>
       <c r="C60">
-        <v>660.08399999999995</v>
+        <v>85.513000000000005</v>
       </c>
       <c r="D60">
-        <v>111.86499999999999</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="E60">
-        <v>0.27900000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>771.94899999999996</v>
+        <f>C60+D60</f>
+        <v>87.905000000000001</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="1"/>
-        <v>0.50227208549079516</v>
+        <f>F60/B60</f>
+        <v>45.570243649559359</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1694708552244866</v>
+        <f>D60/C60</f>
+        <v>2.7972355080514072E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B61">
-        <v>19.013000000000002</v>
+        <v>65.322000000000003</v>
       </c>
       <c r="C61">
-        <v>8657.39</v>
+        <v>84.013999999999996</v>
       </c>
       <c r="D61">
-        <v>44.707000000000001</v>
+        <v>17.204999999999998</v>
       </c>
       <c r="E61">
-        <v>6.5279999999999996</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>8702.0969999999998</v>
+        <f>C61+D61</f>
+        <v>101.21899999999999</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
-        <v>457.69194761478985</v>
+        <f>F61/B61</f>
+        <v>1.5495392057805943</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1640274955846973E-3</v>
+        <f>D61/C61</f>
+        <v>0.20478729735520271</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>2.9380000000000002</v>
+        <v>9.3109999999999999</v>
       </c>
       <c r="C62">
-        <v>243.11699999999999</v>
+        <v>52.936999999999998</v>
       </c>
       <c r="D62">
-        <v>25.975000000000001</v>
+        <v>52.311</v>
       </c>
       <c r="E62">
-        <v>2.2040000000000002</v>
+        <v>8.6590000000000007</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>269.09199999999998</v>
+        <f>C62+D62</f>
+        <v>105.24799999999999</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>91.590197413206255</v>
+        <f>F62/B62</f>
+        <v>11.303619374932873</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10684156188172773</v>
+        <f>D62/C62</f>
+        <v>0.98817462266467693</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B63">
-        <v>598.70899999999995</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="C63">
-        <v>4116.26</v>
+        <v>88.534000000000006</v>
       </c>
       <c r="D63">
-        <v>3969.0479999999998</v>
+        <v>21.904</v>
       </c>
       <c r="E63">
-        <v>514.25599999999997</v>
+        <v>1.151</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>8085.308</v>
+        <f>C63+D63</f>
+        <v>110.438</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
-        <v>13.504570667887071</v>
+        <f>F63/B63</f>
+        <v>74.469318948078211</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="2"/>
-        <v>0.96423646708419763</v>
+        <f>D63/C63</f>
+        <v>0.24740777554385884</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>9.3109999999999999</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="C64">
-        <v>52.936999999999998</v>
+        <v>78.563000000000002</v>
       </c>
       <c r="D64">
-        <v>52.311</v>
+        <v>32.387</v>
       </c>
       <c r="E64">
-        <v>8.6590000000000007</v>
+        <v>1.75</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>105.24799999999999</v>
+        <f>C64+D64</f>
+        <v>110.95</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="1"/>
-        <v>11.303619374932873</v>
+        <f>F64/B64</f>
+        <v>33.060190703218119</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="2"/>
-        <v>0.98817462266467693</v>
+        <f>D64/C64</f>
+        <v>0.41224240418517621</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>0.27700000000000002</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="C65">
-        <v>1.294</v>
+        <v>98.808999999999997</v>
       </c>
       <c r="D65">
-        <v>1.0089999999999999</v>
+        <v>27.268999999999998</v>
       </c>
       <c r="E65">
-        <v>0.245</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>2.3029999999999999</v>
+        <f>C65+D65</f>
+        <v>126.078</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3140794223826706</v>
+        <f>F65/B65</f>
+        <v>77.06479217603912</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="2"/>
-        <v>0.77975270479134462</v>
+        <f>D65/C65</f>
+        <v>0.27597688469673815</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B66">
-        <v>0.10100000000000001</v>
+        <v>3.21</v>
       </c>
       <c r="C66">
-        <v>0.50800000000000001</v>
+        <v>126.084</v>
       </c>
       <c r="D66">
-        <v>0.40600000000000003</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="E66">
-        <v>0.11700000000000001</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>0.91400000000000003</v>
+        <f>C66+D66</f>
+        <v>129.792</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="1"/>
-        <v>9.0495049504950487</v>
+        <f>F66/B66</f>
+        <v>40.433644859813086</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="2"/>
-        <v>0.79921259842519687</v>
+        <f>D66/C66</f>
+        <v>2.9408965451603694E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>30.577000000000002</v>
+        <v>4.5439999999999996</v>
       </c>
       <c r="C67">
-        <v>206.90899999999999</v>
+        <v>129.697</v>
       </c>
       <c r="D67">
-        <v>190.52799999999999</v>
+        <v>10.202</v>
       </c>
       <c r="E67">
-        <v>23.329000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F106" si="3">C67+D67</f>
-        <v>397.43700000000001</v>
+        <f>C67+D67</f>
+        <v>139.899</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G106" si="4">F67/B67</f>
-        <v>12.997906923504594</v>
+        <f>F67/B67</f>
+        <v>30.787632042253524</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I106" si="5">D67/C67</f>
-        <v>0.92082993006587432</v>
+        <f>D67/C67</f>
+        <v>7.8660261995265893E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B68">
-        <v>0.18</v>
+        <v>158.11500000000001</v>
       </c>
       <c r="C68">
-        <v>1.163</v>
+        <v>143.74700000000001</v>
       </c>
       <c r="D68">
-        <v>0.95499999999999996</v>
+        <v>19.3</v>
       </c>
       <c r="E68">
-        <v>0.28199999999999997</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
-        <v>2.1179999999999999</v>
+        <f>C68+D68</f>
+        <v>163.04700000000003</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="4"/>
-        <v>11.766666666666666</v>
+        <f>F68/B68</f>
+        <v>1.0311924864813586</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="5"/>
-        <v>0.82115219260533101</v>
+        <f>D68/C68</f>
+        <v>0.13426367158966795</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>1.6E-2</v>
+        <v>5.048</v>
       </c>
       <c r="C69">
-        <v>3.6999999999999998E-2</v>
+        <v>141.08699999999999</v>
       </c>
       <c r="D69">
-        <v>2.5999999999999999E-2</v>
+        <v>29.227</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>4.125</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
-        <v>6.3E-2</v>
+        <f>C69+D69</f>
+        <v>170.31399999999999</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="4"/>
-        <v>3.9375</v>
+        <f>F69/B69</f>
+        <v>33.738906497622821</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="5"/>
-        <v>0.70270270270270274</v>
+        <f>D69/C69</f>
+        <v>0.20715586836490962</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B70">
-        <v>2.1000000000000001E-2</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C70">
-        <v>8.1000000000000003E-2</v>
+        <v>142.15600000000001</v>
       </c>
       <c r="D70">
-        <v>0.05</v>
+        <v>28.632999999999999</v>
       </c>
       <c r="E70">
-        <v>3.3000000000000002E-2</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
-        <v>0.13100000000000001</v>
+        <f>C70+D70</f>
+        <v>170.78900000000002</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="4"/>
-        <v>6.2380952380952381</v>
+        <f>F70/B70</f>
+        <v>204.04898446833934</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="5"/>
-        <v>0.61728395061728392</v>
+        <f>D70/C70</f>
+        <v>0.20141956723599425</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B71">
-        <v>0.52</v>
+        <v>5.3639999999999999</v>
       </c>
       <c r="C71">
-        <v>10.794</v>
+        <v>131.74199999999999</v>
       </c>
       <c r="D71">
-        <v>3.2229999999999999</v>
+        <v>73.402000000000001</v>
       </c>
       <c r="E71">
-        <v>0.85399999999999998</v>
+        <v>5.633</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
-        <v>14.016999999999999</v>
+        <f>C71+D71</f>
+        <v>205.14400000000001</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="4"/>
-        <v>26.955769230769228</v>
+        <f>F71/B71</f>
+        <v>38.244593586875467</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="5"/>
-        <v>0.29859181026496201</v>
+        <f>D71/C71</f>
+        <v>0.55716476142763893</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B72">
-        <v>1.6E-2</v>
+        <v>508.97199999999998</v>
       </c>
       <c r="C72">
-        <v>3.5999999999999997E-2</v>
+        <v>189.36</v>
       </c>
       <c r="D72">
-        <v>2.5000000000000001E-2</v>
+        <v>62.756999999999998</v>
       </c>
       <c r="E72">
-        <v>3.2000000000000001E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
-        <v>6.0999999999999999E-2</v>
+        <f>C72+D72</f>
+        <v>252.11700000000002</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="4"/>
-        <v>3.8125</v>
+        <f>F72/B72</f>
+        <v>0.49534551998931187</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="5"/>
-        <v>0.69444444444444453</v>
+        <f>D72/C72</f>
+        <v>0.33141634980988588</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B73">
-        <v>0.23699999999999999</v>
+        <v>1.345</v>
       </c>
       <c r="C73">
-        <v>9.8569999999999993</v>
+        <v>241.24299999999999</v>
       </c>
       <c r="D73">
-        <v>2.4790000000000001</v>
+        <v>23.312000000000001</v>
       </c>
       <c r="E73">
-        <v>0.248</v>
+        <v>4.3780000000000001</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
-        <v>12.335999999999999</v>
+        <f>C73+D73</f>
+        <v>264.55500000000001</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="4"/>
-        <v>52.050632911392398</v>
+        <f>F73/B73</f>
+        <v>196.69516728624535</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="5"/>
-        <v>0.25149639849852901</v>
+        <f>D73/C73</f>
+        <v>9.6632855668351003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B74">
-        <v>0.98499999999999999</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="C74">
-        <v>45.031999999999996</v>
+        <v>256.43</v>
       </c>
       <c r="D74">
-        <v>11.115</v>
+        <v>12.31</v>
       </c>
       <c r="E74">
-        <v>1.0069999999999999</v>
+        <v>2.194</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
-        <v>56.146999999999998</v>
+        <f>C74+D74</f>
+        <v>268.74</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="4"/>
-        <v>57.002030456852793</v>
+        <f>F74/B74</f>
+        <v>158.54867256637169</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="5"/>
-        <v>0.24682448036951504</v>
+        <f>D74/C74</f>
+        <v>4.8005303591623444E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>2.278</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="C75">
-        <v>24.388000000000002</v>
+        <v>243.11699999999999</v>
       </c>
       <c r="D75">
-        <v>8.69</v>
+        <v>25.975000000000001</v>
       </c>
       <c r="E75">
-        <v>2.625</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
-        <v>33.078000000000003</v>
+        <f>C75+D75</f>
+        <v>269.09199999999998</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="4"/>
-        <v>14.520632133450396</v>
+        <f>F75/B75</f>
+        <v>91.590197413206255</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35632278169591597</v>
+        <f>D75/C75</f>
+        <v>0.10684156188172773</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B76">
-        <v>1.0529999999999999</v>
+        <v>69.122</v>
       </c>
       <c r="C76">
-        <v>12.459</v>
+        <v>244.499</v>
       </c>
       <c r="D76">
-        <v>4.0970000000000004</v>
+        <v>60.292999999999999</v>
       </c>
       <c r="E76">
-        <v>1.3129999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
-        <v>16.556000000000001</v>
+        <f>C76+D76</f>
+        <v>304.79199999999997</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="4"/>
-        <v>15.722697056030391</v>
+        <f>F76/B76</f>
+        <v>4.4094788923931594</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="5"/>
-        <v>0.32883859057709292</v>
+        <f>D76/C76</f>
+        <v>0.24659814559568752</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B77">
-        <v>1.3260000000000001</v>
+        <v>3.1110000000000002</v>
       </c>
       <c r="C77">
-        <v>14.756</v>
+        <v>225.50299999999999</v>
       </c>
       <c r="D77">
-        <v>4.82</v>
+        <v>116.779</v>
       </c>
       <c r="E77">
-        <v>1.653</v>
+        <v>9.218</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
-        <v>19.576000000000001</v>
+        <f>C77+D77</f>
+        <v>342.28199999999998</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="4"/>
-        <v>14.763197586726998</v>
+        <f>F77/B77</f>
+        <v>110.02314368370298</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="5"/>
-        <v>0.326646787747357</v>
+        <f>D77/C77</f>
+        <v>0.5178600728149958</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B78">
-        <v>2.9079999999999999</v>
+        <v>1.679</v>
       </c>
       <c r="C78">
-        <v>29.125</v>
+        <v>192.286</v>
       </c>
       <c r="D78">
-        <v>17.039000000000001</v>
+        <v>154.11799999999999</v>
       </c>
       <c r="E78">
-        <v>4.0389999999999997</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>46.164000000000001</v>
+        <f>C78+D78</f>
+        <v>346.404</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="4"/>
-        <v>15.874828060522697</v>
+        <f>F78/B78</f>
+        <v>206.31566408576532</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="5"/>
-        <v>0.58503004291845495</v>
+        <f>D78/C78</f>
+        <v>0.80150400965228874</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B79">
-        <v>3.4409999999999998</v>
+        <v>270.95400000000001</v>
       </c>
       <c r="C79">
-        <v>32.722000000000001</v>
+        <v>357.22</v>
       </c>
       <c r="D79">
-        <v>11.198</v>
+        <v>31.152999999999999</v>
       </c>
       <c r="E79">
-        <v>3.3519999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
-        <v>43.92</v>
+        <f>C79+D79</f>
+        <v>388.37300000000005</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="4"/>
-        <v>12.763731473408894</v>
+        <f>F79/B79</f>
+        <v>1.4333540010481485</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34221624595073652</v>
+        <f>D79/C79</f>
+        <v>8.7209562734449353E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <v>2.06</v>
+        <v>30.577000000000002</v>
       </c>
       <c r="C80">
-        <v>21.545000000000002</v>
+        <v>206.90899999999999</v>
       </c>
       <c r="D80">
-        <v>7.5389999999999997</v>
+        <v>190.52799999999999</v>
       </c>
       <c r="E80">
-        <v>2.238</v>
+        <v>23.329000000000001</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
-        <v>29.084000000000003</v>
+        <f>C80+D80</f>
+        <v>397.43700000000001</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="4"/>
-        <v>14.118446601941748</v>
+        <f>F80/B80</f>
+        <v>12.997906923504594</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34991877465769317</v>
+        <f>D80/C80</f>
+        <v>0.92082993006587432</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B81">
-        <v>1.4830000000000001</v>
+        <v>394.71</v>
       </c>
       <c r="C81">
-        <v>88.534000000000006</v>
+        <v>400.30799999999999</v>
       </c>
       <c r="D81">
-        <v>21.904</v>
+        <v>87.406999999999996</v>
       </c>
       <c r="E81">
-        <v>1.151</v>
+        <v>0.155</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>110.438</v>
+        <f>C81+D81</f>
+        <v>487.71499999999997</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="4"/>
-        <v>74.469318948078211</v>
+        <f>F81/B81</f>
+        <v>1.235628689417547</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="5"/>
-        <v>0.24740777554385884</v>
+        <f>D81/C81</f>
+        <v>0.21834937098434204</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B82">
-        <v>3.3769999999999998</v>
+        <v>22.917000000000002</v>
       </c>
       <c r="C82">
-        <v>33.606000000000002</v>
+        <v>504.11799999999999</v>
       </c>
       <c r="D82">
-        <v>12.161</v>
+        <v>15.795</v>
       </c>
       <c r="E82">
-        <v>3.3109999999999999</v>
+        <v>5.2839999999999998</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
-        <v>45.767000000000003</v>
+        <f>C82+D82</f>
+        <v>519.91300000000001</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="4"/>
-        <v>13.552561445069591</v>
+        <f>F82/B82</f>
+        <v>22.686782737705631</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36186990418377668</v>
+        <f>D82/C82</f>
+        <v>3.1331950059311511E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B83">
-        <v>1.7000000000000001E-2</v>
+        <v>22.213999999999999</v>
       </c>
       <c r="C83">
-        <v>4.1000000000000002E-2</v>
+        <v>615.63199999999995</v>
       </c>
       <c r="D83">
-        <v>2.8000000000000001E-2</v>
+        <v>73.173000000000002</v>
       </c>
       <c r="E83">
-        <v>2.9000000000000001E-2</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <f>C83+D83</f>
+        <v>688.80499999999995</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="4"/>
-        <v>4.0588235294117645</v>
+        <f>F83/B83</f>
+        <v>31.007697848203836</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="5"/>
-        <v>0.68292682926829262</v>
+        <f>D83/C83</f>
+        <v>0.11885834394573383</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B84">
-        <v>1.6E-2</v>
+        <v>1536.914</v>
       </c>
       <c r="C84">
-        <v>2.9000000000000001E-2</v>
+        <v>660.08399999999995</v>
       </c>
       <c r="D84">
-        <v>1.7999999999999999E-2</v>
+        <v>111.86499999999999</v>
       </c>
       <c r="E84">
-        <v>2.7E-2</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
-        <v>4.7E-2</v>
+        <f>C84+D84</f>
+        <v>771.94899999999996</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9375</v>
+        <f>F84/B84</f>
+        <v>0.50227208549079516</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="5"/>
-        <v>0.6206896551724137</v>
+        <f>D84/C84</f>
+        <v>0.1694708552244866</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B85">
-        <v>3.536</v>
+        <v>14.808</v>
       </c>
       <c r="C85">
-        <v>44.52</v>
+        <v>1005.378</v>
       </c>
       <c r="D85">
-        <v>25.733000000000001</v>
+        <v>110.256</v>
       </c>
       <c r="E85">
-        <v>3.8119999999999998</v>
+        <v>8.4920000000000009</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
-        <v>70.253</v>
+        <f>C85+D85</f>
+        <v>1115.634</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="4"/>
-        <v>19.867929864253394</v>
+        <f>F85/B85</f>
+        <v>75.33995137763371</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57800988319856239</v>
+        <f>D85/C85</f>
+        <v>0.10966621509521791</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B86">
-        <v>1.337</v>
+        <v>70.355000000000004</v>
       </c>
       <c r="C86">
-        <v>14.74</v>
+        <v>757.072</v>
       </c>
       <c r="D86">
-        <v>5.2690000000000001</v>
+        <v>511.80700000000002</v>
       </c>
       <c r="E86">
-        <v>2.1419999999999999</v>
+        <v>88.165000000000006</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
-        <v>20.009</v>
+        <f>C86+D86</f>
+        <v>1268.8789999999999</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="4"/>
-        <v>14.965594614809275</v>
+        <f>F86/B86</f>
+        <v>18.035377727240419</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35746268656716418</v>
+        <f>D86/C86</f>
+        <v>0.6760347760847053</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B87">
-        <v>5.5869999999999997</v>
+        <v>6.3970000000000002</v>
       </c>
       <c r="C87">
-        <v>56.582000000000001</v>
+        <v>1321.431</v>
       </c>
       <c r="D87">
-        <v>19.859000000000002</v>
+        <v>100.34</v>
       </c>
       <c r="E87">
-        <v>4.7679999999999998</v>
+        <v>15.163</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
-        <v>76.441000000000003</v>
+        <f>C87+D87</f>
+        <v>1421.771</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="4"/>
-        <v>13.68194021836406</v>
+        <f>F87/B87</f>
+        <v>222.25590120368921</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35097734261779368</v>
+        <f>D87/C87</f>
+        <v>7.5932833420738574E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>193.79900000000001</v>
+        <v>4.6829999999999998</v>
       </c>
       <c r="C88">
-        <v>8111.8440000000001</v>
+        <v>1371.2170000000001</v>
       </c>
       <c r="D88">
-        <v>2719.7669999999998</v>
+        <v>55.271999999999998</v>
       </c>
       <c r="E88">
-        <v>100.161</v>
+        <v>9.8170000000000002</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
-        <v>10831.611000000001</v>
+        <f>C88+D88</f>
+        <v>1426.489</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="4"/>
-        <v>55.890954029690555</v>
+        <f>F88/B88</f>
+        <v>304.61007900918219</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33528344479997396</v>
+        <f>D88/C88</f>
+        <v>4.0308718459587355E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B89">
-        <v>89.858000000000004</v>
+        <v>41.454999999999998</v>
       </c>
       <c r="C89">
-        <v>2965.8739999999998</v>
+        <v>1544.7429999999999</v>
       </c>
       <c r="D89">
-        <v>1160.329</v>
+        <v>382.18599999999998</v>
       </c>
       <c r="E89">
-        <v>48.872999999999998</v>
+        <v>49.871000000000002</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
-        <v>4126.2029999999995</v>
+        <f>C89+D89</f>
+        <v>1926.9289999999999</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="4"/>
-        <v>45.919150214783315</v>
+        <f>F89/B89</f>
+        <v>46.482426727777103</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="5"/>
-        <v>0.39122666708026033</v>
+        <f>D89/C89</f>
+        <v>0.24741073434221744</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>2.3E-2</v>
+        <v>145.96700000000001</v>
       </c>
       <c r="C90">
-        <v>0.04</v>
+        <v>1043.0229999999999</v>
       </c>
       <c r="D90">
-        <v>2.5000000000000001E-2</v>
+        <v>1019.94</v>
       </c>
       <c r="E90">
-        <v>2.9000000000000001E-2</v>
+        <v>117.413</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
-        <v>6.5000000000000002E-2</v>
+        <f>C90+D90</f>
+        <v>2062.9629999999997</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="4"/>
-        <v>2.8260869565217392</v>
+        <f>F90/B90</f>
+        <v>14.133078024484984</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
+        <f>D90/C90</f>
+        <v>0.97786913615519522</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B91">
-        <v>49.795999999999999</v>
+        <v>30.753</v>
       </c>
       <c r="C91">
-        <v>1957.9649999999999</v>
+        <v>1636.202</v>
       </c>
       <c r="D91">
-        <v>930.98299999999995</v>
+        <v>492.923</v>
       </c>
       <c r="E91">
-        <v>52.508000000000003</v>
+        <v>9.6370000000000005</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
-        <v>2888.9479999999999</v>
+        <f>C91+D91</f>
+        <v>2129.125</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="4"/>
-        <v>58.01566390874769</v>
+        <f>F91/B91</f>
+        <v>69.23308295125679</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47548500611604394</v>
+        <f>D91/C91</f>
+        <v>0.30126048006297512</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B92">
-        <v>0.71799999999999997</v>
+        <v>90.915000000000006</v>
       </c>
       <c r="C92">
-        <v>70.781000000000006</v>
+        <v>1723.357</v>
       </c>
       <c r="D92">
-        <v>2.25</v>
+        <v>1059.2560000000001</v>
       </c>
       <c r="E92">
-        <v>7.6749999999999998</v>
+        <v>130.32599999999999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
-        <v>73.031000000000006</v>
+        <f>C92+D92</f>
+        <v>2782.6130000000003</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="4"/>
-        <v>101.71448467966574</v>
+        <f>F92/B92</f>
+        <v>30.606753561018536</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="5"/>
-        <v>3.178819174637261E-2</v>
+        <f>D92/C92</f>
+        <v>0.61464687815699248</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>5.3639999999999999</v>
+        <v>49.795999999999999</v>
       </c>
       <c r="C93">
-        <v>131.74199999999999</v>
+        <v>1957.9649999999999</v>
       </c>
       <c r="D93">
-        <v>73.402000000000001</v>
+        <v>930.98299999999995</v>
       </c>
       <c r="E93">
-        <v>5.633</v>
+        <v>52.508000000000003</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
-        <v>205.14400000000001</v>
+        <f>C93+D93</f>
+        <v>2888.9479999999999</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="4"/>
-        <v>38.244593586875467</v>
+        <f>F93/B93</f>
+        <v>58.01566390874769</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55716476142763893</v>
+        <f>D93/C93</f>
+        <v>0.47548500611604394</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B94">
-        <v>3.21</v>
+        <v>272.642</v>
       </c>
       <c r="C94">
-        <v>126.084</v>
+        <v>1789.2750000000001</v>
       </c>
       <c r="D94">
-        <v>3.7080000000000002</v>
+        <v>1356.1690000000001</v>
       </c>
       <c r="E94">
-        <v>3.1059999999999999</v>
+        <v>360.185</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
-        <v>129.792</v>
+        <f>C94+D94</f>
+        <v>3145.4440000000004</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="4"/>
-        <v>40.433644859813086</v>
+        <f>F94/B94</f>
+        <v>11.536901871318435</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9408965451603694E-2</v>
+        <f>D94/C94</f>
+        <v>0.75794330105769103</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B95">
-        <v>41.454999999999998</v>
+        <v>30.565999999999999</v>
       </c>
       <c r="C95">
-        <v>1544.7429999999999</v>
+        <v>3461.5509999999999</v>
       </c>
       <c r="D95">
-        <v>382.18599999999998</v>
+        <v>453.07499999999999</v>
       </c>
       <c r="E95">
-        <v>49.871000000000002</v>
+        <v>18.472000000000001</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
-        <v>1926.9289999999999</v>
+        <f>C95+D95</f>
+        <v>3914.6259999999997</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="4"/>
-        <v>46.482426727777103</v>
+        <f>F95/B95</f>
+        <v>128.07125564352549</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="5"/>
-        <v>0.24741073434221744</v>
+        <f>D95/C95</f>
+        <v>0.13088785922842103</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B96">
-        <v>1.083</v>
+        <v>178.14</v>
       </c>
       <c r="C96">
-        <v>36.561999999999998</v>
+        <v>3458.5239999999999</v>
       </c>
       <c r="D96">
-        <v>9.032</v>
+        <v>533.14499999999998</v>
       </c>
       <c r="E96">
-        <v>1.1859999999999999</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
-        <v>45.593999999999994</v>
+        <f>C96+D96</f>
+        <v>3991.6689999999999</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="4"/>
-        <v>42.099722991689745</v>
+        <f>F96/B96</f>
+        <v>22.407482878634784</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2470324380504349</v>
+        <f>D96/C96</f>
+        <v>0.15415391074342696</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>1.6950000000000001</v>
+        <v>89.858000000000004</v>
       </c>
       <c r="C97">
-        <v>256.43</v>
+        <v>2965.8739999999998</v>
       </c>
       <c r="D97">
-        <v>12.31</v>
+        <v>1160.329</v>
       </c>
       <c r="E97">
-        <v>2.194</v>
+        <v>48.872999999999998</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
-        <v>268.74</v>
+        <f>C97+D97</f>
+        <v>4126.2029999999995</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="4"/>
-        <v>158.54867256637169</v>
+        <f>F97/B97</f>
+        <v>45.919150214783315</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="5"/>
-        <v>4.8005303591623444E-2</v>
+        <f>D97/C97</f>
+        <v>0.39122666708026033</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B98">
-        <v>1.345</v>
+        <v>93.537000000000006</v>
       </c>
       <c r="C98">
-        <v>241.24299999999999</v>
+        <v>3867.3310000000001</v>
       </c>
       <c r="D98">
-        <v>23.312000000000001</v>
+        <v>441.23399999999998</v>
       </c>
       <c r="E98">
-        <v>4.3780000000000001</v>
+        <v>17.507999999999999</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
-        <v>264.55500000000001</v>
+        <f>C98+D98</f>
+        <v>4308.5650000000005</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="4"/>
-        <v>196.69516728624535</v>
+        <f>F98/B98</f>
+        <v>46.062681078076061</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="5"/>
-        <v>9.6632855668351003E-2</v>
+        <f>D98/C98</f>
+        <v>0.11409263908364708</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B99">
-        <v>3.1110000000000002</v>
+        <v>22.321999999999999</v>
       </c>
       <c r="C99">
-        <v>225.50299999999999</v>
+        <v>3791.1570000000002</v>
       </c>
       <c r="D99">
-        <v>116.779</v>
+        <v>656.51300000000003</v>
       </c>
       <c r="E99">
-        <v>9.218</v>
+        <v>27.768999999999998</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
-        <v>342.28199999999998</v>
+        <f>C99+D99</f>
+        <v>4447.67</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="4"/>
-        <v>110.02314368370298</v>
+        <f>F99/B99</f>
+        <v>199.25051518681124</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5178600728149958</v>
+        <f>D99/C99</f>
+        <v>0.17316956274825865</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B100">
-        <v>6.3970000000000002</v>
+        <v>1358.165</v>
       </c>
       <c r="C100">
-        <v>1321.431</v>
+        <v>4654.7380000000003</v>
       </c>
       <c r="D100">
-        <v>100.34</v>
+        <v>1219.796</v>
       </c>
       <c r="E100">
-        <v>15.163</v>
+        <v>4.0140000000000002</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
-        <v>1421.771</v>
+        <f>C100+D100</f>
+        <v>5874.5340000000006</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="4"/>
-        <v>222.25590120368921</v>
+        <f>F100/B100</f>
+        <v>4.3253463312631384</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="5"/>
-        <v>7.5932833420738574E-2</v>
+        <f>D100/C100</f>
+        <v>0.26205470640882472</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B101">
-        <v>22.213999999999999</v>
+        <v>123.03700000000001</v>
       </c>
       <c r="C101">
-        <v>615.63199999999995</v>
+        <v>5980.9359999999997</v>
       </c>
       <c r="D101">
-        <v>73.173000000000002</v>
+        <v>952.15499999999997</v>
       </c>
       <c r="E101">
-        <v>1.3380000000000001</v>
+        <v>71.513999999999996</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
-        <v>688.80499999999995</v>
+        <f>C101+D101</f>
+        <v>6933.0909999999994</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="4"/>
-        <v>31.007697848203836</v>
+        <f>F101/B101</f>
+        <v>56.349642790380123</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11885834394573383</v>
+        <f>D101/C101</f>
+        <v>0.1591983261482818</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B102">
-        <v>65.322000000000003</v>
+        <v>244.952</v>
       </c>
       <c r="C102">
-        <v>84.013999999999996</v>
+        <v>3087.712</v>
       </c>
       <c r="D102">
-        <v>17.204999999999998</v>
+        <v>4225.2250000000004</v>
       </c>
       <c r="E102">
-        <v>3.4000000000000002E-2</v>
+        <v>219.357</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
-        <v>101.21899999999999</v>
+        <f>C102+D102</f>
+        <v>7312.9369999999999</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5495392057805943</v>
+        <f>F102/B102</f>
+        <v>29.854571507887261</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="5"/>
-        <v>0.20478729735520271</v>
+        <f>D102/C102</f>
+        <v>1.3683999673544684</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B103">
-        <v>22.917000000000002</v>
+        <v>598.70899999999995</v>
       </c>
       <c r="C103">
-        <v>504.11799999999999</v>
+        <v>4116.26</v>
       </c>
       <c r="D103">
-        <v>15.795</v>
+        <v>3969.0479999999998</v>
       </c>
       <c r="E103">
-        <v>5.2839999999999998</v>
+        <v>514.25599999999997</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
-        <v>519.91300000000001</v>
+        <f>C103+D103</f>
+        <v>8085.308</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="4"/>
-        <v>22.686782737705631</v>
+        <f>F103/B103</f>
+        <v>13.504570667887071</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="5"/>
-        <v>3.1331950059311511E-2</v>
+        <f>D103/C103</f>
+        <v>0.96423646708419763</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B104">
-        <v>272.642</v>
+        <v>19.013000000000002</v>
       </c>
       <c r="C104">
-        <v>1789.2750000000001</v>
+        <v>8657.39</v>
       </c>
       <c r="D104">
-        <v>1356.1690000000001</v>
+        <v>44.707000000000001</v>
       </c>
       <c r="E104">
-        <v>360.185</v>
+        <v>6.5279999999999996</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
-        <v>3145.4440000000004</v>
+        <f>C104+D104</f>
+        <v>8702.0969999999998</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="4"/>
-        <v>11.536901871318435</v>
+        <f>F104/B104</f>
+        <v>457.69194761478985</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="5"/>
-        <v>0.75794330105769103</v>
+        <f>D104/C104</f>
+        <v>5.1640274955846973E-3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B105">
-        <v>1.929</v>
+        <v>112.248</v>
       </c>
       <c r="C105">
-        <v>85.513000000000005</v>
+        <v>6821.348</v>
       </c>
       <c r="D105">
-        <v>2.3919999999999999</v>
+        <v>2430.2370000000001</v>
       </c>
       <c r="E105">
-        <v>0.90800000000000003</v>
+        <v>166.45099999999999</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
-        <v>87.905000000000001</v>
+        <f>C105+D105</f>
+        <v>9251.5849999999991</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="4"/>
-        <v>45.570243649559359</v>
+        <f>F105/B105</f>
+        <v>82.420934003278447</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7972355080514072E-2</v>
+        <f>D105/C105</f>
+        <v>0.3562693180292224</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106">
-        <v>1358.165</v>
+        <v>3951.002</v>
       </c>
       <c r="C106">
-        <v>4654.7380000000003</v>
+        <v>8425.1509999999998</v>
       </c>
       <c r="D106">
-        <v>1219.796</v>
+        <v>2350.1480000000001</v>
       </c>
       <c r="E106">
-        <v>4.0140000000000002</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
-        <v>5874.5340000000006</v>
+        <f>C106+D106</f>
+        <v>10775.298999999999</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3253463312631384</v>
+        <f>F106/B106</f>
+        <v>2.7272319781159311</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="5"/>
-        <v>0.26205470640882472</v>
+        <f>D106/C106</f>
+        <v>0.27894431803062048</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B107">
-        <v>3951.002</v>
+        <v>193.79900000000001</v>
       </c>
       <c r="C107">
-        <v>8425.1509999999998</v>
+        <v>8111.8440000000001</v>
       </c>
       <c r="D107">
-        <v>2350.1480000000001</v>
+        <v>2719.7669999999998</v>
       </c>
       <c r="E107">
-        <v>3.2189999999999999</v>
+        <v>100.161</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:F109" si="6">C107+D107</f>
-        <v>10775.298999999999</v>
+        <f>C107+D107</f>
+        <v>10831.611000000001</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ref="G107:G109" si="7">F107/B107</f>
-        <v>2.7272319781159311</v>
+        <f>F107/B107</f>
+        <v>55.890954029690555</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" ref="I107:I109" si="8">D107/C107</f>
-        <v>0.27894431803062048</v>
+        <f>D107/C107</f>
+        <v>0.33528344479997396</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="B108">
-        <v>14.808</v>
+        <v>63.691000000000003</v>
       </c>
       <c r="C108">
-        <v>1005.378</v>
+        <v>8328.1419999999998</v>
       </c>
       <c r="D108">
-        <v>110.256</v>
+        <v>3849.7559999999999</v>
       </c>
       <c r="E108">
-        <v>8.4920000000000009</v>
+        <v>167.369</v>
       </c>
       <c r="F108">
-        <f t="shared" si="6"/>
-        <v>1115.634</v>
+        <f>C108+D108</f>
+        <v>12177.897999999999</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="7"/>
-        <v>75.33995137763371</v>
+        <f>F108/B108</f>
+        <v>191.20280730401467</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="8"/>
-        <v>0.10966621509521791</v>
+        <f>D108/C108</f>
+        <v>0.46225868867269554</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B109">
-        <v>93.537000000000006</v>
+        <v>606.37800000000004</v>
       </c>
       <c r="C109">
-        <v>3867.3310000000001</v>
+        <v>8727.8379999999997</v>
       </c>
       <c r="D109">
-        <v>441.23399999999998</v>
+        <v>4416.9089999999997</v>
       </c>
       <c r="E109">
-        <v>17.507999999999999</v>
+        <v>475.16800000000001</v>
       </c>
       <c r="F109">
-        <f t="shared" si="6"/>
-        <v>4308.5650000000005</v>
+        <f>C109+D109</f>
+        <v>13144.746999999999</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="7"/>
-        <v>46.062681078076061</v>
+        <f>F109/B109</f>
+        <v>21.677480053695877</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11409263908364708</v>
+        <f>D109/C109</f>
+        <v>0.50607137758514764</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
-    <sortCondition ref="B2:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M109">
+    <sortCondition ref="F2:F109"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12794,10 +12795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B94608D-1427-E648-966F-7ABB7C9483DB}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E39" sqref="E38:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13082,7 +13083,7 @@
       </c>
       <c r="L7">
         <f>HARMEAN(K:K)</f>
-        <v>7.8684658901985824E-2</v>
+        <v>8.808391155248245E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -13116,7 +13117,7 @@
       </c>
       <c r="J8">
         <f>AVERAGE(E:E)</f>
-        <v>101.99050746268651</v>
+        <v>95.714253333333275</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="J17" s="4">
         <f>MAX(H:H)</f>
-        <v>820.4</v>
+        <v>937.31700000000001</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -13521,7 +13522,7 @@
       </c>
       <c r="J19" s="4">
         <f>AVERAGE(H:H)</f>
-        <v>159.2161194029851</v>
+        <v>185.75922666666662</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -13567,754 +13568,754 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>11.593</v>
+        <v>4.4189999999999996</v>
       </c>
       <c r="C21">
-        <v>1.452</v>
+        <v>0.214</v>
       </c>
       <c r="D21">
-        <v>8.2000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E21">
-        <v>13.127000000000001</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="F21">
-        <v>3.585</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="G21">
-        <v>8.5570000000000004</v>
+        <v>2.782</v>
       </c>
       <c r="H21">
-        <v>12.141999999999999</v>
+        <v>4.4669999999999996</v>
       </c>
       <c r="I21">
         <f>H21/E21</f>
-        <v>0.92496381503770841</v>
+        <v>0.95612157534246578</v>
       </c>
       <c r="J21" s="4">
         <f>MEDIAN(H:H)</f>
-        <v>82.277999999999906</v>
+        <v>93.06</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.92496381503770841</v>
+        <v>0.95612157534246578</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B22">
-        <v>4.4189999999999996</v>
+        <v>69.409000000000006</v>
       </c>
       <c r="C22">
-        <v>0.214</v>
+        <v>2.294</v>
       </c>
       <c r="D22">
-        <v>3.9E-2</v>
+        <v>7.7789999999999999</v>
       </c>
       <c r="E22">
-        <v>4.6719999999999997</v>
+        <v>79.481999999999999</v>
       </c>
       <c r="F22">
-        <v>1.6850000000000001</v>
+        <v>73.314999999999998</v>
       </c>
       <c r="G22">
-        <v>2.782</v>
+        <v>8.9629999999999992</v>
       </c>
       <c r="H22">
-        <v>4.4669999999999996</v>
+        <v>82.277999999999906</v>
       </c>
       <c r="I22">
         <f>H22/E22</f>
-        <v>0.95612157534246578</v>
+        <v>1.0351777761002479</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.95612157534246578</v>
+        <v>1.0351777761002479</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>69.409000000000006</v>
+        <v>192.286</v>
       </c>
       <c r="C23">
-        <v>2.294</v>
+        <v>154.11799999999999</v>
       </c>
       <c r="D23">
-        <v>7.7789999999999999</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="E23">
-        <v>79.481999999999999</v>
+        <v>350.08800000000002</v>
       </c>
       <c r="F23">
-        <v>73.314999999999998</v>
+        <v>371.85700000000003</v>
       </c>
       <c r="G23">
-        <v>8.9629999999999992</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="H23">
-        <v>82.277999999999906</v>
+        <v>378.43200000000002</v>
       </c>
       <c r="I23">
         <f>H23/E23</f>
-        <v>1.0351777761002479</v>
+        <v>1.0809625008569275</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1.0351777761002479</v>
+        <v>1.0809625008569275</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>192.286</v>
+        <v>7.1840000000000002</v>
       </c>
       <c r="C24">
-        <v>154.11799999999999</v>
+        <v>1.214</v>
       </c>
       <c r="D24">
-        <v>3.6840000000000002</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E24">
-        <v>350.08800000000002</v>
+        <v>8.577</v>
       </c>
       <c r="F24">
-        <v>371.85700000000003</v>
+        <v>10.573</v>
       </c>
       <c r="G24">
-        <v>6.5750000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H24">
-        <v>378.43200000000002</v>
+        <v>10.877000000000001</v>
       </c>
       <c r="I24">
         <f>H24/E24</f>
-        <v>1.0809625008569275</v>
+        <v>1.268159029963857</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>1.0809625008569275</v>
+        <v>1.268159029963857</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>7.1840000000000002</v>
+        <v>98.808999999999997</v>
       </c>
       <c r="C25">
-        <v>1.214</v>
+        <v>27.268999999999998</v>
       </c>
       <c r="D25">
-        <v>0.17899999999999999</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="E25">
-        <v>8.577</v>
+        <v>128.863</v>
       </c>
       <c r="F25">
-        <v>10.573</v>
+        <v>162.87899999999999</v>
       </c>
       <c r="G25">
-        <v>0.30399999999999999</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="H25">
-        <v>10.877000000000001</v>
+        <v>166.32</v>
       </c>
       <c r="I25">
         <f>H25/E25</f>
-        <v>1.268159029963857</v>
+        <v>1.2906730403606932</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1.268159029963857</v>
+        <v>1.2906730403606932</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>98.808999999999997</v>
+        <v>39.08</v>
       </c>
       <c r="C26">
-        <v>27.268999999999998</v>
+        <v>8.9320000000000004</v>
       </c>
       <c r="D26">
-        <v>2.7850000000000001</v>
+        <v>1.181</v>
       </c>
       <c r="E26">
-        <v>128.863</v>
+        <v>49.192999999999998</v>
       </c>
       <c r="F26">
-        <v>162.87899999999999</v>
+        <v>63.545999999999999</v>
       </c>
       <c r="G26">
-        <v>3.4409999999999998</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="H26">
-        <v>166.32</v>
+        <v>64.733999999999995</v>
       </c>
       <c r="I26">
         <f>H26/E26</f>
-        <v>1.2906730403606932</v>
+        <v>1.3159189315553026</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>1.2906730403606932</v>
+        <v>1.3159189315553026</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B27">
-        <v>39.08</v>
+        <v>88.534000000000006</v>
       </c>
       <c r="C27">
-        <v>8.9320000000000004</v>
+        <v>21.904</v>
       </c>
       <c r="D27">
-        <v>1.181</v>
+        <v>1.151</v>
       </c>
       <c r="E27">
-        <v>49.192999999999998</v>
+        <v>111.589</v>
       </c>
       <c r="F27">
-        <v>63.545999999999999</v>
+        <v>148.322</v>
       </c>
       <c r="G27">
-        <v>1.1879999999999999</v>
+        <v>2.198</v>
       </c>
       <c r="H27">
-        <v>64.733999999999995</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="I27">
         <f>H27/E27</f>
-        <v>1.3159189315553026</v>
+        <v>1.3488784736846824</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1.3159189315553026</v>
+        <v>1.3488784736846824</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>88.534000000000006</v>
+        <v>225.50299999999999</v>
       </c>
       <c r="C28">
-        <v>21.904</v>
+        <v>116.779</v>
       </c>
       <c r="D28">
-        <v>1.151</v>
+        <v>9.218</v>
       </c>
       <c r="E28">
-        <v>111.589</v>
+        <v>351.5</v>
       </c>
       <c r="F28">
-        <v>148.322</v>
+        <v>500.11200000000002</v>
       </c>
       <c r="G28">
-        <v>2.198</v>
+        <v>9.0079999999999991</v>
       </c>
       <c r="H28">
-        <v>150.52000000000001</v>
+        <v>509.12</v>
       </c>
       <c r="I28">
         <f>H28/E28</f>
-        <v>1.3488784736846824</v>
+        <v>1.4484210526315791</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>1.3488784736846824</v>
+        <v>1.4484210526315791</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>225.50299999999999</v>
+        <v>85.896000000000001</v>
       </c>
       <c r="C29">
-        <v>116.779</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="D29">
-        <v>9.218</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="E29">
-        <v>351.5</v>
+        <v>88.908999999999907</v>
       </c>
       <c r="F29">
-        <v>500.11200000000002</v>
+        <v>124.17700000000001</v>
       </c>
       <c r="G29">
-        <v>9.0079999999999991</v>
+        <v>5.2619999999999996</v>
       </c>
       <c r="H29">
-        <v>509.12</v>
+        <v>129.43899999999999</v>
       </c>
       <c r="I29">
         <f>H29/E29</f>
-        <v>1.4484210526315791</v>
+        <v>1.4558593618193898</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1.4484210526315791</v>
+        <v>1.4558593618193898</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B30">
-        <v>85.896000000000001</v>
+        <v>85.596999999999994</v>
       </c>
       <c r="C30">
-        <v>2.2490000000000001</v>
+        <v>2.399</v>
       </c>
       <c r="D30">
-        <v>0.76400000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E30">
-        <v>88.908999999999907</v>
+        <v>88.894999999999996</v>
       </c>
       <c r="F30">
-        <v>124.17700000000001</v>
+        <v>125.28400000000001</v>
       </c>
       <c r="G30">
-        <v>5.2619999999999996</v>
+        <v>5.3639999999999999</v>
       </c>
       <c r="H30">
-        <v>129.43899999999999</v>
+        <v>130.648</v>
       </c>
       <c r="I30">
         <f>H30/E30</f>
-        <v>1.4558593618193898</v>
+        <v>1.4696889588840767</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>1.4558593618193898</v>
+        <v>1.4696889588840767</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B31">
-        <v>85.596999999999994</v>
+        <v>243.11699999999999</v>
       </c>
       <c r="C31">
-        <v>2.399</v>
+        <v>25.975000000000001</v>
       </c>
       <c r="D31">
-        <v>0.89900000000000002</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="E31">
-        <v>88.894999999999996</v>
+        <v>271.29599999999999</v>
       </c>
       <c r="F31">
-        <v>125.28400000000001</v>
+        <v>409.13099999999997</v>
       </c>
       <c r="G31">
-        <v>5.3639999999999999</v>
+        <v>6.8970000000000002</v>
       </c>
       <c r="H31">
-        <v>130.648</v>
+        <v>416.027999999999</v>
       </c>
       <c r="I31">
         <f>H31/E31</f>
-        <v>1.4696889588840767</v>
+        <v>1.5334837225760756</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1.4696889588840767</v>
+        <v>1.5334837225760756</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>243.11699999999999</v>
+        <v>27.797000000000001</v>
       </c>
       <c r="C32">
-        <v>25.975000000000001</v>
+        <v>2.8849999999999998</v>
       </c>
       <c r="D32">
-        <v>2.2040000000000002</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E32">
-        <v>271.29599999999999</v>
+        <v>30.742999999999999</v>
       </c>
       <c r="F32">
-        <v>409.13099999999997</v>
+        <v>17.529</v>
       </c>
       <c r="G32">
-        <v>6.8970000000000002</v>
+        <v>32.161000000000001</v>
       </c>
       <c r="H32">
-        <v>416.027999999999</v>
+        <v>49.69</v>
       </c>
       <c r="I32">
         <f>H32/E32</f>
-        <v>1.5334837225760756</v>
+        <v>1.6163028982207333</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1.5334837225760756</v>
+        <v>1.6163028982207333</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>27.797000000000001</v>
+        <v>129.697</v>
       </c>
       <c r="C33">
-        <v>2.8849999999999998</v>
+        <v>10.202</v>
       </c>
       <c r="D33">
-        <v>6.0999999999999999E-2</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="E33">
-        <v>30.742999999999999</v>
+        <v>140.363</v>
       </c>
       <c r="F33">
-        <v>17.529</v>
+        <v>202.04599999999999</v>
       </c>
       <c r="G33">
-        <v>32.161000000000001</v>
+        <v>25.617999999999999</v>
       </c>
       <c r="H33">
-        <v>49.69</v>
+        <v>227.66399999999999</v>
       </c>
       <c r="I33">
         <f>H33/E33</f>
-        <v>1.6163028982207333</v>
+        <v>1.6219659026951547</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1.6163028982207333</v>
+        <v>1.6219659026951547</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B34">
-        <v>129.697</v>
+        <v>46.783000000000001</v>
       </c>
       <c r="C34">
-        <v>10.202</v>
+        <v>11.452</v>
       </c>
       <c r="D34">
-        <v>0.46400000000000002</v>
+        <v>1.044</v>
       </c>
       <c r="E34">
-        <v>140.363</v>
+        <v>59.278999999999897</v>
       </c>
       <c r="F34">
-        <v>202.04599999999999</v>
+        <v>96.631</v>
       </c>
       <c r="G34">
-        <v>25.617999999999999</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="H34">
-        <v>227.66399999999999</v>
+        <v>98.108000000000004</v>
       </c>
       <c r="I34">
         <f>H34/E34</f>
-        <v>1.6219659026951547</v>
+        <v>1.6550211710723894</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1.6219659026951547</v>
+        <v>1.6550211710723894</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>46.783000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C35">
-        <v>11.452</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D35">
-        <v>1.044</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E35">
-        <v>59.278999999999897</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F35">
-        <v>96.631</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G35">
-        <v>1.4770000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H35">
-        <v>98.108000000000004</v>
+        <v>0.08</v>
       </c>
       <c r="I35">
         <f>H35/E35</f>
-        <v>1.6550211710723894</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>1.6550211710723894</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>1.9E-2</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="C36">
-        <v>3.0000000000000001E-3</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D36">
-        <v>2.5999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>4.8000000000000001E-2</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="F36">
-        <v>7.2999999999999995E-2</v>
+        <v>5.5789999999999997</v>
       </c>
       <c r="G36">
-        <v>7.0000000000000001E-3</v>
+        <v>0.12</v>
       </c>
       <c r="H36">
-        <v>0.08</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="I36">
         <f>H36/E36</f>
-        <v>1.6666666666666667</v>
+        <v>2.6154199173932997</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.6154199173932997</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>1.7529999999999999</v>
+        <v>143.74700000000001</v>
       </c>
       <c r="C37">
-        <v>0.33100000000000002</v>
+        <v>19.3</v>
       </c>
       <c r="D37">
-        <v>9.5000000000000001E-2</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E37">
-        <v>2.1789999999999998</v>
+        <v>163.28399999999999</v>
       </c>
       <c r="F37">
-        <v>5.5789999999999997</v>
+        <v>58.738</v>
       </c>
       <c r="G37">
-        <v>0.12</v>
+        <v>419.17399999999998</v>
       </c>
       <c r="H37">
-        <v>5.6989999999999998</v>
+        <v>477.91199999999998</v>
       </c>
       <c r="I37">
         <f>H37/E37</f>
-        <v>2.6154199173932997</v>
+        <v>2.9268758727125745</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>2.6154199173932997</v>
+        <v>2.9268758727125745</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>143.74700000000001</v>
+        <v>15.243</v>
       </c>
       <c r="C38">
-        <v>19.3</v>
+        <v>5.7309999999999999</v>
       </c>
       <c r="D38">
-        <v>0.23699999999999999</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="E38">
-        <v>163.28399999999999</v>
+        <v>22.37</v>
       </c>
       <c r="F38">
-        <v>58.738</v>
+        <v>78.852999999999994</v>
       </c>
       <c r="G38">
-        <v>419.17399999999998</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="H38">
-        <v>477.91199999999998</v>
+        <v>79.958999999999904</v>
       </c>
       <c r="I38">
         <f>H38/E38</f>
-        <v>2.9268758727125745</v>
+        <v>3.5743853375055834</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>2.9268758727125745</v>
+        <v>3.5743853375055834</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>15.243</v>
+        <v>49.723999999999997</v>
       </c>
       <c r="C39">
-        <v>5.7309999999999999</v>
+        <v>25.92</v>
       </c>
       <c r="D39">
-        <v>1.3959999999999999</v>
+        <v>3.923</v>
       </c>
       <c r="E39">
-        <v>22.37</v>
+        <v>79.566999999999993</v>
       </c>
       <c r="F39">
-        <v>78.852999999999994</v>
+        <v>411.37799999999999</v>
       </c>
       <c r="G39">
-        <v>1.1060000000000001</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="H39">
-        <v>79.958999999999904</v>
+        <v>415.96600000000001</v>
       </c>
       <c r="I39">
         <f>H39/E39</f>
-        <v>3.5743853375055834</v>
+        <v>5.2278708509809348</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>3.5743853375055834</v>
+        <v>5.2278708509809348</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>49.723999999999997</v>
+        <v>34.24</v>
       </c>
       <c r="C40">
-        <v>25.92</v>
+        <v>14.25</v>
       </c>
       <c r="D40">
-        <v>3.923</v>
+        <v>1.7729999999999999</v>
       </c>
       <c r="E40">
-        <v>79.566999999999993</v>
+        <v>50.262999999999998</v>
       </c>
       <c r="F40">
-        <v>411.37799999999999</v>
+        <v>260.721</v>
       </c>
       <c r="G40">
-        <v>4.5880000000000001</v>
+        <v>3.036</v>
       </c>
       <c r="H40">
-        <v>415.96600000000001</v>
+        <v>263.75700000000001</v>
       </c>
       <c r="I40">
         <f>H40/E40</f>
-        <v>5.2278708509809348</v>
+        <v>5.2475379503809965</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>5.2278708509809348</v>
+        <v>5.2475379503809965</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>34.24</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C41">
-        <v>14.25</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D41">
-        <v>1.7729999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E41">
-        <v>50.262999999999998</v>
+        <v>5.5999999999999897E-2</v>
       </c>
       <c r="F41">
-        <v>260.721</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G41">
-        <v>3.036</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>263.75700000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I41">
         <f>H41/E41</f>
-        <v>5.2475379503809965</v>
+        <v>5.9464285714285827</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>5.2475379503809965</v>
+        <v>5.9464285714285827</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>2.4E-2</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="C42">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0830000000000002</v>
       </c>
       <c r="D42">
-        <v>2.5999999999999999E-2</v>
+        <v>1.125</v>
       </c>
       <c r="E42">
-        <v>5.5999999999999897E-2</v>
+        <v>22.348999999999901</v>
       </c>
       <c r="F42">
-        <v>0.32800000000000001</v>
+        <v>139.13</v>
       </c>
       <c r="G42">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8769999999999998</v>
       </c>
       <c r="H42">
-        <v>0.33300000000000002</v>
+        <v>143.00700000000001</v>
       </c>
       <c r="I42">
         <f>H42/E42</f>
-        <v>5.9464285714285827</v>
+        <v>6.3988097901472392</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>5.9464285714285827</v>
+        <v>6.3988097901472392</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -14421,789 +14422,1061 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B46">
-        <v>7.21</v>
+        <v>21.056999999999999</v>
       </c>
       <c r="C46">
-        <v>2.645</v>
+        <v>7.2220000000000004</v>
       </c>
       <c r="D46">
-        <v>0.73799999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="E46">
-        <v>10.593</v>
+        <v>30.359000000000002</v>
       </c>
       <c r="F46">
-        <v>92.117999999999995</v>
+        <v>229.006</v>
       </c>
       <c r="G46">
-        <v>0.65400000000000003</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="H46">
-        <v>92.771999999999906</v>
+        <v>234.36799999999999</v>
       </c>
       <c r="I46">
         <f>H46/E46</f>
-        <v>8.7578589634664308</v>
+        <v>7.7198853717184353</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>8.7578589634664308</v>
+        <v>7.7198853717184353</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <v>4.8689999999999998</v>
+        <v>33.790999999999997</v>
       </c>
       <c r="C47">
-        <v>2.0129999999999999</v>
+        <v>11.005000000000001</v>
       </c>
       <c r="D47">
-        <v>0.56699999999999995</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="E47">
-        <v>7.4489999999999998</v>
+        <v>48.048000000000002</v>
       </c>
       <c r="F47">
-        <v>67.724999999999994</v>
+        <v>389.33800000000002</v>
       </c>
       <c r="G47">
-        <v>0.51700000000000002</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="H47">
-        <v>68.241999999999905</v>
+        <v>396.39699999999999</v>
       </c>
       <c r="I47">
         <f>H47/E47</f>
-        <v>9.1612296952610954</v>
+        <v>8.2500208125208125</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>9.1612296952610954</v>
+        <v>8.2500208125208125</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>1.494</v>
+        <v>35.53</v>
       </c>
       <c r="C48">
-        <v>0.92900000000000005</v>
+        <v>11.663</v>
       </c>
       <c r="D48">
-        <v>0.19500000000000001</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="E48">
-        <v>2.6179999999999999</v>
+        <v>49.589999999999897</v>
       </c>
       <c r="F48">
-        <v>27.446999999999999</v>
+        <v>414.47199999999998</v>
       </c>
       <c r="G48">
-        <v>0.26900000000000002</v>
+        <v>7.8920000000000003</v>
       </c>
       <c r="H48">
-        <v>27.715999999999902</v>
+        <v>422.36399999999998</v>
       </c>
       <c r="I48">
         <f>H48/E48</f>
-        <v>10.586707410236786</v>
+        <v>8.5171203871748506</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>10.586707410236786</v>
+        <v>8.5171203871748506</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>0.69799999999999995</v>
+        <v>7.21</v>
       </c>
       <c r="C49">
-        <v>0.38400000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="D49">
-        <v>0.109</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E49">
-        <v>1.1909999999999901</v>
+        <v>10.593</v>
       </c>
       <c r="F49">
-        <v>13.241</v>
+        <v>92.117999999999995</v>
       </c>
       <c r="G49">
-        <v>9.8000000000000004E-2</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H49">
-        <v>13.339</v>
+        <v>92.771999999999906</v>
       </c>
       <c r="I49">
         <f>H49/E49</f>
-        <v>11.199832073887583</v>
+        <v>8.7578589634664308</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>11.199832073887583</v>
+        <v>8.7578589634664308</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B50">
-        <v>0.57799999999999996</v>
+        <v>23.972999999999999</v>
       </c>
       <c r="C50">
-        <v>0.17599999999999999</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="D50">
-        <v>0.09</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="E50">
-        <v>0.84399999999999997</v>
+        <v>34.597000000000001</v>
       </c>
       <c r="F50">
-        <v>9.6120000000000001</v>
+        <v>300.36399999999998</v>
       </c>
       <c r="G50">
-        <v>5.8000000000000003E-2</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="H50">
-        <v>9.67</v>
+        <v>306.24299999999999</v>
       </c>
       <c r="I50">
         <f>H50/E50</f>
-        <v>11.457345971563981</v>
+        <v>8.8517212475070082</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>11.457345971563981</v>
+        <v>8.8517212475070082</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B51">
-        <v>1.109</v>
+        <v>12.016</v>
       </c>
       <c r="C51">
-        <v>0.73799999999999999</v>
+        <v>3.8119999999999998</v>
       </c>
       <c r="D51">
-        <v>0.16500000000000001</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E51">
-        <v>2.012</v>
+        <v>17.033000000000001</v>
       </c>
       <c r="F51">
-        <v>25.24</v>
+        <v>148.161</v>
       </c>
       <c r="G51">
-        <v>0.217</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="H51">
-        <v>25.456999999999901</v>
+        <v>151.32300000000001</v>
       </c>
       <c r="I51">
         <f>H51/E51</f>
-        <v>12.652584493041701</v>
+        <v>8.8841073210826043</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>12.652584493041701</v>
+        <v>8.8841073210826043</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>1.391</v>
+        <v>4.8689999999999998</v>
       </c>
       <c r="C52">
-        <v>0.88500000000000001</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="D52">
-        <v>0.19800000000000001</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E52">
-        <v>2.47399999999999</v>
+        <v>7.4489999999999998</v>
       </c>
       <c r="F52">
-        <v>31.904</v>
+        <v>67.724999999999994</v>
       </c>
       <c r="G52">
-        <v>0.27600000000000002</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="H52">
-        <v>32.18</v>
+        <v>68.241999999999905</v>
       </c>
       <c r="I52">
         <f>H52/E52</f>
-        <v>13.007275666936188</v>
+        <v>9.1612296952610954</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>13.007275666936188</v>
+        <v>9.1612296952610954</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53">
-        <v>31.175000000000001</v>
+        <v>34.293999999999997</v>
       </c>
       <c r="C53">
-        <v>17.25</v>
+        <v>11.92</v>
       </c>
       <c r="D53">
-        <v>4.1020000000000003</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="E53">
-        <v>52.527000000000001</v>
+        <v>49.638999999999903</v>
       </c>
       <c r="F53">
-        <v>800.13499999999999</v>
+        <v>461.26900000000001</v>
       </c>
       <c r="G53">
-        <v>4.8789999999999996</v>
+        <v>8.99</v>
       </c>
       <c r="H53">
-        <v>805.01400000000001</v>
+        <v>470.25900000000001</v>
       </c>
       <c r="I53">
         <f>H53/E53</f>
-        <v>15.325718202067508</v>
+        <v>9.4735792421281833</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>15.325718202067508</v>
+        <v>9.4735792421281833</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>9.3190000000000008</v>
+        <v>1.494</v>
       </c>
       <c r="C54">
-        <v>2.339</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D54">
-        <v>0.20599999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E54">
-        <v>11.864000000000001</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="F54">
-        <v>237.02799999999999</v>
+        <v>27.446999999999999</v>
       </c>
       <c r="G54">
-        <v>1.3979999999999999</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H54">
-        <v>238.42599999999999</v>
+        <v>27.715999999999902</v>
       </c>
       <c r="I54">
         <f>H54/E54</f>
-        <v>20.096594740391097</v>
+        <v>10.586707410236786</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>20.096594740391097</v>
+        <v>10.586707410236786</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B55">
-        <v>13.917</v>
+        <v>14.177</v>
       </c>
       <c r="C55">
-        <v>5.2110000000000003</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="D55">
-        <v>2.1309999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="E55">
-        <v>21.259</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="F55">
-        <v>566.18200000000002</v>
+        <v>211.399</v>
       </c>
       <c r="G55">
-        <v>1.6120000000000001</v>
+        <v>3.927</v>
       </c>
       <c r="H55">
-        <v>567.79399999999998</v>
+        <v>215.32599999999999</v>
       </c>
       <c r="I55">
         <f>H55/E55</f>
-        <v>26.708405851639306</v>
+        <v>10.638636363636364</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>26.708405851639306</v>
+        <v>10.638636363636364</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B56">
-        <v>14.891</v>
+        <v>61.036999999999999</v>
       </c>
       <c r="C56">
-        <v>5.8520000000000003</v>
+        <v>20.411000000000001</v>
       </c>
       <c r="D56">
-        <v>0.432</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="E56">
-        <v>21.175000000000001</v>
+        <v>86.477000000000004</v>
       </c>
       <c r="F56">
-        <v>770.91300000000001</v>
+        <v>922.69200000000001</v>
       </c>
       <c r="G56">
-        <v>4.3410000000000002</v>
+        <v>14.625</v>
       </c>
       <c r="H56">
-        <v>775.25400000000002</v>
+        <v>937.31700000000001</v>
       </c>
       <c r="I56">
         <f>H56/E56</f>
-        <v>36.611759149940966</v>
+        <v>10.838916706176208</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>36.611759149940966</v>
+        <v>10.838916706176208</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B57">
-        <v>3.4000000000000002E-2</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="C57">
-        <v>1.2999999999999999E-2</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D57">
-        <v>2.7E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E57">
-        <v>7.3999999999999996E-2</v>
+        <v>1.1909999999999901</v>
       </c>
       <c r="F57">
-        <v>10.348000000000001</v>
+        <v>13.241</v>
       </c>
       <c r="G57">
-        <v>4.4999999999999998E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H57">
-        <v>10.393000000000001</v>
+        <v>13.339</v>
       </c>
       <c r="I57">
         <f>H57/E57</f>
-        <v>140.44594594594597</v>
+        <v>11.199832073887583</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>140.44594594594597</v>
+        <v>11.199832073887583</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>4.4999999999999998E-2</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="C58">
-        <v>1.7000000000000001E-2</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D58">
-        <v>2.5999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E58">
-        <v>8.7999999999999995E-2</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="F58">
-        <v>18.356999999999999</v>
+        <v>9.6120000000000001</v>
       </c>
       <c r="G58">
-        <v>7.4999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H58">
-        <v>18.431999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="I58">
         <f>H58/E58</f>
-        <v>209.45454545454544</v>
+        <v>11.457345971563981</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>209.45454545454544</v>
+        <v>11.457345971563981</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>4.9000000000000002E-2</v>
+        <v>1.109</v>
       </c>
       <c r="C59">
-        <v>1.9E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D59">
-        <v>2.7E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E59">
-        <v>9.5000000000000001E-2</v>
+        <v>2.012</v>
       </c>
       <c r="F59">
-        <v>21.805</v>
+        <v>25.24</v>
       </c>
       <c r="G59">
-        <v>9.5000000000000001E-2</v>
+        <v>0.217</v>
       </c>
       <c r="H59">
-        <v>21.9</v>
+        <v>25.456999999999901</v>
       </c>
       <c r="I59">
         <f>H59/E59</f>
-        <v>230.52631578947367</v>
+        <v>12.652584493041701</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>230.52631578947367</v>
+        <v>12.652584493041701</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>5.8999999999999997E-2</v>
+        <v>1.391</v>
       </c>
       <c r="C60">
-        <v>2.1999999999999999E-2</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D60">
-        <v>2.7E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E60">
-        <v>0.107999999999999</v>
+        <v>2.47399999999999</v>
       </c>
       <c r="F60">
-        <v>25.521999999999998</v>
+        <v>31.904</v>
       </c>
       <c r="G60">
-        <v>0.125</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H60">
-        <v>25.646999999999998</v>
+        <v>32.18</v>
       </c>
       <c r="I60">
         <f>H60/E60</f>
-        <v>237.47222222222442</v>
+        <v>13.007275666936188</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>237.47222222222442</v>
+        <v>13.007275666936188</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B61">
-        <v>6.0999999999999999E-2</v>
+        <v>31.175000000000001</v>
       </c>
       <c r="C61">
-        <v>2.4E-2</v>
+        <v>17.25</v>
       </c>
       <c r="D61">
-        <v>2.7E-2</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="E61">
-        <v>0.111999999999999</v>
+        <v>52.527000000000001</v>
       </c>
       <c r="F61">
-        <v>35.345999999999997</v>
+        <v>800.13499999999999</v>
       </c>
       <c r="G61">
-        <v>0.14599999999999999</v>
+        <v>4.8789999999999996</v>
       </c>
       <c r="H61">
-        <v>35.491999999999997</v>
+        <v>805.01400000000001</v>
       </c>
       <c r="I61">
         <f>H61/E61</f>
-        <v>316.89285714285995</v>
+        <v>15.325718202067508</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>316.89285714285995</v>
+        <v>15.325718202067508</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B62">
-        <v>6.3E-2</v>
+        <v>9.3190000000000008</v>
       </c>
       <c r="C62">
-        <v>2.4E-2</v>
+        <v>2.339</v>
       </c>
       <c r="D62">
-        <v>2.8000000000000001E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E62">
-        <v>0.11499999999999901</v>
+        <v>11.864000000000001</v>
       </c>
       <c r="F62">
-        <v>37.802</v>
+        <v>237.02799999999999</v>
       </c>
       <c r="G62">
-        <v>0.17799999999999999</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="H62">
-        <v>37.979999999999997</v>
+        <v>238.42599999999999</v>
       </c>
       <c r="I62">
         <f>H62/E62</f>
-        <v>330.26086956522022</v>
+        <v>20.096594740391097</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>330.26086956522022</v>
+        <v>20.096594740391097</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B63">
-        <v>5.8000000000000003E-2</v>
+        <v>13.917</v>
       </c>
       <c r="C63">
-        <v>2.3E-2</v>
+        <v>5.2110000000000003</v>
       </c>
       <c r="D63">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1309999999999998</v>
       </c>
       <c r="E63">
-        <v>0.109</v>
+        <v>21.259</v>
       </c>
       <c r="F63">
-        <v>63.241999999999997</v>
+        <v>566.18200000000002</v>
       </c>
       <c r="G63">
-        <v>0.255</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="H63">
-        <v>63.497</v>
+        <v>567.79399999999998</v>
       </c>
       <c r="I63">
         <f>H63/E63</f>
-        <v>582.54128440366969</v>
+        <v>26.708405851639306</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>582.54128440366969</v>
+        <v>26.708405851639306</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>6.9000000000000006E-2</v>
+        <v>14.891</v>
       </c>
       <c r="C64">
-        <v>2.7E-2</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="D64">
-        <v>2.9000000000000001E-2</v>
+        <v>0.432</v>
       </c>
       <c r="E64">
-        <v>0.125</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="F64">
-        <v>86.311999999999998</v>
+        <v>770.91300000000001</v>
       </c>
       <c r="G64">
-        <v>0.37</v>
+        <v>4.3410000000000002</v>
       </c>
       <c r="H64">
-        <v>86.682000000000002</v>
+        <v>775.25400000000002</v>
       </c>
       <c r="I64">
         <f>H64/E64</f>
-        <v>693.45600000000002</v>
+        <v>36.611759149940966</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>693.45600000000002</v>
+        <v>36.611759149940966</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>0.10199999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C65">
-        <v>3.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D65">
-        <v>2.9000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E65">
-        <v>0.16999999999999901</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F65">
-        <v>142.10900000000001</v>
+        <v>10.348000000000001</v>
       </c>
       <c r="G65">
-        <v>0.57899999999999996</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H65">
-        <v>142.68799999999999</v>
+        <v>10.393000000000001</v>
       </c>
       <c r="I65">
         <f>H65/E65</f>
-        <v>839.34117647059304</v>
+        <v>140.44594594594597</v>
       </c>
       <c r="K65">
         <f t="shared" ref="K65:K68" si="1">H65/E65</f>
-        <v>839.34117647059304</v>
+        <v>140.44594594594597</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>0.122</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C66">
-        <v>4.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D66">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E66">
-        <v>0.19899999999999901</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F66">
-        <v>230.06299999999999</v>
+        <v>18.356999999999999</v>
       </c>
       <c r="G66">
-        <v>1.056</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H66">
-        <v>231.119</v>
+        <v>18.431999999999999</v>
       </c>
       <c r="I66">
         <f>H66/E66</f>
-        <v>1161.4020100502571</v>
+        <v>209.45454545454544</v>
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>1161.4020100502571</v>
+        <v>209.45454545454544</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B67">
-        <v>0.11700000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C67">
-        <v>4.3999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D67">
-        <v>2.9000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E67">
-        <v>0.19</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F67">
-        <v>404.12299999999999</v>
+        <v>21.805</v>
       </c>
       <c r="G67">
-        <v>1.61</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H67">
-        <v>405.733</v>
+        <v>21.9</v>
       </c>
       <c r="I67">
         <f>H67/E67</f>
-        <v>2135.4368421052632</v>
+        <v>230.52631578947367</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>2135.4368421052632</v>
+        <v>230.52631578947367</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>0.123</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C68">
-        <v>4.8000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D68">
-        <v>3.1E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E68">
-        <v>0.20199999999999901</v>
+        <v>0.107999999999999</v>
       </c>
       <c r="F68">
-        <v>489.416</v>
+        <v>25.521999999999998</v>
       </c>
       <c r="G68">
-        <v>2.0089999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="H68">
-        <v>491.42500000000001</v>
+        <v>25.646999999999998</v>
       </c>
       <c r="I68">
         <f>H68/E68</f>
-        <v>2432.7970297029824</v>
+        <v>237.47222222222442</v>
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
+        <v>237.47222222222442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D69">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.111999999999999</v>
+      </c>
+      <c r="F69">
+        <v>35.345999999999997</v>
+      </c>
+      <c r="G69">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H69">
+        <v>35.491999999999997</v>
+      </c>
+      <c r="I69">
+        <f>H69/E69</f>
+        <v>316.89285714285995</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K77" si="2">H69/E69</f>
+        <v>316.89285714285995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C70">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D70">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.11499999999999901</v>
+      </c>
+      <c r="F70">
+        <v>37.802</v>
+      </c>
+      <c r="G70">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H70">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="I70">
+        <f>H70/E70</f>
+        <v>330.26086956522022</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>330.26086956522022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C71">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D71">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.109</v>
+      </c>
+      <c r="F71">
+        <v>63.241999999999997</v>
+      </c>
+      <c r="G71">
+        <v>0.255</v>
+      </c>
+      <c r="H71">
+        <v>63.497</v>
+      </c>
+      <c r="I71">
+        <f>H71/E71</f>
+        <v>582.54128440366969</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>582.54128440366969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C72">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D72">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.125</v>
+      </c>
+      <c r="F72">
+        <v>86.311999999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.37</v>
+      </c>
+      <c r="H72">
+        <v>86.682000000000002</v>
+      </c>
+      <c r="I72">
+        <f>H72/E72</f>
+        <v>693.45600000000002</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>693.45600000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C73">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D73">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.16999999999999901</v>
+      </c>
+      <c r="F73">
+        <v>142.10900000000001</v>
+      </c>
+      <c r="G73">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="H73">
+        <v>142.68799999999999</v>
+      </c>
+      <c r="I73">
+        <f>H73/E73</f>
+        <v>839.34117647059304</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>839.34117647059304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>0.122</v>
+      </c>
+      <c r="C74">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.19899999999999901</v>
+      </c>
+      <c r="F74">
+        <v>230.06299999999999</v>
+      </c>
+      <c r="G74">
+        <v>1.056</v>
+      </c>
+      <c r="H74">
+        <v>231.119</v>
+      </c>
+      <c r="I74">
+        <f>H74/E74</f>
+        <v>1161.4020100502571</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>1161.4020100502571</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C75">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D75">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.19</v>
+      </c>
+      <c r="F75">
+        <v>404.12299999999999</v>
+      </c>
+      <c r="G75">
+        <v>1.61</v>
+      </c>
+      <c r="H75">
+        <v>405.733</v>
+      </c>
+      <c r="I75">
+        <f>H75/E75</f>
+        <v>2135.4368421052632</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>2135.4368421052632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0.123</v>
+      </c>
+      <c r="C76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D76">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.20199999999999901</v>
+      </c>
+      <c r="F76">
+        <v>489.416</v>
+      </c>
+      <c r="G76">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="H76">
+        <v>491.42500000000001</v>
+      </c>
+      <c r="I76">
+        <f>H76/E76</f>
         <v>2432.7970297029824</v>
       </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>2432.7970297029824</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I73">
-    <sortCondition ref="I2:I73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I78">
+    <sortCondition ref="I2:I78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
